--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="add_clue" sheetId="2" r:id="rId2"/>
     <sheet name="check_students" sheetId="3" r:id="rId3"/>
     <sheet name="Admission" sheetId="4" r:id="rId4"/>
+    <sheet name="charge" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="130">
   <si>
     <t>case_ID</t>
   </si>
@@ -118,6 +119,9 @@
     <t>Head_portrait</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>实际结果</t>
   </si>
   <si>
@@ -160,72 +164,72 @@
     <t>输入姓名</t>
   </si>
   <si>
+    <t>小灰灰闯江湖6</t>
+  </si>
+  <si>
+    <t>sign_up_input</t>
+  </si>
+  <si>
+    <t>输入联系号码</t>
+  </si>
+  <si>
+    <t>17845353452</t>
+  </si>
+  <si>
+    <t>点击申请年级输入框</t>
+  </si>
+  <si>
+    <t>选择年级</t>
+  </si>
+  <si>
+    <t>grade_chose1</t>
+  </si>
+  <si>
+    <t>点击提交</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>确认已经提交</t>
+  </si>
+  <si>
+    <t>student_name</t>
+  </si>
+  <si>
+    <t>确认是否提交成功</t>
+  </si>
+  <si>
+    <t>element_text</t>
+  </si>
+  <si>
+    <t>Clue_02</t>
+  </si>
+  <si>
+    <t>审核线索</t>
+  </si>
+  <si>
+    <t>点击审核button</t>
+  </si>
+  <si>
+    <t>check_button</t>
+  </si>
+  <si>
+    <t>点击通过</t>
+  </si>
+  <si>
+    <t>pass_select</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>ensure_button</t>
+  </si>
+  <si>
     <t>小灰灰闯江湖5</t>
   </si>
   <si>
-    <t>sign_up_input</t>
-  </si>
-  <si>
-    <t>输入联系号码</t>
-  </si>
-  <si>
-    <t>17845353457</t>
-  </si>
-  <si>
-    <t>点击申请年级输入框</t>
-  </si>
-  <si>
-    <t>选择年级</t>
-  </si>
-  <si>
-    <t>grade_chose1</t>
-  </si>
-  <si>
-    <t>点击提交</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>确认已经提交</t>
-  </si>
-  <si>
-    <t>student_name</t>
-  </si>
-  <si>
-    <t>确认是否提交成功</t>
-  </si>
-  <si>
-    <t>element_text</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Clue_02</t>
-  </si>
-  <si>
-    <t>审核线索</t>
-  </si>
-  <si>
-    <t>点击审核button</t>
-  </si>
-  <si>
-    <t>check_button</t>
-  </si>
-  <si>
-    <t>点击通过</t>
-  </si>
-  <si>
-    <t>pass_select</t>
-  </si>
-  <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>ensure_button</t>
-  </si>
-  <si>
     <t>admit_01</t>
   </si>
   <si>
@@ -253,13 +257,157 @@
     <t>admin_student</t>
   </si>
   <si>
-    <t>点击已录取tab项</t>
-  </si>
-  <si>
-    <t>admitted</t>
-  </si>
-  <si>
-    <t>获取刚刚录取的学生名字</t>
+    <t>获取界面通知</t>
+  </si>
+  <si>
+    <t>success_toast</t>
+  </si>
+  <si>
+    <t>前置页面</t>
+  </si>
+  <si>
+    <t>前置元素</t>
+  </si>
+  <si>
+    <t>前置元素位置</t>
+  </si>
+  <si>
+    <t>子页面</t>
+  </si>
+  <si>
+    <t>子元素</t>
+  </si>
+  <si>
+    <t>子位置</t>
+  </si>
+  <si>
+    <t>charge_01</t>
+  </si>
+  <si>
+    <t>付费</t>
+  </si>
+  <si>
+    <t>点击已录取</t>
+  </si>
+  <si>
+    <t>charge_manage</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>点击设置按钮</t>
+  </si>
+  <si>
+    <t>mouse_menu</t>
+  </si>
+  <si>
+    <t>set_button</t>
+  </si>
+  <si>
+    <t>点击注册学籍</t>
+  </si>
+  <si>
+    <t>father_son_click</t>
+  </si>
+  <si>
+    <t>drop_down</t>
+  </si>
+  <si>
+    <t>charge_text</t>
+  </si>
+  <si>
+    <t>register_student</t>
+  </si>
+  <si>
+    <t>点击选择收费项目</t>
+  </si>
+  <si>
+    <t>charge_item</t>
+  </si>
+  <si>
+    <t>点击选择收费类型</t>
+  </si>
+  <si>
+    <t>chager_type</t>
+  </si>
+  <si>
+    <t>选择收费类型</t>
+  </si>
+  <si>
+    <t>选择学费类型</t>
+  </si>
+  <si>
+    <t>tuition_type</t>
+  </si>
+  <si>
+    <t>选择列表中心学费</t>
+  </si>
+  <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>保存订单</t>
+  </si>
+  <si>
+    <t>save_order</t>
+  </si>
+  <si>
+    <t>确认是否有警告弹窗，有的话选择确认</t>
+  </si>
+  <si>
+    <t>isElementExist</t>
+  </si>
+  <si>
+    <t>warning_popup</t>
+  </si>
+  <si>
+    <t>获取订单收款金额</t>
+  </si>
+  <si>
+    <t>order_amount</t>
+  </si>
+  <si>
+    <t>点击收费button</t>
+  </si>
+  <si>
+    <t>点击选择其他方式</t>
+  </si>
+  <si>
+    <t>other_ways</t>
+  </si>
+  <si>
+    <t>点击选择现金</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>点击选择类型输入框</t>
+  </si>
+  <si>
+    <t>cash_type</t>
+  </si>
+  <si>
+    <t>点击选择类型</t>
+  </si>
+  <si>
+    <t>first_cash_type</t>
+  </si>
+  <si>
+    <t>点击选择金额输入框</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>toast_popop</t>
+  </si>
+  <si>
+    <t>获取支付金额</t>
+  </si>
+  <si>
+    <t>Paid_money</t>
   </si>
 </sst>
 </file>
@@ -305,6 +453,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -334,8 +490,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,16 +527,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,8 +557,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,24 +567,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -434,19 +582,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,79 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,55 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +720,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +773,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +816,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -669,15 +865,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -686,45 +873,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -733,127 +881,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
@@ -862,20 +1019,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +1034,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1238,7 +1389,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1406,7 +1557,9 @@
       <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
@@ -1513,7 +1666,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1563,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1650,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1681,16 +1834,19 @@
       <c r="J5" t="s">
         <v>32</v>
       </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1700,10 +1856,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1711,13 +1867,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1727,16 +1883,19 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1744,13 +1903,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1760,10 +1919,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2"/>
       <c r="M8">
@@ -1772,37 +1931,37 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1811,13 +1970,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1825,13 +1984,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1840,13 +1999,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -1854,13 +2013,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1870,10 +2029,10 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12">
         <v>15</v>
@@ -1881,13 +2040,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1897,10 +2056,10 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M13">
         <v>15</v>
@@ -1908,13 +2067,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1924,10 +2083,10 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14">
         <v>8</v>
@@ -1935,57 +2094,57 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2082,7 +2241,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2132,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -2219,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2249,6 +2408,9 @@
       </c>
       <c r="J5" t="s">
         <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2256,10 +2418,10 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2269,10 +2431,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2283,10 +2445,10 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2296,16 +2458,19 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -2328,7 +2493,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
         <v>64</v>
@@ -2354,7 +2519,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
         <v>66</v>
@@ -2380,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
         <v>68</v>
@@ -2406,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
@@ -2432,7 +2597,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -2458,7 +2623,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
         <v>68</v>
@@ -2484,7 +2649,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
         <v>64</v>
@@ -2510,7 +2675,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
         <v>66</v>
@@ -2536,7 +2701,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
         <v>68</v>
@@ -2547,32 +2712,32 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2594,10 +2759,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2646,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -2767,13 +2932,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2783,10 +2948,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2797,10 +2962,10 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2810,16 +2975,16 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M7">
         <v>4</v>
@@ -2830,23 +2995,23 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2"/>
       <c r="M8">
@@ -2858,10 +3023,10 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -2870,13 +3035,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2884,7 +3049,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2896,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
         <v>68</v>
@@ -2910,10 +3075,10 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2922,42 +3087,856 @@
         <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
     </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
+    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="M9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10">
+        <v>39</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="M11">
+        <v>8</v>
+      </c>
+    </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
       </c>
       <c r="I12" s="2"/>
       <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <f>L19</f>
         <v>0</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27">
+        <f>L19</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="24225"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -38,11 +38,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+      <color rgb="FF222222"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -53,16 +52,24 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -99,8 +106,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -109,6 +117,13 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -122,7 +137,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -135,17 +150,16 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -165,14 +179,6 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,13 +189,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +237,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,55 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,97 +357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,9 +385,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,6 +439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -431,17 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,26 +480,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -482,10 +488,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="23" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="21" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -494,16 +500,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -512,124 +518,124 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="14" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="13" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="12" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="12" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="11" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -638,6 +644,9 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -988,78 +997,78 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="2" width="19.125"/>
-    <col customWidth="1" max="5" min="5" style="2" width="19.375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.375"/>
     <col customWidth="1" max="6" min="6" style="4" width="38.25"/>
-    <col customWidth="1" max="7" min="7" style="2" width="23.75"/>
-    <col customWidth="1" max="8" min="8" style="2" width="18.25"/>
-    <col customWidth="1" max="9" min="9" style="2" width="23.75"/>
-    <col customWidth="1" max="10" min="10" style="2" width="14.875"/>
-    <col customWidth="1" max="12" min="12" style="2" width="12.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
+    <col customWidth="1" max="10" min="10" style="1" width="14.875"/>
+    <col customWidth="1" max="12" min="12" style="1" width="12.875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>模块名字</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>操作步骤</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>执行方法</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>输入数据</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>操作页面</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>操作元素</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>预期页面</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>预期元素</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1071,7 +1080,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1081,34 +1090,34 @@
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>进入登录界面</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>https://schooltest.xiaogj.com</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1138,7 +1147,7 @@
           <t>admin@demo</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -1153,7 +1162,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1183,7 +1192,7 @@
           <t>Qrz888888</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -1198,7 +1207,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1223,12 +1232,8 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>mailto:admin@demo</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -1238,7 +1243,7 @@
           <t>login_button</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Work_platform</t>
         </is>
@@ -1255,82 +1260,82 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" s="2" t="n"/>
       <c r="C6" s="0" t="n"/>
       <c r="E6" s="0" t="n"/>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="1" t="n"/>
+      <c r="G6" s="2" t="n"/>
       <c r="H6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="2" t="n"/>
       <c r="C7" s="0" t="n"/>
       <c r="E7" s="0" t="n"/>
-      <c r="G7" s="1" t="n"/>
+      <c r="G7" s="2" t="n"/>
       <c r="H7" s="0" t="n"/>
-      <c r="I7" s="1" t="n"/>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="0" t="n"/>
       <c r="L7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="2" t="n"/>
       <c r="C8" s="0" t="n"/>
       <c r="E8" s="0" t="n"/>
-      <c r="G8" s="1" t="n"/>
+      <c r="G8" s="2" t="n"/>
       <c r="H8" s="0" t="n"/>
-      <c r="I8" s="1" t="n"/>
+      <c r="I8" s="2" t="n"/>
       <c r="L8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="2" t="n"/>
       <c r="C9" s="0" t="n"/>
       <c r="E9" s="0" t="n"/>
-      <c r="G9" s="1" t="n"/>
+      <c r="G9" s="2" t="n"/>
       <c r="H9" s="0" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="2" t="n"/>
       <c r="C10" s="0" t="n"/>
       <c r="E10" s="0" t="n"/>
-      <c r="G10" s="1" t="n"/>
+      <c r="G10" s="2" t="n"/>
       <c r="H10" s="0" t="n"/>
       <c r="L10" s="0" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="2" t="n"/>
       <c r="C11" s="0" t="n"/>
       <c r="E11" s="0" t="n"/>
-      <c r="G11" s="1" t="n"/>
+      <c r="G11" s="2" t="n"/>
       <c r="H11" s="0" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="2" t="n"/>
       <c r="C12" s="0" t="n"/>
       <c r="E12" s="0" t="n"/>
-      <c r="G12" s="1" t="n"/>
+      <c r="G12" s="2" t="n"/>
       <c r="H12" s="0" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="2" t="n"/>
       <c r="C13" s="0" t="n"/>
       <c r="E13" s="0" t="n"/>
-      <c r="G13" s="1" t="n"/>
+      <c r="G13" s="2" t="n"/>
       <c r="H13" s="0" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="2" t="n"/>
       <c r="C14" s="0" t="n"/>
       <c r="E14" s="0" t="n"/>
-      <c r="G14" s="1" t="n"/>
+      <c r="G14" s="2" t="n"/>
       <c r="H14" s="0" t="n"/>
-      <c r="I14" s="1" t="n"/>
+      <c r="I14" s="2" t="n"/>
       <c r="L14" s="0" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" s="2" t="n"/>
       <c r="C15" s="0" t="n"/>
       <c r="E15" s="0" t="n"/>
-      <c r="G15" s="1" t="n"/>
+      <c r="G15" s="2" t="n"/>
       <c r="H15" s="0" t="n"/>
       <c r="L15" s="0" t="n"/>
     </row>
@@ -1345,7 +1350,6 @@
     <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
     <hyperlink display="admin@demo" ref="F3" tooltip="mailto:admin@demo" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1360,79 +1364,79 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="2" width="19.125"/>
-    <col customWidth="1" max="5" min="5" style="2" width="19.375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="32.625"/>
-    <col customWidth="1" max="7" min="7" style="2" width="23.75"/>
-    <col customWidth="1" max="8" min="8" style="2" width="18.25"/>
-    <col customWidth="1" max="9" min="9" style="2" width="23.75"/>
-    <col customWidth="1" max="10" min="10" style="2" width="14.875"/>
-    <col customWidth="1" max="11" min="11" style="2" width="12.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
+    <col customWidth="1" max="10" min="10" style="1" width="14.875"/>
+    <col customWidth="1" max="11" min="11" style="1" width="15.125"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>模块名字</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>操作步骤</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>执行方法</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>输入数据</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>操作页面</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>操作元素</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>预期页面</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>预期元素</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -1444,7 +1448,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1454,34 +1458,34 @@
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>进入登录界面</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>https://schooltest.xiaogj.com</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1511,7 +1515,7 @@
           <t>admin@demo</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -1526,7 +1530,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1556,7 +1560,7 @@
           <t>Qrz888888</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -1571,7 +1575,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -1601,7 +1605,7 @@
           <t>mailto:admin@demo</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -1611,7 +1615,7 @@
           <t>login_button</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Work_platform</t>
         </is>
@@ -1628,7 +1632,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1654,7 +1658,7 @@
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1669,7 +1673,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1681,7 +1685,7 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>点击全部线索</t>
+          <t>点击线索管理</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -1695,7 +1699,7 @@
         </is>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1705,7 +1709,7 @@
           <t>all_clues</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1725,7 +1729,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1751,7 +1755,7 @@
         </is>
       </c>
       <c r="F8" s="4" t="n"/>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1761,13 +1765,13 @@
           <t>clue_button</t>
         </is>
       </c>
-      <c r="I8" s="1" t="n"/>
+      <c r="I8" s="2" t="n"/>
       <c r="M8" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1793,7 +1797,7 @@
         </is>
       </c>
       <c r="F9" s="4" t="n"/>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1805,7 +1809,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1832,10 +1836,10 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>小灰灰闯江湖6</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1877,10 +1881,10 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>17845353452</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
+          <t>手机号码</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1895,7 +1899,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1912,7 +1916,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -1921,7 +1925,7 @@
         </is>
       </c>
       <c r="F12" s="4" t="n"/>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1936,7 +1940,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -1953,7 +1957,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -1962,7 +1966,7 @@
         </is>
       </c>
       <c r="F13" s="4" t="n"/>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -1977,7 +1981,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -2003,7 +2007,7 @@
         </is>
       </c>
       <c r="F14" s="4" t="n"/>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -2014,11 +2018,11 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -2044,7 +2048,7 @@
         </is>
       </c>
       <c r="F15" s="4" t="n"/>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -2054,10 +2058,10 @@
           <t>student_name</t>
         </is>
       </c>
-      <c r="I15" s="1" t="n"/>
+      <c r="I15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
@@ -2083,7 +2087,7 @@
         </is>
       </c>
       <c r="F16" s="4" t="n"/>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -2093,11 +2097,7 @@
           <t>student_name</t>
         </is>
       </c>
-      <c r="K16" s="4" t="inlineStr">
-        <is>
-          <t>小灰灰闯江湖6</t>
-        </is>
-      </c>
+      <c r="K16" s="4" t="n"/>
       <c r="L16" s="0" t="inlineStr">
         <is>
           <t>Success</t>
@@ -2108,74 +2108,74 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="2" t="n"/>
       <c r="C17" s="0" t="n"/>
       <c r="E17" s="0" t="n"/>
-      <c r="G17" s="1" t="n"/>
+      <c r="G17" s="2" t="n"/>
       <c r="H17" s="0" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="2" t="n"/>
       <c r="C18" s="0" t="n"/>
       <c r="E18" s="0" t="n"/>
-      <c r="G18" s="1" t="n"/>
+      <c r="G18" s="2" t="n"/>
       <c r="H18" s="0" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="2" t="n"/>
       <c r="C19" s="0" t="n"/>
       <c r="E19" s="0" t="n"/>
-      <c r="G19" s="1" t="n"/>
+      <c r="G19" s="2" t="n"/>
       <c r="H19" s="0" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="2" t="n"/>
       <c r="C20" s="0" t="n"/>
       <c r="E20" s="0" t="n"/>
-      <c r="G20" s="1" t="n"/>
+      <c r="G20" s="2" t="n"/>
       <c r="H20" s="0" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="2" t="n"/>
       <c r="C21" s="0" t="n"/>
       <c r="E21" s="0" t="n"/>
-      <c r="G21" s="1" t="n"/>
+      <c r="G21" s="2" t="n"/>
       <c r="H21" s="0" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="2" t="n"/>
       <c r="C22" s="0" t="n"/>
       <c r="E22" s="0" t="n"/>
-      <c r="G22" s="1" t="n"/>
+      <c r="G22" s="2" t="n"/>
       <c r="H22" s="0" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" s="2" t="n"/>
       <c r="C23" s="0" t="n"/>
       <c r="E23" s="0" t="n"/>
-      <c r="G23" s="1" t="n"/>
+      <c r="G23" s="2" t="n"/>
       <c r="H23" s="0" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="2" t="n"/>
       <c r="C24" s="0" t="n"/>
       <c r="E24" s="0" t="n"/>
-      <c r="G24" s="1" t="n"/>
+      <c r="G24" s="2" t="n"/>
       <c r="H24" s="0" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" s="2" t="n"/>
       <c r="C25" s="0" t="n"/>
       <c r="E25" s="0" t="n"/>
-      <c r="G25" s="1" t="n"/>
+      <c r="G25" s="2" t="n"/>
       <c r="H25" s="0" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="2" t="n"/>
       <c r="C26" s="0" t="n"/>
       <c r="E26" s="0" t="n"/>
       <c r="F26" s="4" t="n"/>
-      <c r="G26" s="1" t="n"/>
+      <c r="G26" s="2" t="n"/>
       <c r="H26" s="0" t="n"/>
       <c r="K26" s="4" t="n"/>
     </row>
@@ -2197,81 +2197,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="2" width="19.125"/>
-    <col customWidth="1" max="5" min="5" style="2" width="19.375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="32.625"/>
-    <col customWidth="1" max="7" min="7" style="2" width="23.75"/>
-    <col customWidth="1" max="8" min="8" style="2" width="18.25"/>
-    <col customWidth="1" max="9" min="9" style="2" width="23.75"/>
-    <col customWidth="1" max="10" min="10" style="2" width="14.875"/>
-    <col customWidth="1" max="11" min="11" style="2" width="12.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
+    <col customWidth="1" max="10" min="10" style="1" width="14.875"/>
+    <col customWidth="1" max="11" min="11" style="1" width="12.875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>模块名字</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>操作步骤</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>执行方法</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>输入数据</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>操作页面</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>操作元素</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>预期页面</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>预期元素</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -2283,7 +2283,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -2293,34 +2293,34 @@
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>进入登录界面</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>https://schooltest.xiaogj.com</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -2350,7 +2350,7 @@
           <t>admin@demo</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -2365,7 +2365,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -2395,7 +2395,7 @@
           <t>Qrz888888</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -2440,7 +2440,7 @@
           <t>mailto:admin@demo</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -2450,7 +2450,7 @@
           <t>login_button</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Work_platform</t>
         </is>
@@ -2467,7 +2467,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -2508,7 +2508,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -2544,14 +2544,14 @@
           <t>all_clues</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>clue_button</t>
+          <t>check_button</t>
         </is>
       </c>
       <c r="L7" s="0" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -2589,7 +2589,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -2597,6 +2597,21 @@
       <c r="H8" s="0" t="inlineStr">
         <is>
           <t>check_button</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>pass_select</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -2604,7 +2619,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -2629,7 +2644,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -2644,7 +2659,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -2656,107 +2671,122 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
+          <t>点击流程名称</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>pass_select</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>审核线索</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
           <t>点击确定</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>ensure_button</t>
         </is>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="M11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>审核线索</t>
         </is>
       </c>
-      <c r="C11" s="0" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>点击审核button</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>check_button</t>
         </is>
       </c>
-      <c r="M11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Clue_02</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>审核线索</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>点击通过</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="J12" s="0" t="inlineStr">
         <is>
           <t>pass_select</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -2764,7 +2794,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -2776,201 +2806,281 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
+          <t>点击流程名称</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>pass_select</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>审核线索</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>点击通过</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>pass_select</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>审核线索</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
           <t>点击确定</t>
         </is>
       </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>ensure_button</t>
         </is>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="M15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>审核线索</t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>点击审核button</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>check_button</t>
         </is>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>审核线索</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>点击通过</t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>pass_select</t>
         </is>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>审核线索</t>
         </is>
       </c>
-      <c r="C16" s="0" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>点击确定</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>ensure_button</t>
         </is>
       </c>
-      <c r="M16" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="M18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>新增线索</t>
         </is>
       </c>
-      <c r="C17" s="0" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>确认是否提交成功</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>element_text</t>
         </is>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>student_name</t>
-        </is>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
-        <is>
-          <t>小灰灰闯江湖5</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>check_button</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>待注册</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2992,80 +3102,80 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="2" width="23.375"/>
-    <col customWidth="1" max="5" min="5" style="2" width="13.75"/>
-    <col customWidth="1" max="6" min="6" style="2" width="32.625"/>
-    <col customWidth="1" max="7" min="7" style="2" width="23.75"/>
-    <col customWidth="1" max="8" min="8" style="2" width="18.25"/>
-    <col customWidth="1" max="9" min="9" style="2" width="23.75"/>
-    <col customWidth="1" max="10" min="10" style="2" width="14.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="23.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.75"/>
+    <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
+    <col customWidth="1" max="10" min="10" style="1" width="14.875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>模块名字</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>操作步骤</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>执行方法</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>输入数据</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>操作页面</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>操作元素</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>预期页面</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>预期元素</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -3077,7 +3187,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3087,34 +3197,34 @@
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>进入登录界面</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>https://schooltest.xiaogj.com</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3144,7 +3254,7 @@
           <t>admin@demo</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -3159,7 +3269,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3189,7 +3299,7 @@
           <t>Qrz888888</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -3204,7 +3314,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3234,7 +3344,7 @@
           <t>mailto:admin@demo</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -3244,7 +3354,7 @@
           <t>login_button</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Work_platform</t>
         </is>
@@ -3254,16 +3364,21 @@
           <t>Head_portrait</t>
         </is>
       </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>admit_01</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>录取学生</t>
+          <t>新增线索</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -3282,7 +3397,7 @@
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -3297,216 +3412,260 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>点击线索管理</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>check_button</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
           <t>录取学生</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>点击录取管理</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>选择线索</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>Admission_manage</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>admit_button</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>chose_box</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="M8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>录取学生</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>获取待录取学生名字</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>点击注册button</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>录取学生</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>点击确定</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>ensure_button</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>点击确认</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>agree_button</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>确认是否注册成功</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>element_text</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>student_name</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n"/>
-      <c r="M8" s="0" t="n">
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>register_button</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>已注册</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Clue_02</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>录取学生</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>点击待录取button</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>admin_student</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Clue_02</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>录取学生</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>点击确定</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>ensure_button</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Clue_02</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>录取学生</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>获取界面通知</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>success_toast</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3526,86 +3685,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="9.375"/>
-    <col customWidth="1" max="2" min="2" style="2" width="8.875"/>
-    <col customWidth="1" max="3" min="3" style="2" width="19.25"/>
-    <col customWidth="1" max="5" min="5" style="2" width="19.375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="32.625"/>
-    <col customWidth="1" max="7" min="7" style="2" width="23.75"/>
-    <col customWidth="1" max="8" min="8" style="2" width="18.25"/>
-    <col customWidth="1" max="10" min="9" style="2" width="14.875"/>
-    <col customWidth="1" max="14" min="14" style="2" width="14.875"/>
-    <col customWidth="1" max="15" min="15" style="2" width="18.25"/>
-    <col customWidth="1" max="16" min="16" style="2" width="12.875"/>
-    <col customWidth="1" max="17" min="17" style="2" width="14.875"/>
-    <col customWidth="1" max="18" min="18" style="2" width="18.25"/>
+    <col customWidth="1" max="1" min="1" style="1" width="19.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="8.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="10" min="9" style="1" width="14.875"/>
+    <col customWidth="1" max="11" min="11" style="1" width="12.125"/>
+    <col customWidth="1" max="14" min="14" style="1" width="14.875"/>
+    <col customWidth="1" max="15" min="15" style="1" width="18.25"/>
+    <col customWidth="1" max="16" min="16" style="1" width="12.875"/>
+    <col customWidth="1" max="17" min="17" style="1" width="14.875"/>
+    <col customWidth="1" max="18" min="18" style="1" width="18.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>模块名字</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>操作步骤</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>执行方法</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>输入数据</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>操作页面</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>操作元素</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>预期页面</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>预期元素</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -3647,7 +3807,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3657,34 +3817,34 @@
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>进入登录界面</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>https://schooltest.xiaogj.com</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3714,7 +3874,7 @@
           <t>admin@demo</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -3729,7 +3889,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3759,7 +3919,7 @@
           <t>Qrz888888</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -3774,7 +3934,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -3804,7 +3964,7 @@
           <t>mailto:admin@demo</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -3814,7 +3974,7 @@
           <t>login_button</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Work_platform</t>
         </is>
@@ -3831,9 +3991,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -3843,7 +4003,7 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>点击招生管理</t>
+          <t>点击收费管理</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
@@ -3857,7 +4017,7 @@
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -3868,215 +4028,211 @@
         </is>
       </c>
       <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>点击收费</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>点击添加学生button</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>付费</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>点击录取管理</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>点击查询按钮</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>Admission_manage</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>admit_button</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n"/>
+      <c r="M9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>点击学生勾选框</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>chose_box</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="M10" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>点击已录取</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>点击设置按钮</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>mouse_menu</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>set_button</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n"/>
-      <c r="M9" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>点击注册学籍</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>father_son_click</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>drop_down</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>charge_text</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>39</v>
-      </c>
       <c r="P10" s="0" t="n"/>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>register_student</t>
-        </is>
-      </c>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="0" t="n"/>
       <c r="S10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -4086,12 +4242,12 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>点击选择收费项目</t>
+          <t>点击确定button</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -4100,25 +4256,34 @@
         </is>
       </c>
       <c r="F11" s="4" t="n"/>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>charge_item</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n"/>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
       <c r="M11" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -4128,12 +4293,12 @@
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>点击选择收费类型</t>
+          <t>点击添加收费项</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -4142,615 +4307,700 @@
         </is>
       </c>
       <c r="F12" s="4" t="n"/>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>chager_type</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="n"/>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
       <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>点击选择收费项</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>chose_box</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n"/>
+      <c r="M13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>点击确定button</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>填写备注</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>测试学生订单备注--并且是收据备注</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>remarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>点击确定button</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="17" s="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>确认是否有警告弹窗，有的话选择确认</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>isElementExist</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>tips</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="0" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>收费成功弹窗</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>toast</t>
+        </is>
+      </c>
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>订单保存成功！</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="n"/>
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>点击继续创建button</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>clue_tab</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>切换至线索收费tab</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>clue_tab</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>点击添加线索button</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>点击查询按钮</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="n"/>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>点击线索勾选框</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>chose_box</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="0" t="n"/>
+      <c r="M23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" s="0" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="0" t="n"/>
+      <c r="S23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>点击确定button</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
         <is>
           <t>付费</t>
         </is>
       </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>选择收费类型</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>点击添加收费项</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>chager_type</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="n"/>
-      <c r="M13" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>付费</t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>选择学费类型</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>点击选择收费项</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>click_action</t>
         </is>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>tuition_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>选择列表中心学费</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>tuition</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>点击确定</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>ensure_button</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>保存订单</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>save_order</t>
-        </is>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="18" s="2">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>确认是否有警告弹窗，有的话选择确认</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>isElementExist</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>ensure_button</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="N18" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="O18" s="0" t="inlineStr">
-        <is>
-          <t>warning_popup</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>获取订单收款金额</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>element_text</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>order_amount</t>
-        </is>
-      </c>
-      <c r="N19" s="1" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>点击收费button</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>ensure_button</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>点击选择其他方式</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="n"/>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>other_ways</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="n"/>
-      <c r="J21" s="0" t="n"/>
-      <c r="M21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>点击选择现金</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>点击选择类型输入框</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>cash_type</t>
-        </is>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>点击选择类型</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>first_cash_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>点击选择金额输入框</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F25" s="0">
-        <f>L19</f>
-        <v/>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>cash_type</t>
-        </is>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>点击确认</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="n"/>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>ensure_button</t>
-        </is>
-      </c>
-      <c r="I26" s="0" t="n"/>
-      <c r="J26" s="0" t="n"/>
+          <t>chose_box</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n"/>
       <c r="M26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N26" s="1" t="inlineStr">
-        <is>
-          <t>Admission</t>
-        </is>
-      </c>
-      <c r="O26" s="0" t="inlineStr">
-        <is>
-          <t>toast_popop</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>charge_01</t>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
@@ -4760,7 +5010,7 @@
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>获取支付金额</t>
+          <t>点击确定button</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -4770,24 +5020,230 @@
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>add_button</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>填写备注</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>测试线索订单备注--并且是收据备注</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>remarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>charge_clue_01</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>点击确定button</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="n"/>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="30" s="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>确认是否有警告弹窗，有的话选择确认</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>isElementExist</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n"/>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>tips</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="0" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>charge_student_01</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>付费</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>收费成功弹窗</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
           <t>element_text</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>charge_manage</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>Paid_money</t>
-        </is>
-      </c>
-      <c r="K27" s="0">
-        <f>L19</f>
-        <v/>
-      </c>
-      <c r="N27" s="1" t="n"/>
+      <c r="F31" s="4" t="n"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>charge</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>toast</t>
+        </is>
+      </c>
+      <c r="K31" s="6" t="inlineStr">
+        <is>
+          <t>订单保存成功！</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4808,75 +5264,75 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="5" min="5" style="2" width="13.75"/>
-    <col customWidth="1" max="6" min="6" style="2" width="32.625"/>
-    <col customWidth="1" max="7" min="7" style="2" width="23.75"/>
-    <col customWidth="1" max="8" min="8" style="2" width="18.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.75"/>
+    <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>模块名字</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>操作步骤</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>是否执行</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>执行方法</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>输入数据</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>操作页面</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>操作元素</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>预期页面</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>预期元素</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -4888,7 +5344,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -4898,34 +5354,34 @@
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>进入登录界面</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>https://schooltest.xiaogj.com</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -4955,7 +5411,7 @@
           <t>admin@demo</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -4970,7 +5426,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -5000,7 +5456,7 @@
           <t>Qrz888888</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -5015,7 +5471,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>login_01</t>
         </is>
@@ -5045,7 +5501,7 @@
           <t>mailto:admin@demo</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
         </is>
@@ -5055,7 +5511,7 @@
           <t>login_button</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Work_platform</t>
         </is>
@@ -5072,7 +5528,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -5098,7 +5554,7 @@
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -5113,7 +5569,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -5139,7 +5595,7 @@
         </is>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -5149,7 +5605,7 @@
           <t>all_clues</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
@@ -5169,7 +5625,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Clue_02</t>
         </is>
@@ -5194,7 +5650,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="24225"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="24225"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Admission" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="charge" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="delete_clue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -46,7 +47,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -69,61 +100,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -137,14 +114,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -166,6 +143,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -179,6 +164,22 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -189,7 +190,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,19 +268,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,25 +304,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,121 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,6 +381,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,17 +419,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,11 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,24 +481,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -488,10 +489,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="18" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -500,16 +501,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -518,115 +519,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="12" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="13" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="30" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,8 +1365,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="$A6:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2199,7 +2200,7 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3687,8 +3688,8 @@
   </sheetPr>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N$1:S$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4602,7 +4603,6 @@
           <t>订单保存成功！</t>
         </is>
       </c>
-      <c r="L18" s="0" t="n"/>
       <c r="M18" s="0" t="n">
         <v>0</v>
       </c>
@@ -5262,18 +5262,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="16"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19.125"/>
     <col customWidth="1" max="5" min="5" style="1" width="13.75"/>
     <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
     <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
     <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
+    <col customWidth="1" max="10" min="10" style="1" width="14.875"/>
+    <col customWidth="1" max="11" min="11" style="1" width="15"/>
+    <col customWidth="1" max="12" min="12" style="1" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5530,7 +5537,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Clue_02</t>
+          <t>Clue_01</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -5571,7 +5578,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Clue_02</t>
+          <t>Clue_01</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -5581,7 +5588,7 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>点击全部线索</t>
+          <t>点击线索管理</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -5627,17 +5634,1272 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Clue_02</t>
+          <t>delete_clue_01</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>选择流程状态</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>process_type</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>选择未通过</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>select_types</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>点击页面标签</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>page_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>点击查询</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>clue_checkbox</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>获取学生姓名</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>student_name</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>周七七</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>获取学生手机号码</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>student_phone</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n"/>
+      <c r="L13" s="0" t="n">
+        <v>17800000209</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>选择线索</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>clue_checkbox</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>点击加入回收池</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>join_recovery</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>点击确认</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>回收池toast文案</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>recovery_toast</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>成功加入回收池</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>点击回收池</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>输入学生手机号码搜索</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>search_action</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="n"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>process_type</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="0" t="n"/>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>点击查询</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="n"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>agree_button</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="0" t="n"/>
+      <c r="M20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>获取回收池学生姓名</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>student_name</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr"/>
+      <c r="M21" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>excel计算 加入回收池线索是否在回收池显示</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L22" s="0">
+        <f>IF(L12=L21,加入回收池成功,加入回收池失败)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>点击操作button</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>recovery_button</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>点击删除button</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>more_button</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>点击确认button</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>删除toast文案</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>recovery_toast</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>删除成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>获取回收池学生姓名</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>student_name</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="L28" s="0">
+        <f>IF(L21=L27,删除成功,删除失败)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
+    <hyperlink display="admin@demo" ref="F3" tooltip="mailto:admin@demo" r:id="rId2"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" style="1" width="21.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="12.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="14" min="14" style="1" width="14.875"/>
+    <col customWidth="1" max="15" min="15" style="1" width="18.25"/>
+    <col customWidth="1" max="16" min="16" style="1" width="12.875"/>
+    <col customWidth="1" max="17" min="17" style="1" width="14.875"/>
+    <col customWidth="1" max="18" min="18" style="1" width="18.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>模块名字</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>执行方法</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>输入数据</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>操作页面</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>操作元素</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>预期页面</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>预期元素</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>元素位置</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>前置页面</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>前置元素</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>前置元素位置</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>子页面</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>子元素</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>子位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>进入登录界面</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>https://schooltest.xiaogj.com</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>输入用户名</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>admin@demo</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>输入密码</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Qrz888888</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>点击登录</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>mailto:admin@demo</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>login_button</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Work_platform</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Head_portrait</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>新增线索</t>
         </is>
       </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>点击招生管理</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>recruit_students</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>点击线索管理</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>点击全部线索</t>
+          <t>点击回收池</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -5650,6 +6912,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F8" s="4" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -5657,12 +6920,156 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>action_button</t>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
-        <v>20</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>switch_action</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>输入学生手机号码搜索</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>father_son_input</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>17800000209</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>recovery_page</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>process_type</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="0" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>delete_clue_01</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>删除线索</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>暂停30s</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>wait_action</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="0" t="n"/>
+    </row>
+    <row r="20">
+      <c r="N20" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="P23" s="0" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="0" t="n"/>
+    </row>
+    <row r="30">
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="0" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="add_clue" sheetId="2" r:id="rId2"/>
     <sheet name="check_students" sheetId="3" r:id="rId3"/>
     <sheet name="Admission" sheetId="4" r:id="rId4"/>
-    <sheet name="charge" sheetId="5" r:id="rId5"/>
+    <sheet name="Create_order" sheetId="5" r:id="rId5"/>
     <sheet name="delete_clue" sheetId="6" r:id="rId6"/>
-    <sheet name="test" sheetId="7" r:id="rId7"/>
+    <sheet name="add_staff" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="test" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="171">
   <si>
     <t>case_ID</t>
   </si>
@@ -484,13 +486,49 @@
     <t>点击确认button</t>
   </si>
   <si>
+    <t>staff_01</t>
+  </si>
+  <si>
+    <t>新增员工</t>
+  </si>
+  <si>
+    <t>点击人员部门</t>
+  </si>
+  <si>
+    <t>点击部门管理</t>
+  </si>
+  <si>
+    <t>staff_manage</t>
+  </si>
+  <si>
+    <t>staff_button</t>
+  </si>
+  <si>
+    <t>点击新增员工</t>
+  </si>
+  <si>
+    <t>increse_button</t>
+  </si>
+  <si>
+    <t>more_button</t>
+  </si>
+  <si>
+    <t>点击输入员工姓名</t>
+  </si>
+  <si>
+    <t>staff_name</t>
+  </si>
+  <si>
+    <t>点击输入员工手机号</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>switch_action</t>
   </si>
   <si>
     <t>delete_button</t>
-  </si>
-  <si>
-    <t>more_button</t>
   </si>
   <si>
     <t>暂停30s</t>
@@ -504,8 +542,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -532,9 +570,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,7 +585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,13 +593,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,25 +608,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,8 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,6 +634,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,7 +678,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,6 +694,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,19 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +751,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,43 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,85 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,21 +924,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -916,22 +939,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,6 +986,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +1014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -988,10 +1026,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -1006,115 +1044,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1761,7 +1799,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="$A6:$XFD7"/>
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3307,8 +3345,8 @@
   <sheetPr/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N$1:S$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4341,8 +4379,8 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5133,7 +5171,7 @@
       <c r="I25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>144</v>
       </c>
       <c r="M25">
@@ -5156,6 +5194,449 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
+    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S34"/>
@@ -5466,7 +5947,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
@@ -5575,7 +6056,7 @@
         <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -5584,7 +6065,7 @@
         <v>38</v>
       </c>
       <c r="O12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -5657,13 +6138,13 @@
         <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F15">
         <v>30</v>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="Create_order" sheetId="5" r:id="rId5"/>
     <sheet name="delete_clue" sheetId="6" r:id="rId6"/>
     <sheet name="add_staff" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
-    <sheet name="test" sheetId="8" r:id="rId9"/>
+    <sheet name="Charge" sheetId="8" r:id="rId8"/>
+    <sheet name="add_clue_phone" sheetId="10" r:id="rId9"/>
+    <sheet name="test" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="207">
   <si>
     <t>case_ID</t>
   </si>
@@ -57,7 +58,7 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>实际结果</t>
   </si>
   <si>
     <t>元素位置</t>
@@ -90,445 +91,553 @@
     <t>input_action</t>
   </si>
   <si>
+    <t>admin@lsh</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>Qrz888888</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>click_action</t>
+  </si>
+  <si>
+    <t>login_button</t>
+  </si>
+  <si>
+    <t>Work_platform</t>
+  </si>
+  <si>
+    <t>Head_portrait</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>mailto:admin@demo</t>
+  </si>
+  <si>
+    <t>Clue_01</t>
+  </si>
+  <si>
+    <t>新增线索</t>
+  </si>
+  <si>
+    <t>点击招生管理</t>
+  </si>
+  <si>
+    <t>enrollment_management</t>
+  </si>
+  <si>
+    <t>recruit_students</t>
+  </si>
+  <si>
+    <t>点击线索管理</t>
+  </si>
+  <si>
+    <t>all_clues</t>
+  </si>
+  <si>
+    <t>clue_button</t>
+  </si>
+  <si>
+    <t>点击新增线索</t>
+  </si>
+  <si>
+    <t>等待报名表单出现</t>
+  </si>
+  <si>
+    <t>wait_element_show</t>
+  </si>
+  <si>
+    <t>close_button</t>
+  </si>
+  <si>
+    <t>输入姓名</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>sign_up_input</t>
+  </si>
+  <si>
+    <t>输入联系号码</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>点击申请年级输入框</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>选择年级</t>
+  </si>
+  <si>
+    <t>grade_chose1</t>
+  </si>
+  <si>
+    <t>点击提交</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>确认已经提交</t>
+  </si>
+  <si>
+    <t>student_name</t>
+  </si>
+  <si>
+    <t>确认是否提交成功</t>
+  </si>
+  <si>
+    <t>element_text</t>
+  </si>
+  <si>
+    <t>Clue_02</t>
+  </si>
+  <si>
+    <t>点击全部线索</t>
+  </si>
+  <si>
+    <t>check_button</t>
+  </si>
+  <si>
+    <t>审核线索</t>
+  </si>
+  <si>
+    <t>点击审核button</t>
+  </si>
+  <si>
+    <t>pass_select</t>
+  </si>
+  <si>
+    <t>点击通过</t>
+  </si>
+  <si>
+    <t>点击流程名称</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>ensure_button</t>
+  </si>
+  <si>
+    <t>待注册</t>
+  </si>
+  <si>
+    <t>录取学生</t>
+  </si>
+  <si>
+    <t>选择线索</t>
+  </si>
+  <si>
+    <t>chose_box</t>
+  </si>
+  <si>
+    <t>点击注册button</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>agree_button</t>
+  </si>
+  <si>
+    <t>确认是否注册成功</t>
+  </si>
+  <si>
+    <t>register_button</t>
+  </si>
+  <si>
+    <t>已注册</t>
+  </si>
+  <si>
+    <t>前置页面</t>
+  </si>
+  <si>
+    <t>前置元素</t>
+  </si>
+  <si>
+    <t>前置元素位置</t>
+  </si>
+  <si>
+    <t>子页面</t>
+  </si>
+  <si>
+    <t>子元素</t>
+  </si>
+  <si>
+    <t>子位置</t>
+  </si>
+  <si>
+    <t>付费</t>
+  </si>
+  <si>
+    <t>点击收费管理</t>
+  </si>
+  <si>
+    <t>点击收费</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>add_button</t>
+  </si>
+  <si>
+    <t>charge_student_01</t>
+  </si>
+  <si>
+    <t>点击添加学生button</t>
+  </si>
+  <si>
+    <t>search_button</t>
+  </si>
+  <si>
+    <t>点击查询按钮</t>
+  </si>
+  <si>
+    <t>点击学生勾选框</t>
+  </si>
+  <si>
+    <t>点击确定button</t>
+  </si>
+  <si>
+    <t>点击添加收费项</t>
+  </si>
+  <si>
+    <t>点击选择收费项</t>
+  </si>
+  <si>
+    <t>填写备注</t>
+  </si>
+  <si>
+    <t>测试学生订单备注--并且是收据备注</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>确认是否有警告弹窗，有的话选择确认</t>
+  </si>
+  <si>
+    <t>isElementExist</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>收费成功弹窗</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>订单保存成功！</t>
+  </si>
+  <si>
+    <t>点击继续创建button</t>
+  </si>
+  <si>
+    <t>clue_tab</t>
+  </si>
+  <si>
+    <t>charge_clue_01</t>
+  </si>
+  <si>
+    <t>切换至线索收费tab</t>
+  </si>
+  <si>
+    <t>点击添加线索button</t>
+  </si>
+  <si>
+    <t>点击线索勾选框</t>
+  </si>
+  <si>
+    <t>测试线索订单备注--并且是收据备注</t>
+  </si>
+  <si>
+    <t>delete_clue_01</t>
+  </si>
+  <si>
+    <t>删除线索</t>
+  </si>
+  <si>
+    <t>选择流程状态</t>
+  </si>
+  <si>
+    <t>process_type</t>
+  </si>
+  <si>
+    <t>选择未通过</t>
+  </si>
+  <si>
+    <t>select_types</t>
+  </si>
+  <si>
+    <t>点击页面标签</t>
+  </si>
+  <si>
+    <t>page_name</t>
+  </si>
+  <si>
+    <t>点击查询</t>
+  </si>
+  <si>
+    <t>clue_checkbox</t>
+  </si>
+  <si>
+    <t>获取学生姓名</t>
+  </si>
+  <si>
+    <t>少辉测试数据一</t>
+  </si>
+  <si>
+    <t>获取学生手机号码</t>
+  </si>
+  <si>
+    <t>student_phone</t>
+  </si>
+  <si>
+    <t>17835345353</t>
+  </si>
+  <si>
+    <t>点击加入回收池</t>
+  </si>
+  <si>
+    <t>join_recovery</t>
+  </si>
+  <si>
+    <t>回收池toast文案</t>
+  </si>
+  <si>
+    <t>recovery_toast</t>
+  </si>
+  <si>
+    <t>成功加入回收池</t>
+  </si>
+  <si>
+    <t>点击回收池</t>
+  </si>
+  <si>
+    <t>输入学生手机号码搜索</t>
+  </si>
+  <si>
+    <t>father_son_input</t>
+  </si>
+  <si>
+    <t>recovery_page</t>
+  </si>
+  <si>
+    <t>father_son_click</t>
+  </si>
+  <si>
+    <t>recovery_button</t>
+  </si>
+  <si>
+    <t>获取回收池学生姓名</t>
+  </si>
+  <si>
+    <t>father_son_text</t>
+  </si>
+  <si>
+    <t>excel计算 加入回收池线索是否在回收池显示</t>
+  </si>
+  <si>
+    <t>点击操作button</t>
+  </si>
+  <si>
+    <t>action_button2</t>
+  </si>
+  <si>
+    <t>点击删除button</t>
+  </si>
+  <si>
+    <t>delete_button2</t>
+  </si>
+  <si>
+    <t>点击确认button</t>
+  </si>
+  <si>
+    <t>staff_01</t>
+  </si>
+  <si>
+    <t>新增员工</t>
+  </si>
+  <si>
+    <t>点击人员部门</t>
+  </si>
+  <si>
+    <t>点击部门管理</t>
+  </si>
+  <si>
+    <t>staff_manage</t>
+  </si>
+  <si>
+    <t>staff_button</t>
+  </si>
+  <si>
+    <t>点击新增员工</t>
+  </si>
+  <si>
+    <t>increse_button</t>
+  </si>
+  <si>
+    <t>more_button</t>
+  </si>
+  <si>
+    <t>点击输入员工姓名</t>
+  </si>
+  <si>
+    <t>staff_name</t>
+  </si>
+  <si>
+    <t>点击输入员工手机号</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>admin@demo</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>Qrz888888</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>点击登录</t>
-  </si>
-  <si>
-    <t>click_action</t>
-  </si>
-  <si>
-    <t>login_button</t>
-  </si>
-  <si>
-    <t>Work_platform</t>
-  </si>
-  <si>
-    <t>Head_portrait</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>实际结果</t>
-  </si>
-  <si>
-    <t>mailto:admin@demo</t>
-  </si>
-  <si>
-    <t>Clue_01</t>
-  </si>
-  <si>
-    <t>新增线索</t>
-  </si>
-  <si>
-    <t>点击招生管理</t>
-  </si>
-  <si>
-    <t>enrollment_management</t>
-  </si>
-  <si>
-    <t>recruit_students</t>
-  </si>
-  <si>
-    <t>点击线索管理</t>
-  </si>
-  <si>
-    <t>all_clues</t>
-  </si>
-  <si>
-    <t>clue_button</t>
-  </si>
-  <si>
-    <t>点击新增线索</t>
-  </si>
-  <si>
-    <t>等待报名表单出现</t>
-  </si>
-  <si>
-    <t>wait_element_show</t>
-  </si>
-  <si>
-    <t>close_button</t>
-  </si>
-  <si>
-    <t>输入姓名</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>sign_up_input</t>
-  </si>
-  <si>
-    <t>输入联系号码</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>点击申请年级输入框</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>选择年级</t>
-  </si>
-  <si>
-    <t>grade_chose1</t>
-  </si>
-  <si>
-    <t>点击提交</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>确认已经提交</t>
-  </si>
-  <si>
-    <t>student_name</t>
-  </si>
-  <si>
-    <t>确认是否提交成功</t>
-  </si>
-  <si>
-    <t>element_text</t>
-  </si>
-  <si>
-    <t>Clue_02</t>
-  </si>
-  <si>
-    <t>点击全部线索</t>
-  </si>
-  <si>
-    <t>check_button</t>
-  </si>
-  <si>
-    <t>审核线索</t>
-  </si>
-  <si>
-    <t>点击审核button</t>
-  </si>
-  <si>
-    <t>pass_select</t>
-  </si>
-  <si>
-    <t>点击通过</t>
-  </si>
-  <si>
-    <t>点击流程名称</t>
-  </si>
-  <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>ensure_button</t>
-  </si>
-  <si>
-    <t>待注册</t>
-  </si>
-  <si>
-    <t>录取学生</t>
-  </si>
-  <si>
-    <t>选择线索</t>
-  </si>
-  <si>
-    <t>chose_box</t>
-  </si>
-  <si>
-    <t>点击注册button</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>agree_button</t>
-  </si>
-  <si>
-    <t>确认是否注册成功</t>
-  </si>
-  <si>
-    <t>register_button</t>
-  </si>
-  <si>
-    <t>已注册</t>
-  </si>
-  <si>
-    <t>前置页面</t>
-  </si>
-  <si>
-    <t>前置元素</t>
-  </si>
-  <si>
-    <t>前置元素位置</t>
-  </si>
-  <si>
-    <t>子页面</t>
-  </si>
-  <si>
-    <t>子元素</t>
-  </si>
-  <si>
-    <t>子位置</t>
-  </si>
-  <si>
-    <t>付费</t>
-  </si>
-  <si>
-    <t>点击收费管理</t>
-  </si>
-  <si>
-    <t>点击收费</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>add_button</t>
-  </si>
-  <si>
-    <t>charge_student_01</t>
-  </si>
-  <si>
-    <t>点击添加学生button</t>
-  </si>
-  <si>
-    <t>search_button</t>
-  </si>
-  <si>
-    <t>点击查询按钮</t>
-  </si>
-  <si>
-    <t>点击学生勾选框</t>
-  </si>
-  <si>
-    <t>点击确定button</t>
-  </si>
-  <si>
-    <t>点击添加收费项</t>
-  </si>
-  <si>
-    <t>点击选择收费项</t>
-  </si>
-  <si>
-    <t>填写备注</t>
-  </si>
-  <si>
-    <t>测试学生订单备注--并且是收据备注</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>确认是否有警告弹窗，有的话选择确认</t>
-  </si>
-  <si>
-    <t>isElementExist</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>收费成功弹窗</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>toast</t>
-  </si>
-  <si>
-    <t>订单保存成功！</t>
-  </si>
-  <si>
-    <t>点击继续创建button</t>
-  </si>
-  <si>
-    <t>clue_tab</t>
-  </si>
-  <si>
-    <t>charge_clue_01</t>
-  </si>
-  <si>
-    <t>切换至线索收费tab</t>
-  </si>
-  <si>
-    <t>点击添加线索button</t>
-  </si>
-  <si>
-    <t>点击线索勾选框</t>
-  </si>
-  <si>
-    <t>测试线索订单备注--并且是收据备注</t>
-  </si>
-  <si>
-    <t>delete_clue_01</t>
-  </si>
-  <si>
-    <t>删除线索</t>
-  </si>
-  <si>
-    <t>选择流程状态</t>
-  </si>
-  <si>
-    <t>process_type</t>
-  </si>
-  <si>
-    <t>选择未通过</t>
-  </si>
-  <si>
-    <t>select_types</t>
-  </si>
-  <si>
-    <t>点击页面标签</t>
-  </si>
-  <si>
-    <t>page_name</t>
-  </si>
-  <si>
-    <t>点击查询</t>
-  </si>
-  <si>
-    <t>clue_checkbox</t>
-  </si>
-  <si>
-    <t>获取学生姓名</t>
-  </si>
-  <si>
-    <t>周六</t>
-  </si>
-  <si>
-    <t>获取学生手机号码</t>
-  </si>
-  <si>
-    <t>student_phone</t>
-  </si>
-  <si>
-    <t>17800000230</t>
-  </si>
-  <si>
-    <t>点击加入回收池</t>
-  </si>
-  <si>
-    <t>join_recovery</t>
-  </si>
-  <si>
-    <t>回收池toast文案</t>
-  </si>
-  <si>
-    <t>recovery_toast</t>
-  </si>
-  <si>
-    <t>成功加入回收池</t>
-  </si>
-  <si>
-    <t>点击回收池</t>
-  </si>
-  <si>
-    <t>输入学生手机号码搜索</t>
-  </si>
-  <si>
-    <t>father_son_input</t>
-  </si>
-  <si>
-    <t>recovery_page</t>
-  </si>
-  <si>
-    <t>father_son_click</t>
-  </si>
-  <si>
-    <t>recovery_button</t>
-  </si>
-  <si>
-    <t>获取回收池学生姓名</t>
-  </si>
-  <si>
-    <t>father_son_text</t>
-  </si>
-  <si>
-    <t>excel计算 加入回收池线索是否在回收池显示</t>
-  </si>
-  <si>
-    <t>点击操作button</t>
+    <t>Charge_01</t>
+  </si>
+  <si>
+    <t>点击订单管理</t>
+  </si>
+  <si>
+    <t>order_manage</t>
+  </si>
+  <si>
+    <t>charge_statics</t>
+  </si>
+  <si>
+    <t>点击待付款</t>
+  </si>
+  <si>
+    <t>to_be_paid</t>
+  </si>
+  <si>
+    <t>点击订单编号</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>cancel_button</t>
+  </si>
+  <si>
+    <t>点击立即收款</t>
+  </si>
+  <si>
+    <t>charge_button</t>
+  </si>
+  <si>
+    <t>tab_show</t>
+  </si>
+  <si>
+    <t>点击其他方式</t>
+  </si>
+  <si>
+    <t>other_payways</t>
+  </si>
+  <si>
+    <t>点击现金</t>
+  </si>
+  <si>
+    <t>chose_payway</t>
+  </si>
+  <si>
+    <t>点击下拉框</t>
+  </si>
+  <si>
+    <t>drop_list</t>
+  </si>
+  <si>
+    <t>点击选择账户</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>输入支付金额</t>
+  </si>
+  <si>
+    <t>money_input</t>
+  </si>
+  <si>
+    <t>获取支付文案内容</t>
+  </si>
+  <si>
+    <t>charge_toast</t>
+  </si>
+  <si>
+    <t>收费成功！</t>
+  </si>
+  <si>
+    <t>phone_01</t>
+  </si>
+  <si>
+    <t>移动端留单页</t>
+  </si>
+  <si>
+    <t>打开留单页</t>
+  </si>
+  <si>
+    <t>https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit</t>
+  </si>
+  <si>
+    <t>点击报名须知确认</t>
+  </si>
+  <si>
+    <t>phone_page</t>
+  </si>
+  <si>
+    <t>input_box</t>
+  </si>
+  <si>
+    <t>输入手机号</t>
+  </si>
+  <si>
+    <t>点击校区选中框</t>
+  </si>
+  <si>
+    <t>选择校区</t>
+  </si>
+  <si>
+    <t>school_area</t>
+  </si>
+  <si>
+    <t>switch_action</t>
+  </si>
+  <si>
+    <t>delete_button</t>
   </si>
   <si>
     <t>mouse_menu</t>
-  </si>
-  <si>
-    <t>action_button2</t>
-  </si>
-  <si>
-    <t>点击删除button</t>
-  </si>
-  <si>
-    <t>delete_button2</t>
-  </si>
-  <si>
-    <t>点击确认button</t>
-  </si>
-  <si>
-    <t>staff_01</t>
-  </si>
-  <si>
-    <t>新增员工</t>
-  </si>
-  <si>
-    <t>点击人员部门</t>
-  </si>
-  <si>
-    <t>点击部门管理</t>
-  </si>
-  <si>
-    <t>staff_manage</t>
-  </si>
-  <si>
-    <t>staff_button</t>
-  </si>
-  <si>
-    <t>点击新增员工</t>
-  </si>
-  <si>
-    <t>increse_button</t>
-  </si>
-  <si>
-    <t>more_button</t>
-  </si>
-  <si>
-    <t>点击输入员工姓名</t>
-  </si>
-  <si>
-    <t>staff_name</t>
-  </si>
-  <si>
-    <t>点击输入员工手机号</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>switch_action</t>
-  </si>
-  <si>
-    <t>delete_button</t>
   </si>
   <si>
     <t>暂停30s</t>
@@ -542,12 +651,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +673,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
@@ -571,7 +687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,6 +695,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,9 +729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,8 +752,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,42 +784,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,8 +799,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,14 +816,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +831,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +915,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,43 +957,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,61 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,49 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,17 +1025,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,35 +1049,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,8 +1082,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,10 +1130,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1026,16 +1142,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1044,119 +1160,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1168,10 +1284,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,7 +1644,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1649,7 +1768,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1784,11 +1903,553 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
-    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10">
+        <v>17800000209</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15">
+      <c r="N21" s="2"/>
+      <c r="O21"/>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="27" spans="16:18">
+      <c r="P27"/>
+      <c r="Q27" s="2"/>
+      <c r="R27"/>
+    </row>
+    <row r="34" spans="14:15">
+      <c r="N34" s="2"/>
+      <c r="O34"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
+    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1799,7 +2460,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1849,13 +2510,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1875,6 +2536,9 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1923,7 +2587,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1953,7 +2617,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -1973,13 +2637,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1989,10 +2653,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2000,13 +2664,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2016,16 +2680,16 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -2036,13 +2700,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -2052,10 +2716,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2"/>
       <c r="M8">
@@ -2064,37 +2728,37 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -2103,13 +2767,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2117,13 +2781,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2132,13 +2796,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -2146,26 +2810,26 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12">
         <v>15</v>
@@ -2173,26 +2837,26 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13">
         <v>15</v>
@@ -2200,13 +2864,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -2216,10 +2880,10 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2227,51 +2891,51 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" t="s">
@@ -2356,9 +3020,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
-    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
-    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId3" display="mailto:admin@demo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2371,8 +3035,8 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2422,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -2496,7 +3160,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2526,7 +3190,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -2546,13 +3210,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2562,10 +3226,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2573,13 +3237,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2589,16 +3253,16 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -2609,31 +3273,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -2644,13 +3308,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -2659,10 +3323,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2670,13 +3334,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -2685,10 +3349,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -2696,25 +3360,25 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -2722,31 +3386,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -2757,13 +3421,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -2772,10 +3436,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2783,13 +3447,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -2798,10 +3462,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -2809,25 +3473,25 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -2835,14 +3499,14 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
@@ -2850,10 +3514,10 @@
         <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2861,13 +3525,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -2876,10 +3540,10 @@
         <v>28</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2887,25 +3551,25 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
         <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
-        <v>71</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -2913,29 +3577,29 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -2947,9 +3611,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
-    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
-    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId3" display="mailto:admin@demo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2963,7 +3627,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="$A7:$XFD7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3012,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -3086,7 +3750,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -3116,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -3136,13 +3800,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3152,10 +3816,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3163,13 +3827,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3179,16 +3843,16 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -3199,13 +3863,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3215,10 +3879,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2"/>
       <c r="M8">
@@ -3227,48 +3891,48 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -3277,19 +3941,19 @@
     <row r="11" spans="1:13">
       <c r="A11" s="2"/>
       <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -3297,29 +3961,29 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -3331,9 +3995,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
-    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
-    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId3" display="mailto:admin@demo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3345,8 +4009,8 @@
   <sheetPr/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3402,28 +4066,28 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>87</v>
-      </c>
-      <c r="S1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3494,7 +4158,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -3524,7 +4188,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -3544,13 +4208,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3560,10 +4224,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -3571,13 +4235,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3587,16 +4251,16 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
         <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -3607,32 +4271,32 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
         <v>92</v>
       </c>
-      <c r="H8" t="s">
-        <v>93</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3640,26 +4304,26 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2"/>
       <c r="M9">
@@ -3668,26 +4332,26 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10"/>
@@ -3703,32 +4367,32 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
         <v>92</v>
-      </c>
-      <c r="H11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
-        <v>93</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -3736,32 +4400,32 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
         <v>92</v>
       </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -3769,26 +4433,26 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2"/>
       <c r="M13">
@@ -3797,32 +4461,32 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
         <v>92</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" t="s">
-        <v>93</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -3830,52 +4494,52 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
         <v>103</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -3883,32 +4547,32 @@
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -3918,29 +4582,29 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3948,32 +4612,32 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -3981,13 +4645,13 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
         <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -3997,22 +4661,22 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -4021,16 +4685,16 @@
         <v>28</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
         <v>92</v>
       </c>
-      <c r="H21" t="s">
-        <v>93</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -4041,13 +4705,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -4057,10 +4721,10 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="2"/>
       <c r="M22">
@@ -4069,13 +4733,13 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -4085,10 +4749,10 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23"/>
@@ -4104,13 +4768,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -4120,16 +4784,16 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
         <v>92</v>
-      </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -4140,13 +4804,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -4156,16 +4820,16 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
         <v>92</v>
       </c>
-      <c r="H25" t="s">
-        <v>93</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -4176,13 +4840,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -4192,10 +4856,10 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26" s="2"/>
       <c r="M26">
@@ -4204,13 +4868,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -4220,16 +4884,16 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
         <v>92</v>
-      </c>
-      <c r="H27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" t="s">
-        <v>93</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -4240,13 +4904,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -4255,24 +4919,24 @@
         <v>21</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -4282,10 +4946,10 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -4293,32 +4957,32 @@
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
         <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -4331,29 +4995,29 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -4365,9 +5029,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
-    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
-    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId3" display="mailto:admin@demo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4380,7 +5044,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4435,28 +5099,28 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>87</v>
-      </c>
-      <c r="S1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4527,7 +5191,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4557,7 +5221,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -4577,13 +5241,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -4593,10 +5257,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4604,13 +5268,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -4620,16 +5284,16 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -4640,25 +5304,25 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>122</v>
       </c>
       <c r="L8"/>
       <c r="M8">
@@ -4667,80 +5331,81 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
       <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>123</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>124</v>
-      </c>
+      <c r="L9"/>
       <c r="M9">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
         <v>119</v>
       </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
       <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
       <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
         <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>128</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -4751,29 +5416,29 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2"/>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4781,29 +5446,29 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
       <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
         <v>131</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>132</v>
       </c>
       <c r="I13" s="2"/>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -4811,13 +5476,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -4826,10 +5491,10 @@
         <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -4837,25 +5502,25 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
         <v>119</v>
       </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
       <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
         <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>135</v>
       </c>
       <c r="M15">
         <v>6</v>
@@ -4863,13 +5528,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
         <v>119</v>
       </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -4878,16 +5543,16 @@
         <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -4898,39 +5563,39 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
       <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
         <v>136</v>
       </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>137</v>
-      </c>
-      <c r="K17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
         <v>119</v>
       </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -4940,16 +5605,16 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
         <v>41</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s">
-        <v>42</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -4960,36 +5625,36 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
       <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>140</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>141</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="N19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4998,73 +5663,73 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
         <v>119</v>
       </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
       <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
         <v>145</v>
       </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>146</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5072,56 +5737,53 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" t="str">
-        <f>IF(L12=L21,"加入回收池成功","加入回收池失败")</f>
-        <v>加入回收池成功</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L22"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
       </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
       <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
         <v>148</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s">
-        <v>150</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -5130,16 +5792,16 @@
         <v>28</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="s">
@@ -5148,13 +5810,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -5163,16 +5825,19 @@
         <v>28</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
       </c>
       <c r="M25">
         <v>4</v>
@@ -5184,9 +5849,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
-    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
-    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId3" display="mailto:admin@demo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5199,7 +5864,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5247,28 +5912,28 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>87</v>
-      </c>
-      <c r="S1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5339,7 +6004,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -5369,7 +6034,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -5389,13 +6054,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
         <v>154</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -5405,10 +6070,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -5416,31 +6081,31 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" t="s">
         <v>157</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" t="s">
-        <v>159</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -5451,31 +6116,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" t="s">
         <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" t="s">
-        <v>162</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -5486,13 +6151,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -5501,13 +6166,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -5515,13 +6180,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -5530,13 +6195,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -5544,13 +6209,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -5559,16 +6224,16 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -5579,26 +6244,26 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" t="s">
@@ -5606,6 +6271,553 @@
       </c>
       <c r="M12">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId3" display="mailto:admin@demo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" t="s">
+        <v>183</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5620,45 +6832,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="74.875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -5696,39 +6886,39 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -5737,50 +6927,41 @@
         <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+      <c r="A4" t="s">
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -5788,63 +6969,51 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
+      <c r="G4" t="s">
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
+      <c r="A6" t="s">
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -5852,26 +7021,25 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
+      <c r="G6" t="s">
+        <v>196</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -5879,299 +7047,16 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
+      <c r="G7" t="s">
+        <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="H9"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10">
-        <v>17800000209</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" t="s">
-        <v>162</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="14:15">
-      <c r="N21" s="2"/>
-      <c r="O21"/>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" s="2"/>
-    </row>
-    <row r="27" spans="16:18">
-      <c r="P27"/>
-      <c r="Q27" s="2"/>
-      <c r="R27"/>
-    </row>
-    <row r="34" spans="14:15">
-      <c r="N34" s="2"/>
-      <c r="O34"/>
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="admin@demo" tooltip="mailto:admin@demo"/>
-    <hyperlink ref="F4" r:id="rId2" display="Qrz888888"/>
-    <hyperlink ref="F5" r:id="rId2" display="mailto:admin@demo"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit" tooltip="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -15,15 +15,15 @@
     <sheet name="delete_clue" sheetId="6" r:id="rId6"/>
     <sheet name="add_staff" sheetId="7" r:id="rId7"/>
     <sheet name="Charge" sheetId="8" r:id="rId8"/>
-    <sheet name="add_clue_phone" sheetId="10" r:id="rId9"/>
-    <sheet name="test" sheetId="9" r:id="rId10"/>
+    <sheet name="add_clue_phone" sheetId="9" r:id="rId9"/>
+    <sheet name="test" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="292">
   <si>
     <t>case_ID</t>
   </si>
@@ -598,6 +598,9 @@
     <t>收费成功！</t>
   </si>
   <si>
+    <t>前置条件</t>
+  </si>
+  <si>
     <t>phone_01</t>
   </si>
   <si>
@@ -610,7 +613,10 @@
     <t>https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit</t>
   </si>
   <si>
-    <t>点击报名须知确认</t>
+    <t>点击tab</t>
+  </si>
+  <si>
+    <t>page_scroll</t>
   </si>
   <si>
     <t>phone_page</t>
@@ -631,10 +637,259 @@
     <t>school_area</t>
   </si>
   <si>
+    <t>点击选择校区确认button</t>
+  </si>
+  <si>
+    <t>box_ensure</t>
+  </si>
+  <si>
+    <t>点击日期</t>
+  </si>
+  <si>
+    <t>选择性别</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>点击证件类型</t>
+  </si>
+  <si>
+    <t>输入证件号码</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>点击民族</t>
+  </si>
+  <si>
+    <t>点击国籍</t>
+  </si>
+  <si>
+    <t>输入学籍号</t>
+  </si>
+  <si>
+    <t>学籍号</t>
+  </si>
+  <si>
+    <t>点击政治面貌</t>
+  </si>
+  <si>
+    <t>点击入学前文化程度</t>
+  </si>
+  <si>
+    <t>点击下拉框类型</t>
+  </si>
+  <si>
+    <t>点击保存并下一步</t>
+  </si>
+  <si>
+    <t>next_step</t>
+  </si>
+  <si>
+    <t>上滑页面</t>
+  </si>
+  <si>
+    <t>scroll_page</t>
+  </si>
+  <si>
+    <t>点击入学方式</t>
+  </si>
+  <si>
+    <t>点击申请年纪</t>
+  </si>
+  <si>
+    <t>输入现就读学校</t>
+  </si>
+  <si>
+    <t>全日智自动化测试现就读学校输入</t>
+  </si>
+  <si>
+    <t>全日智自动化测试毕业学校输入</t>
+  </si>
+  <si>
+    <t>点击专业</t>
+  </si>
+  <si>
+    <t>点击现就读年纪</t>
+  </si>
+  <si>
+    <t>点击申请学期</t>
+  </si>
+  <si>
+    <t>点击期望入读时间</t>
+  </si>
+  <si>
+    <t>点击招生老师</t>
+  </si>
+  <si>
+    <t>点击专业技能水平</t>
+  </si>
+  <si>
+    <t>点击学制</t>
+  </si>
+  <si>
+    <t>全日智自动化推荐人输入</t>
+  </si>
+  <si>
+    <t>选择意向级别</t>
+  </si>
+  <si>
+    <t>minds_level</t>
+  </si>
+  <si>
+    <t>选择线索来源</t>
+  </si>
+  <si>
+    <t>点击下一步</t>
+  </si>
+  <si>
+    <t>输入父亲姓名</t>
+  </si>
+  <si>
+    <t>全日智自动化父亲姓名输入</t>
+  </si>
+  <si>
+    <t>输入父亲手机号码</t>
+  </si>
+  <si>
+    <t>选择学历</t>
+  </si>
+  <si>
+    <t>输入父亲工作单位</t>
+  </si>
+  <si>
+    <t>全日智自动化父亲工作单位输入</t>
+  </si>
+  <si>
+    <t>输入父亲职位</t>
+  </si>
+  <si>
+    <t>全日智自动化职位输入</t>
+  </si>
+  <si>
+    <t>输入父亲籍贯</t>
+  </si>
+  <si>
+    <t>全日智自动化籍贯输入</t>
+  </si>
+  <si>
+    <t>输入父亲电子邮箱</t>
+  </si>
+  <si>
+    <t>dad@qq.com</t>
+  </si>
+  <si>
+    <t>输入母亲姓名</t>
+  </si>
+  <si>
+    <t>全日智自动化母亲姓名输入</t>
+  </si>
+  <si>
+    <t>输入母亲手机号码</t>
+  </si>
+  <si>
+    <t>输入母亲工作单位</t>
+  </si>
+  <si>
+    <t>输入母亲职位</t>
+  </si>
+  <si>
+    <t>输入母亲籍贯</t>
+  </si>
+  <si>
+    <t>输入母亲电子邮箱</t>
+  </si>
+  <si>
+    <t>mom@qq.com</t>
+  </si>
+  <si>
+    <t>delete_button</t>
+  </si>
+  <si>
+    <t>选择是寄宿</t>
+  </si>
+  <si>
+    <t>点击身体健康状态</t>
+  </si>
+  <si>
+    <t>输入有无药物过敏</t>
+  </si>
+  <si>
+    <t>全日智自动化有无药物过敏</t>
+  </si>
+  <si>
+    <t>点击户口类型</t>
+  </si>
+  <si>
+    <t>点击户籍地址</t>
+  </si>
+  <si>
+    <t>点击输入详细地址</t>
+  </si>
+  <si>
+    <t>全日智自动化户籍详细地址</t>
+  </si>
+  <si>
+    <t>点击户主与学生关系</t>
+  </si>
+  <si>
+    <t>点击家庭常住地</t>
+  </si>
+  <si>
+    <t>全日智自动化家庭常住地详细地址</t>
+  </si>
+  <si>
+    <t>点击输入爱好与特长</t>
+  </si>
+  <si>
+    <t>全日智自动化爱好与特长</t>
+  </si>
+  <si>
+    <t>phone_02</t>
+  </si>
+  <si>
+    <t>点击输入成长报告记录</t>
+  </si>
+  <si>
+    <t>全日智自动化成长报告记录</t>
+  </si>
+  <si>
+    <t>phone_03</t>
+  </si>
+  <si>
+    <t>点击输入学校您最关注</t>
+  </si>
+  <si>
+    <t>全日智自动化选择学校您最关注什么</t>
+  </si>
+  <si>
+    <t>phone_04</t>
+  </si>
+  <si>
+    <t>点击输入对孩子入学后的期望</t>
+  </si>
+  <si>
+    <t>全日智自动化对孩子入学后的期望</t>
+  </si>
+  <si>
+    <t>确认提交</t>
+  </si>
+  <si>
+    <t>ensure_submit</t>
+  </si>
+  <si>
+    <t>成功文案</t>
+  </si>
+  <si>
+    <t>success_text</t>
+  </si>
+  <si>
+    <t>提交成功</t>
+  </si>
+  <si>
     <t>switch_action</t>
-  </si>
-  <si>
-    <t>delete_button</t>
   </si>
   <si>
     <t>mouse_menu</t>
@@ -650,11 +905,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -687,7 +943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,42 +957,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -744,11 +964,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,15 +980,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,7 +1011,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,15 +1063,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,7 +1087,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,151 +1255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,19 +1267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,10 +1281,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1064,61 +1370,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,10 +1386,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1142,16 +1398,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1163,116 +1419,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1282,6 +1538,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1768,7 +2030,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2223,7 +2485,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
@@ -2332,7 +2594,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -2361,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>37</v>
@@ -2414,13 +2676,13 @@
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -2460,7 +2722,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2587,7 +2849,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -3036,7 +3298,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3160,7 +3422,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -3750,7 +4012,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4158,7 +4420,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4552,7 +4814,7 @@
       <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D17" t="s">
@@ -4603,7 +4865,7 @@
       <c r="H18" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="9" t="s">
         <v>110</v>
       </c>
       <c r="M18">
@@ -4962,7 +5224,7 @@
       <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D30" t="s">
@@ -5016,7 +5278,7 @@
       <c r="H31" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="9" t="s">
         <v>110</v>
       </c>
       <c r="L31" t="s">
@@ -5191,7 +5453,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -6004,7 +6266,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -6835,23 +7097,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="74.875" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="2" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6892,33 +7154,18 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -6927,38 +7174,38 @@
         <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
+      <c r="E3" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -6969,11 +7216,14 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -6981,13 +7231,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -6995,68 +7245,2404 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" t="s">
         <v>199</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" t="s">
-        <v>197</v>
-      </c>
       <c r="M6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>192</v>
       </c>
-      <c r="C7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H7" t="s">
-        <v>201</v>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14" customHeight="1" spans="1:13">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="14" customHeight="1" spans="1:13">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="14" customHeight="1" spans="1:13">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" t="s">
+        <v>199</v>
+      </c>
+      <c r="M34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="14" customHeight="1" spans="1:13">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" ht="14" customHeight="1" spans="1:13">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="14" customHeight="1" spans="1:13">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" t="s">
+        <v>199</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="14" customHeight="1" spans="1:13">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" ht="14" customHeight="1" spans="1:13">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:13">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" ht="14" customHeight="1" spans="1:13">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H45" t="s">
+        <v>199</v>
+      </c>
+      <c r="M45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:13">
+      <c r="A46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="14" customHeight="1" spans="1:13">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" t="s">
+        <v>199</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="1:13">
+      <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" t="s">
+        <v>199</v>
+      </c>
+      <c r="M49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" t="s">
+        <v>198</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" t="s">
+        <v>199</v>
+      </c>
+      <c r="M54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H55" t="s">
+        <v>199</v>
+      </c>
+      <c r="M55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s">
+        <v>198</v>
+      </c>
+      <c r="H56" t="s">
+        <v>199</v>
+      </c>
+      <c r="M56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" t="s">
+        <v>199</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:13">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" t="s">
+        <v>199</v>
+      </c>
+      <c r="M59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" t="s">
+        <v>199</v>
+      </c>
+      <c r="M60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" t="s">
+        <v>199</v>
+      </c>
+      <c r="M61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G62" t="s">
+        <v>198</v>
+      </c>
+      <c r="H62" t="s">
+        <v>199</v>
+      </c>
+      <c r="M62">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" t="s">
+        <v>198</v>
+      </c>
+      <c r="H63" t="s">
+        <v>199</v>
+      </c>
+      <c r="M63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" t="s">
+        <v>199</v>
+      </c>
+      <c r="M64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>198</v>
+      </c>
+      <c r="H65" t="s">
+        <v>199</v>
+      </c>
+      <c r="M65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:13">
+      <c r="A66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67" t="s">
+        <v>198</v>
+      </c>
+      <c r="H67" t="s">
+        <v>199</v>
+      </c>
+      <c r="M67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G68" t="s">
+        <v>198</v>
+      </c>
+      <c r="H68" t="s">
+        <v>199</v>
+      </c>
+      <c r="M68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G69" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" t="s">
+        <v>199</v>
+      </c>
+      <c r="M69">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" t="s">
+        <v>199</v>
+      </c>
+      <c r="M70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>198</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>198</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>198</v>
+      </c>
+      <c r="H74" t="s">
+        <v>199</v>
+      </c>
+      <c r="M74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:13">
+      <c r="A75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G76" t="s">
+        <v>198</v>
+      </c>
+      <c r="H76" t="s">
+        <v>199</v>
+      </c>
+      <c r="M76">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>198</v>
+      </c>
+      <c r="H77" t="s">
+        <v>199</v>
+      </c>
+      <c r="M77">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="1:13">
+      <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s">
+        <v>198</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>198</v>
+      </c>
+      <c r="H79" t="s">
+        <v>199</v>
+      </c>
+      <c r="M79">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>198</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G81" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" t="s">
+        <v>199</v>
+      </c>
+      <c r="M81">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" t="s">
+        <v>198</v>
+      </c>
+      <c r="H82" t="s">
+        <v>199</v>
+      </c>
+      <c r="M82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>198</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" t="s">
+        <v>199</v>
+      </c>
+      <c r="M84">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G86" t="s">
+        <v>198</v>
+      </c>
+      <c r="H86" t="s">
+        <v>199</v>
+      </c>
+      <c r="M86">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G87" t="s">
+        <v>198</v>
+      </c>
+      <c r="H87" t="s">
+        <v>199</v>
+      </c>
+      <c r="M87">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G88" t="s">
+        <v>198</v>
+      </c>
+      <c r="H88" t="s">
+        <v>199</v>
+      </c>
+      <c r="M88">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G89" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" t="s">
+        <v>199</v>
+      </c>
+      <c r="M89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G90" t="s">
+        <v>198</v>
+      </c>
+      <c r="H90" t="s">
+        <v>199</v>
+      </c>
+      <c r="M90">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" t="s">
+        <v>198</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L94" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit" tooltip="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit"/>
+    <hyperlink ref="F62" r:id="rId2" display="dad@qq.com"/>
+    <hyperlink ref="F70" r:id="rId3" display="mom@qq.com" tooltip="mailto:mom@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="add_clue" sheetId="2" r:id="rId2"/>
     <sheet name="check_students" sheetId="3" r:id="rId3"/>
     <sheet name="Admission" sheetId="4" r:id="rId4"/>
-    <sheet name="Create_order" sheetId="5" r:id="rId5"/>
+    <sheet name="Create_clue_order" sheetId="5" r:id="rId5"/>
     <sheet name="delete_clue" sheetId="6" r:id="rId6"/>
     <sheet name="add_staff" sheetId="7" r:id="rId7"/>
     <sheet name="Charge" sheetId="8" r:id="rId8"/>
     <sheet name="add_clue_phone" sheetId="9" r:id="rId9"/>
-    <sheet name="test" sheetId="10" r:id="rId10"/>
+    <sheet name="Create_student_order" sheetId="10" r:id="rId10"/>
+    <sheet name="add_clue_pc" sheetId="11" r:id="rId11"/>
+    <sheet name="test" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="466">
   <si>
     <t>case_ID</t>
   </si>
@@ -613,69 +615,72 @@
     <t>https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit</t>
   </si>
   <si>
+    <t>phone_page</t>
+  </si>
+  <si>
+    <t>registrate_notes</t>
+  </si>
+  <si>
+    <t>input_box</t>
+  </si>
+  <si>
+    <t>输入手机号</t>
+  </si>
+  <si>
+    <t>点击校区选中框</t>
+  </si>
+  <si>
+    <t>选择校区</t>
+  </si>
+  <si>
+    <t>school_area</t>
+  </si>
+  <si>
+    <t>点击选择校区确认button</t>
+  </si>
+  <si>
+    <t>box_ensure</t>
+  </si>
+  <si>
+    <t>点击日期</t>
+  </si>
+  <si>
+    <t>选择性别</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>点击证件类型</t>
+  </si>
+  <si>
+    <t>输入证件号码</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>点击民族</t>
+  </si>
+  <si>
+    <t>点击国籍</t>
+  </si>
+  <si>
+    <t>输入学籍号</t>
+  </si>
+  <si>
+    <t>学籍号</t>
+  </si>
+  <si>
+    <t>点击政治面貌</t>
+  </si>
+  <si>
     <t>点击tab</t>
   </si>
   <si>
     <t>page_scroll</t>
   </si>
   <si>
-    <t>phone_page</t>
-  </si>
-  <si>
-    <t>input_box</t>
-  </si>
-  <si>
-    <t>输入手机号</t>
-  </si>
-  <si>
-    <t>点击校区选中框</t>
-  </si>
-  <si>
-    <t>选择校区</t>
-  </si>
-  <si>
-    <t>school_area</t>
-  </si>
-  <si>
-    <t>点击选择校区确认button</t>
-  </si>
-  <si>
-    <t>box_ensure</t>
-  </si>
-  <si>
-    <t>点击日期</t>
-  </si>
-  <si>
-    <t>选择性别</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>点击证件类型</t>
-  </si>
-  <si>
-    <t>输入证件号码</t>
-  </si>
-  <si>
-    <t>证件号码</t>
-  </si>
-  <si>
-    <t>点击民族</t>
-  </si>
-  <si>
-    <t>点击国籍</t>
-  </si>
-  <si>
-    <t>输入学籍号</t>
-  </si>
-  <si>
-    <t>学籍号</t>
-  </si>
-  <si>
-    <t>点击政治面貌</t>
-  </si>
-  <si>
     <t>点击入学前文化程度</t>
   </si>
   <si>
@@ -793,12 +798,21 @@
     <t>输入母亲工作单位</t>
   </si>
   <si>
+    <t>全日智自动化母亲工作单位输入</t>
+  </si>
+  <si>
     <t>输入母亲职位</t>
   </si>
   <si>
+    <t>全日智自动化母亲职位输入</t>
+  </si>
+  <si>
     <t>输入母亲籍贯</t>
   </si>
   <si>
+    <t>全日智自动化母亲籍贯输入</t>
+  </si>
+  <si>
     <t>输入母亲电子邮箱</t>
   </si>
   <si>
@@ -874,7 +888,7 @@
     <t>全日智自动化对孩子入学后的期望</t>
   </si>
   <si>
-    <t>确认提交</t>
+    <t>点击确认提交</t>
   </si>
   <si>
     <t>ensure_submit</t>
@@ -887,6 +901,516 @@
   </si>
   <si>
     <t>提交成功</t>
+  </si>
+  <si>
+    <t>PC_01</t>
+  </si>
+  <si>
+    <t>PC留单页</t>
+  </si>
+  <si>
+    <t>https://schooltest.xiaogj.com/recruit.html?s=lsh</t>
+  </si>
+  <si>
+    <t>pc_regist_page</t>
+  </si>
+  <si>
+    <t>PC_02</t>
+  </si>
+  <si>
+    <t>PC_03</t>
+  </si>
+  <si>
+    <t>PC_04</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>PC_05</t>
+  </si>
+  <si>
+    <t>PC_06</t>
+  </si>
+  <si>
+    <t>PC_07</t>
+  </si>
+  <si>
+    <t>school_area_name</t>
+  </si>
+  <si>
+    <t>PC_08</t>
+  </si>
+  <si>
+    <t>PC_09</t>
+  </si>
+  <si>
+    <t>点击出生日期</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>years_type</t>
+  </si>
+  <si>
+    <t>PC_10</t>
+  </si>
+  <si>
+    <t>点击年份</t>
+  </si>
+  <si>
+    <t>PC_11</t>
+  </si>
+  <si>
+    <t>点击向左翻页button</t>
+  </si>
+  <si>
+    <t>left_button</t>
+  </si>
+  <si>
+    <t>PC_12</t>
+  </si>
+  <si>
+    <t>选择年份</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>PC_13</t>
+  </si>
+  <si>
+    <t>选择月份</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>选择日期</t>
+  </si>
+  <si>
+    <t>选择证件类型</t>
+  </si>
+  <si>
+    <t>idcard_type</t>
+  </si>
+  <si>
+    <t>选择身份证</t>
+  </si>
+  <si>
+    <t>identity_card</t>
+  </si>
+  <si>
+    <t>identity_number</t>
+  </si>
+  <si>
+    <t>student_code</t>
+  </si>
+  <si>
+    <t>选择国籍</t>
+  </si>
+  <si>
+    <t>nationality_type</t>
+  </si>
+  <si>
+    <t>选择中国香港</t>
+  </si>
+  <si>
+    <t>hongkong</t>
+  </si>
+  <si>
+    <t>选择民族</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>选择藏族</t>
+  </si>
+  <si>
+    <t>tibetan_people</t>
+  </si>
+  <si>
+    <t>Political</t>
+  </si>
+  <si>
+    <t>选择共产党员</t>
+  </si>
+  <si>
+    <t>communist</t>
+  </si>
+  <si>
+    <t>PC_14</t>
+  </si>
+  <si>
+    <t>点击文化程度</t>
+  </si>
+  <si>
+    <t>degree_id_education</t>
+  </si>
+  <si>
+    <t>PC_15</t>
+  </si>
+  <si>
+    <t>选择初中</t>
+  </si>
+  <si>
+    <t>junior_middle_school</t>
+  </si>
+  <si>
+    <t>expect_recruit_time</t>
+  </si>
+  <si>
+    <t>major_type</t>
+  </si>
+  <si>
+    <t>选择专业</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>选择入学方式</t>
+  </si>
+  <si>
+    <t>adminssion_type</t>
+  </si>
+  <si>
+    <t>application_grade_type</t>
+  </si>
+  <si>
+    <t>选择小学一年级</t>
+  </si>
+  <si>
+    <t>application_grade</t>
+  </si>
+  <si>
+    <t>点击就读年纪</t>
+  </si>
+  <si>
+    <t>grade_type</t>
+  </si>
+  <si>
+    <t>选择幼儿园大班</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>PC_16</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>PC_17</t>
+  </si>
+  <si>
+    <t>semester_type</t>
+  </si>
+  <si>
+    <t>PC_18</t>
+  </si>
+  <si>
+    <t>选择学期</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>PC_19</t>
+  </si>
+  <si>
+    <t>输入毕业学校</t>
+  </si>
+  <si>
+    <t>graduate_school</t>
+  </si>
+  <si>
+    <t>PC_20</t>
+  </si>
+  <si>
+    <t>skill_level_type</t>
+  </si>
+  <si>
+    <t>PC_21</t>
+  </si>
+  <si>
+    <t>选择技师</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>PC_22</t>
+  </si>
+  <si>
+    <t>system_type</t>
+  </si>
+  <si>
+    <t>PC_23</t>
+  </si>
+  <si>
+    <t>选择学制</t>
+  </si>
+  <si>
+    <t>four_year_system</t>
+  </si>
+  <si>
+    <t>点击意向级别</t>
+  </si>
+  <si>
+    <t>drop_box_type</t>
+  </si>
+  <si>
+    <t>选择下拉框内容</t>
+  </si>
+  <si>
+    <t>box_type</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>选择农村户口</t>
+  </si>
+  <si>
+    <t>rural_registration</t>
+  </si>
+  <si>
+    <t>点击是否寄宿</t>
+  </si>
+  <si>
+    <t>boarding_type</t>
+  </si>
+  <si>
+    <t>选择是</t>
+  </si>
+  <si>
+    <t>boarding_yes</t>
+  </si>
+  <si>
+    <t>healthy_type</t>
+  </si>
+  <si>
+    <t>选择生理缺陷</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>allergy_type</t>
+  </si>
+  <si>
+    <t>点击户籍类型-省</t>
+  </si>
+  <si>
+    <t>province_type</t>
+  </si>
+  <si>
+    <t>选择省</t>
+  </si>
+  <si>
+    <t>provice_name</t>
+  </si>
+  <si>
+    <t>点击户籍类型-市</t>
+  </si>
+  <si>
+    <t>city_type</t>
+  </si>
+  <si>
+    <t>选择市</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>点击户籍类型-区</t>
+  </si>
+  <si>
+    <t>area_type</t>
+  </si>
+  <si>
+    <t>选择区</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>输入户籍详细地址</t>
+  </si>
+  <si>
+    <t>register_adress</t>
+  </si>
+  <si>
+    <t>户主与学生关系选择父母</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>点击家庭常住地-省</t>
+  </si>
+  <si>
+    <t>home_province_type</t>
+  </si>
+  <si>
+    <t>home_provice_name</t>
+  </si>
+  <si>
+    <t>点击家庭常住地-市</t>
+  </si>
+  <si>
+    <t>home_city_type</t>
+  </si>
+  <si>
+    <t>home_city</t>
+  </si>
+  <si>
+    <t>点击家庭常住地-区</t>
+  </si>
+  <si>
+    <t>home_area_type</t>
+  </si>
+  <si>
+    <t>home_area</t>
+  </si>
+  <si>
+    <t>输入家庭常住地详细地址</t>
+  </si>
+  <si>
+    <t>home_adress</t>
+  </si>
+  <si>
+    <t>输入爱好与特长</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>输入成长报告记录</t>
+  </si>
+  <si>
+    <t>grow_report</t>
+  </si>
+  <si>
+    <t>输入学校最关注什么</t>
+  </si>
+  <si>
+    <t>most_care</t>
+  </si>
+  <si>
+    <t>输入对学校希望</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>fathers_name</t>
+  </si>
+  <si>
+    <t>输入父亲手机号</t>
+  </si>
+  <si>
+    <t>fathers_phone</t>
+  </si>
+  <si>
+    <t>点击父亲学位</t>
+  </si>
+  <si>
+    <t>father_degree_type</t>
+  </si>
+  <si>
+    <t>选择父亲学位-硕士</t>
+  </si>
+  <si>
+    <t>father_degree</t>
+  </si>
+  <si>
+    <t>father_work_company</t>
+  </si>
+  <si>
+    <t>father_position</t>
+  </si>
+  <si>
+    <t>father_native_place</t>
+  </si>
+  <si>
+    <t>输入父亲邮箱</t>
+  </si>
+  <si>
+    <t>father_email</t>
+  </si>
+  <si>
+    <t>mother_name</t>
+  </si>
+  <si>
+    <t>输入母亲手机号</t>
+  </si>
+  <si>
+    <t>mother_phone</t>
+  </si>
+  <si>
+    <t>点击母亲学位</t>
+  </si>
+  <si>
+    <t>mother_degree_type</t>
+  </si>
+  <si>
+    <t>选择母亲学位-硕士</t>
+  </si>
+  <si>
+    <t>mother_degree</t>
+  </si>
+  <si>
+    <t>mother_work_company</t>
+  </si>
+  <si>
+    <t>mother_position</t>
+  </si>
+  <si>
+    <t>mother_native_place</t>
+  </si>
+  <si>
+    <t>输入母亲邮箱</t>
+  </si>
+  <si>
+    <t>mother_email</t>
+  </si>
+  <si>
+    <t>family_next_step</t>
+  </si>
+  <si>
+    <t>clue_from</t>
+  </si>
+  <si>
+    <t>选择信息来源抖音</t>
+  </si>
+  <si>
+    <t>输入推荐人</t>
+  </si>
+  <si>
+    <t>recommender</t>
+  </si>
+  <si>
+    <t>recruit_teacher_type</t>
+  </si>
+  <si>
+    <t>选择-李少辉</t>
+  </si>
+  <si>
+    <t>recruit_teacher</t>
+  </si>
+  <si>
+    <t>submit_button</t>
+  </si>
+  <si>
+    <t>success_label</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>switch_action</t>
@@ -907,10 +1431,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -929,17 +1453,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -957,10 +1481,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,6 +1492,50 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,14 +1548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,30 +1563,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,21 +1573,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,10 +1587,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1087,7 +1611,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1677,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,31 +1743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,13 +1755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,19 +1767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,85 +1791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,6 +1802,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1298,83 +1894,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,10 +1910,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1398,16 +1922,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1419,112 +1943,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1543,17 +2067,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2030,7 +2554,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2175,6 +2699,2910 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2"/>
+      <c r="C19"/>
+      <c r="E19"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com" tooltip="https://schooltest.xiaogj.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="admin@lsh" tooltip="mailto:admin@lsh"/>
+    <hyperlink ref="F4" r:id="rId3" display="Qrz888888"/>
+    <hyperlink ref="F5" r:id="rId3" display="mailto:admin@demo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I10" t="s">
+        <v>295</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
+        <v>295</v>
+      </c>
+      <c r="H11" t="s">
+        <v>308</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H13" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" t="s">
+        <v>319</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" t="s">
+        <v>316</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>295</v>
+      </c>
+      <c r="H20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>295</v>
+      </c>
+      <c r="H21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>295</v>
+      </c>
+      <c r="H24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>295</v>
+      </c>
+      <c r="H27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" t="s">
+        <v>344</v>
+      </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" t="s">
+        <v>316</v>
+      </c>
+      <c r="M29">
+        <v>38</v>
+      </c>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>295</v>
+      </c>
+      <c r="H33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>295</v>
+      </c>
+      <c r="H36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" t="s">
+        <v>295</v>
+      </c>
+      <c r="H37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>375</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>295</v>
+      </c>
+      <c r="H44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" t="s">
+        <v>377</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" t="s">
+        <v>238</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>295</v>
+      </c>
+      <c r="H47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>295</v>
+      </c>
+      <c r="H48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" t="s">
+        <v>384</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s">
+        <v>295</v>
+      </c>
+      <c r="H52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" t="s">
+        <v>389</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>295</v>
+      </c>
+      <c r="H53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" t="s">
+        <v>295</v>
+      </c>
+      <c r="H54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>295</v>
+      </c>
+      <c r="H55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" t="s">
+        <v>394</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>295</v>
+      </c>
+      <c r="H56" t="s">
+        <v>395</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>295</v>
+      </c>
+      <c r="H57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" t="s">
+        <v>400</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>295</v>
+      </c>
+      <c r="H59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" t="s">
+        <v>402</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>295</v>
+      </c>
+      <c r="H60" t="s">
+        <v>403</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" t="s">
+        <v>404</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>272</v>
+      </c>
+      <c r="G61" t="s">
+        <v>295</v>
+      </c>
+      <c r="H61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" t="s">
+        <v>406</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>295</v>
+      </c>
+      <c r="H62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" t="s">
+        <v>408</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>295</v>
+      </c>
+      <c r="H64" t="s">
+        <v>410</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" t="s">
+        <v>411</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>295</v>
+      </c>
+      <c r="H65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" t="s">
+        <v>295</v>
+      </c>
+      <c r="H66" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" t="s">
+        <v>414</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
+        <v>295</v>
+      </c>
+      <c r="H67" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" t="s">
+        <v>402</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>295</v>
+      </c>
+      <c r="H68" t="s">
+        <v>416</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>277</v>
+      </c>
+      <c r="G70" t="s">
+        <v>295</v>
+      </c>
+      <c r="H70" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" t="s">
+        <v>421</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" t="s">
+        <v>423</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" t="s">
+        <v>295</v>
+      </c>
+      <c r="H72" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>425</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>286</v>
+      </c>
+      <c r="G73" t="s">
+        <v>295</v>
+      </c>
+      <c r="H73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>295</v>
+      </c>
+      <c r="H74" t="s">
+        <v>221</v>
+      </c>
+      <c r="I74" t="s">
+        <v>295</v>
+      </c>
+      <c r="J74" t="s">
+        <v>427</v>
+      </c>
+      <c r="L74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" t="s">
+        <v>295</v>
+      </c>
+      <c r="H75" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" t="s">
+        <v>428</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s">
+        <v>295</v>
+      </c>
+      <c r="H76" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" t="s">
+        <v>430</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>295</v>
+      </c>
+      <c r="H77" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" t="s">
+        <v>293</v>
+      </c>
+      <c r="C78" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H78" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" t="s">
+        <v>295</v>
+      </c>
+      <c r="H79" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" t="s">
+        <v>295</v>
+      </c>
+      <c r="H80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>250</v>
+      </c>
+      <c r="G81" t="s">
+        <v>295</v>
+      </c>
+      <c r="H81" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" t="s">
+        <v>293</v>
+      </c>
+      <c r="C82" t="s">
+        <v>437</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G82" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" t="s">
+        <v>295</v>
+      </c>
+      <c r="H83" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" t="s">
+        <v>440</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
+        <v>293</v>
+      </c>
+      <c r="C85" t="s">
+        <v>442</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>295</v>
+      </c>
+      <c r="H85" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" t="s">
+        <v>293</v>
+      </c>
+      <c r="C86" t="s">
+        <v>444</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>295</v>
+      </c>
+      <c r="H86" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>257</v>
+      </c>
+      <c r="G87" t="s">
+        <v>295</v>
+      </c>
+      <c r="H87" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" t="s">
+        <v>295</v>
+      </c>
+      <c r="H88" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>261</v>
+      </c>
+      <c r="G89" t="s">
+        <v>295</v>
+      </c>
+      <c r="H89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G90" t="s">
+        <v>295</v>
+      </c>
+      <c r="H90" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
+        <v>295</v>
+      </c>
+      <c r="H91" t="s">
+        <v>451</v>
+      </c>
+      <c r="I91" t="s">
+        <v>295</v>
+      </c>
+      <c r="J91" t="s">
+        <v>452</v>
+      </c>
+      <c r="L91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" t="s">
+        <v>453</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>295</v>
+      </c>
+      <c r="H92" t="s">
+        <v>452</v>
+      </c>
+      <c r="M92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" t="s">
+        <v>454</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" t="s">
+        <v>236</v>
+      </c>
+      <c r="G93" t="s">
+        <v>295</v>
+      </c>
+      <c r="H93" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
+        <v>295</v>
+      </c>
+      <c r="H94" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" t="s">
+        <v>457</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s">
+        <v>295</v>
+      </c>
+      <c r="H95" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>295</v>
+      </c>
+      <c r="H96" t="s">
+        <v>459</v>
+      </c>
+      <c r="I96" t="s">
+        <v>295</v>
+      </c>
+      <c r="J96" t="s">
+        <v>460</v>
+      </c>
+      <c r="L96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" t="s">
+        <v>295</v>
+      </c>
+      <c r="H97" t="s">
+        <v>460</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://schooltest.xiaogj.com/recruit.html?s=lsh" tooltip="https://schooltest.xiaogj.com/recruit.html?s=lsh"/>
+    <hyperlink ref="F82" r:id="rId2" display="dad@qq.com"/>
+    <hyperlink ref="F90" r:id="rId3" display="mom@qq.com" tooltip="mailto:mom@qq.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S34"/>
@@ -2485,7 +5913,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
@@ -2594,7 +6022,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -2623,7 +6051,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>37</v>
@@ -2676,13 +6104,13 @@
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>291</v>
+        <v>465</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -2849,7 +6277,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -3422,7 +6850,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4012,7 +7440,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4271,8 +7699,8 @@
   <sheetPr/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4420,7 +7848,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4814,7 +8242,7 @@
       <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D17" t="s">
@@ -4865,7 +8293,7 @@
       <c r="H18" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>110</v>
       </c>
       <c r="M18">
@@ -5224,7 +8652,7 @@
       <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D30" t="s">
@@ -5278,7 +8706,7 @@
       <c r="H31" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L31" t="s">
@@ -5453,7 +8881,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -6266,7 +9694,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -6553,7 +9981,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7099,8 +10527,8 @@
   <sheetPr/>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7110,7 +10538,9 @@
     <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="74.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7157,7 +10587,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -7175,6 +10605,15 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>195</v>
+      </c>
+      <c r="I2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7184,20 +10623,20 @@
       <c r="B3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
-      </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7220,10 +10659,10 @@
         <v>47</v>
       </c>
       <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
         <v>198</v>
-      </c>
-      <c r="H4" t="s">
-        <v>199</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -7237,7 +10676,7 @@
         <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7249,10 +10688,10 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" t="s">
         <v>198</v>
-      </c>
-      <c r="H5" t="s">
-        <v>199</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -7266,7 +10705,7 @@
         <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -7275,10 +10714,10 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" t="s">
         <v>198</v>
-      </c>
-      <c r="H6" t="s">
-        <v>199</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -7292,19 +10731,19 @@
         <v>193</v>
       </c>
       <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" t="s">
         <v>202</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7315,19 +10754,19 @@
         <v>193</v>
       </c>
       <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" t="s">
         <v>204</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7338,7 +10777,7 @@
         <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -7348,10 +10787,10 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" t="s">
         <v>198</v>
-      </c>
-      <c r="H9" t="s">
-        <v>199</v>
       </c>
       <c r="M9">
         <v>4</v>
@@ -7364,7 +10803,7 @@
       <c r="B10" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
       <c r="D10" t="s">
@@ -7374,10 +10813,10 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H10" t="s">
+        <v>204</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -7390,20 +10829,20 @@
       <c r="B11" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
         <v>207</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -7417,7 +10856,7 @@
         <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -7426,10 +10865,10 @@
         <v>28</v>
       </c>
       <c r="G12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" t="s">
         <v>198</v>
-      </c>
-      <c r="H12" t="s">
-        <v>199</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -7442,7 +10881,7 @@
       <c r="B13" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>77</v>
       </c>
       <c r="D13" t="s">
@@ -7452,10 +10891,10 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H13" t="s">
+        <v>204</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -7469,7 +10908,7 @@
         <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -7477,14 +10916,14 @@
       <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>211</v>
+      <c r="F14" t="s">
+        <v>210</v>
       </c>
       <c r="G14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" t="s">
         <v>198</v>
-      </c>
-      <c r="H14" t="s">
-        <v>199</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -7498,7 +10937,7 @@
         <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -7507,10 +10946,10 @@
         <v>28</v>
       </c>
       <c r="G15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" t="s">
         <v>198</v>
-      </c>
-      <c r="H15" t="s">
-        <v>199</v>
       </c>
       <c r="M15">
         <v>7</v>
@@ -7523,7 +10962,7 @@
       <c r="B16" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>77</v>
       </c>
       <c r="D16" t="s">
@@ -7533,10 +10972,10 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H16" t="s">
+        <v>204</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -7550,7 +10989,7 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -7559,10 +10998,10 @@
         <v>28</v>
       </c>
       <c r="G17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" t="s">
         <v>198</v>
-      </c>
-      <c r="H17" t="s">
-        <v>199</v>
       </c>
       <c r="M17">
         <v>8</v>
@@ -7575,7 +11014,7 @@
       <c r="B18" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>77</v>
       </c>
       <c r="D18" t="s">
@@ -7585,10 +11024,10 @@
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H18" t="s">
+        <v>204</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -7602,7 +11041,7 @@
         <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -7610,14 +11049,14 @@
       <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>215</v>
+      <c r="F19" t="s">
+        <v>214</v>
       </c>
       <c r="G19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
         <v>198</v>
-      </c>
-      <c r="H19" t="s">
-        <v>199</v>
       </c>
       <c r="M19">
         <v>9</v>
@@ -7631,7 +11070,7 @@
         <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -7640,10 +11079,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" t="s">
         <v>198</v>
-      </c>
-      <c r="H20" t="s">
-        <v>199</v>
       </c>
       <c r="M20">
         <v>10</v>
@@ -7656,7 +11095,7 @@
       <c r="B21" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>77</v>
       </c>
       <c r="D21" t="s">
@@ -7666,10 +11105,10 @@
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H21" t="s">
+        <v>204</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -7682,23 +11121,23 @@
       <c r="B22" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
         <v>196</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>198</v>
       </c>
-      <c r="H22" t="s">
-        <v>199</v>
-      </c>
       <c r="M22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7709,7 +11148,7 @@
         <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -7718,10 +11157,10 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" t="s">
         <v>198</v>
-      </c>
-      <c r="H23" t="s">
-        <v>199</v>
       </c>
       <c r="M23">
         <v>11</v>
@@ -7734,7 +11173,7 @@
       <c r="B24" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>77</v>
       </c>
       <c r="D24" t="s">
@@ -7744,10 +11183,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H24" t="s">
+        <v>204</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -7761,7 +11200,7 @@
         <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -7770,10 +11209,10 @@
         <v>28</v>
       </c>
       <c r="G25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" t="s">
         <v>198</v>
-      </c>
-      <c r="H25" t="s">
-        <v>199</v>
       </c>
       <c r="M25">
         <v>12</v>
@@ -7786,7 +11225,7 @@
       <c r="B26" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
       <c r="D26" t="s">
@@ -7796,10 +11235,10 @@
         <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -7812,8 +11251,8 @@
       <c r="B27" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>219</v>
+      <c r="C27" t="s">
+        <v>220</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -7822,10 +11261,10 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
+        <v>221</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7838,20 +11277,20 @@
       <c r="B28" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>221</v>
+      <c r="C28" t="s">
+        <v>222</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>222</v>
+      <c r="E28" t="s">
+        <v>223</v>
       </c>
       <c r="G28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" t="s">
         <v>198</v>
-      </c>
-      <c r="H28" t="s">
-        <v>199</v>
       </c>
       <c r="M28">
         <v>13</v>
@@ -7865,7 +11304,7 @@
         <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -7874,10 +11313,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" t="s">
         <v>198</v>
-      </c>
-      <c r="H29" t="s">
-        <v>199</v>
       </c>
       <c r="M29">
         <v>13</v>
@@ -7890,7 +11329,7 @@
       <c r="B30" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>77</v>
       </c>
       <c r="D30" t="s">
@@ -7900,10 +11339,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H30" t="s">
+        <v>204</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -7917,7 +11356,7 @@
         <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -7926,10 +11365,10 @@
         <v>28</v>
       </c>
       <c r="G31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" t="s">
         <v>198</v>
-      </c>
-      <c r="H31" t="s">
-        <v>199</v>
       </c>
       <c r="M31">
         <v>14</v>
@@ -7942,7 +11381,7 @@
       <c r="B32" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>77</v>
       </c>
       <c r="D32" t="s">
@@ -7952,10 +11391,10 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H32" t="s">
+        <v>204</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -7969,7 +11408,7 @@
         <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -7977,14 +11416,14 @@
       <c r="E33" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>226</v>
+      <c r="F33" t="s">
+        <v>227</v>
       </c>
       <c r="G33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" t="s">
         <v>198</v>
-      </c>
-      <c r="H33" t="s">
-        <v>199</v>
       </c>
       <c r="M33">
         <v>15</v>
@@ -7998,7 +11437,7 @@
         <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -8006,14 +11445,14 @@
       <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>227</v>
+      <c r="F34" t="s">
+        <v>228</v>
       </c>
       <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
         <v>198</v>
-      </c>
-      <c r="H34" t="s">
-        <v>199</v>
       </c>
       <c r="M34">
         <v>16</v>
@@ -8027,7 +11466,7 @@
         <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
@@ -8036,10 +11475,10 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
         <v>198</v>
-      </c>
-      <c r="H35" t="s">
-        <v>199</v>
       </c>
       <c r="M35">
         <v>17</v>
@@ -8052,7 +11491,7 @@
       <c r="B36" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36" t="s">
@@ -8062,10 +11501,10 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
       </c>
       <c r="M36">
         <v>3</v>
@@ -8079,7 +11518,7 @@
         <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -8088,10 +11527,10 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" t="s">
         <v>198</v>
-      </c>
-      <c r="H37" t="s">
-        <v>199</v>
       </c>
       <c r="M37">
         <v>18</v>
@@ -8104,7 +11543,7 @@
       <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>77</v>
       </c>
       <c r="D38" t="s">
@@ -8114,10 +11553,10 @@
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H38" t="s">
+        <v>204</v>
       </c>
       <c r="M38">
         <v>3</v>
@@ -8131,7 +11570,7 @@
         <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -8140,10 +11579,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" t="s">
         <v>198</v>
-      </c>
-      <c r="H39" t="s">
-        <v>199</v>
       </c>
       <c r="M39">
         <v>19</v>
@@ -8156,7 +11595,7 @@
       <c r="B40" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>77</v>
       </c>
       <c r="D40" t="s">
@@ -8166,10 +11605,10 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>204</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -8183,7 +11622,7 @@
         <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -8192,10 +11631,10 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
         <v>198</v>
-      </c>
-      <c r="H41" t="s">
-        <v>199</v>
       </c>
       <c r="M41">
         <v>20</v>
@@ -8208,7 +11647,7 @@
       <c r="B42" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>77</v>
       </c>
       <c r="D42" t="s">
@@ -8218,10 +11657,10 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>198</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H42" t="s">
+        <v>204</v>
       </c>
       <c r="M42">
         <v>4</v>
@@ -8235,7 +11674,7 @@
         <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
@@ -8244,10 +11683,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" t="s">
         <v>198</v>
-      </c>
-      <c r="H43" t="s">
-        <v>199</v>
       </c>
       <c r="M43">
         <v>21</v>
@@ -8260,7 +11699,7 @@
       <c r="B44" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>77</v>
       </c>
       <c r="D44" t="s">
@@ -8270,10 +11709,10 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>198</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H44" t="s">
+        <v>204</v>
       </c>
       <c r="M44">
         <v>3</v>
@@ -8287,7 +11726,7 @@
         <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
@@ -8296,10 +11735,10 @@
         <v>28</v>
       </c>
       <c r="G45" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" t="s">
         <v>198</v>
-      </c>
-      <c r="H45" t="s">
-        <v>199</v>
       </c>
       <c r="M45">
         <v>22</v>
@@ -8312,7 +11751,7 @@
       <c r="B46" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>77</v>
       </c>
       <c r="D46" t="s">
@@ -8322,10 +11761,10 @@
         <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H46" t="s">
+        <v>204</v>
       </c>
       <c r="M46">
         <v>3</v>
@@ -8339,7 +11778,7 @@
         <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -8348,10 +11787,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" t="s">
         <v>198</v>
-      </c>
-      <c r="H47" t="s">
-        <v>199</v>
       </c>
       <c r="M47">
         <v>23</v>
@@ -8364,7 +11803,7 @@
       <c r="B48" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>77</v>
       </c>
       <c r="D48" t="s">
@@ -8374,10 +11813,10 @@
         <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H48" t="s">
+        <v>204</v>
       </c>
       <c r="M48">
         <v>3</v>
@@ -8391,7 +11830,7 @@
         <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -8399,14 +11838,14 @@
       <c r="E49" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>235</v>
+      <c r="F49" t="s">
+        <v>236</v>
       </c>
       <c r="G49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" t="s">
         <v>198</v>
-      </c>
-      <c r="H49" t="s">
-        <v>199</v>
       </c>
       <c r="M49">
         <v>24</v>
@@ -8420,7 +11859,7 @@
         <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -8429,10 +11868,10 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
       </c>
       <c r="M50">
         <v>4</v>
@@ -8446,7 +11885,7 @@
         <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -8455,10 +11894,10 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="H51" t="s">
+        <v>207</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -8471,20 +11910,20 @@
       <c r="B52" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>221</v>
+      <c r="C52" t="s">
+        <v>222</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>222</v>
+      <c r="E52" t="s">
+        <v>223</v>
       </c>
       <c r="G52" t="s">
-        <v>198</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
+        <v>207</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -8497,8 +11936,8 @@
       <c r="B53" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>239</v>
+      <c r="C53" t="s">
+        <v>240</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -8507,10 +11946,10 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="H53" t="s">
+        <v>221</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -8524,20 +11963,19 @@
         <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="1"/>
+      <c r="E54" t="s">
+        <v>223</v>
+      </c>
       <c r="G54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" t="s">
         <v>198</v>
-      </c>
-      <c r="H54" t="s">
-        <v>199</v>
       </c>
       <c r="M54">
         <v>24</v>
@@ -8551,7 +11989,7 @@
         <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -8559,14 +11997,14 @@
       <c r="E55" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>241</v>
+      <c r="F55" t="s">
+        <v>242</v>
       </c>
       <c r="G55" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" t="s">
         <v>198</v>
-      </c>
-      <c r="H55" t="s">
-        <v>199</v>
       </c>
       <c r="M55">
         <v>26</v>
@@ -8580,7 +12018,7 @@
         <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
@@ -8592,10 +12030,10 @@
         <v>50</v>
       </c>
       <c r="G56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" t="s">
         <v>198</v>
-      </c>
-      <c r="H56" t="s">
-        <v>199</v>
       </c>
       <c r="M56">
         <v>29</v>
@@ -8609,7 +12047,7 @@
         <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -8618,10 +12056,10 @@
         <v>28</v>
       </c>
       <c r="G57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" t="s">
         <v>198</v>
-      </c>
-      <c r="H57" t="s">
-        <v>199</v>
       </c>
       <c r="M57">
         <v>30</v>
@@ -8634,7 +12072,7 @@
       <c r="B58" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>77</v>
       </c>
       <c r="D58" t="s">
@@ -8644,13 +12082,13 @@
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H58" t="s">
+        <v>204</v>
       </c>
       <c r="M58">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8661,7 +12099,7 @@
         <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -8669,14 +12107,14 @@
       <c r="E59" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>245</v>
+      <c r="F59" t="s">
+        <v>246</v>
       </c>
       <c r="G59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H59" t="s">
         <v>198</v>
-      </c>
-      <c r="H59" t="s">
-        <v>199</v>
       </c>
       <c r="M59">
         <v>31</v>
@@ -8690,7 +12128,7 @@
         <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
@@ -8698,14 +12136,14 @@
       <c r="E60" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>247</v>
+      <c r="F60" t="s">
+        <v>248</v>
       </c>
       <c r="G60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" t="s">
         <v>198</v>
-      </c>
-      <c r="H60" t="s">
-        <v>199</v>
       </c>
       <c r="M60">
         <v>32</v>
@@ -8719,7 +12157,7 @@
         <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -8727,14 +12165,14 @@
       <c r="E61" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>249</v>
+      <c r="F61" t="s">
+        <v>250</v>
       </c>
       <c r="G61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" t="s">
         <v>198</v>
-      </c>
-      <c r="H61" t="s">
-        <v>199</v>
       </c>
       <c r="M61">
         <v>33</v>
@@ -8748,7 +12186,7 @@
         <v>193</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -8757,13 +12195,13 @@
         <v>21</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" t="s">
         <v>198</v>
-      </c>
-      <c r="H62" t="s">
-        <v>199</v>
       </c>
       <c r="M62">
         <v>34</v>
@@ -8777,7 +12215,7 @@
         <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
@@ -8785,14 +12223,14 @@
       <c r="E63" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>253</v>
+      <c r="F63" t="s">
+        <v>254</v>
       </c>
       <c r="G63" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" t="s">
         <v>198</v>
-      </c>
-      <c r="H63" t="s">
-        <v>199</v>
       </c>
       <c r="M63">
         <v>36</v>
@@ -8806,7 +12244,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
@@ -8818,10 +12256,10 @@
         <v>50</v>
       </c>
       <c r="G64" t="s">
+        <v>196</v>
+      </c>
+      <c r="H64" t="s">
         <v>198</v>
-      </c>
-      <c r="H64" t="s">
-        <v>199</v>
       </c>
       <c r="M64">
         <v>39</v>
@@ -8835,7 +12273,7 @@
         <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -8845,10 +12283,10 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" t="s">
         <v>198</v>
-      </c>
-      <c r="H65" t="s">
-        <v>199</v>
       </c>
       <c r="M65">
         <v>40</v>
@@ -8861,7 +12299,7 @@
       <c r="B66" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>77</v>
       </c>
       <c r="D66" t="s">
@@ -8870,15 +12308,14 @@
       <c r="E66" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="1"/>
       <c r="G66" t="s">
-        <v>198</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H66" t="s">
+        <v>204</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -8889,7 +12326,7 @@
         <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
@@ -8897,14 +12334,14 @@
       <c r="E67" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>245</v>
+      <c r="F67" t="s">
+        <v>257</v>
       </c>
       <c r="G67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" t="s">
         <v>198</v>
-      </c>
-      <c r="H67" t="s">
-        <v>199</v>
       </c>
       <c r="M67">
         <v>41</v>
@@ -8918,7 +12355,7 @@
         <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -8926,14 +12363,14 @@
       <c r="E68" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>247</v>
+      <c r="F68" t="s">
+        <v>259</v>
       </c>
       <c r="G68" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" t="s">
         <v>198</v>
-      </c>
-      <c r="H68" t="s">
-        <v>199</v>
       </c>
       <c r="M68">
         <v>42</v>
@@ -8947,7 +12384,7 @@
         <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -8955,14 +12392,14 @@
       <c r="E69" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>249</v>
+      <c r="F69" t="s">
+        <v>261</v>
       </c>
       <c r="G69" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" t="s">
         <v>198</v>
-      </c>
-      <c r="H69" t="s">
-        <v>199</v>
       </c>
       <c r="M69">
         <v>43</v>
@@ -8976,7 +12413,7 @@
         <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -8985,13 +12422,13 @@
         <v>21</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G70" t="s">
+        <v>196</v>
+      </c>
+      <c r="H70" t="s">
         <v>198</v>
-      </c>
-      <c r="H70" t="s">
-        <v>199</v>
       </c>
       <c r="M70">
         <v>44</v>
@@ -9004,7 +12441,7 @@
       <c r="B71" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>149</v>
       </c>
       <c r="D71" t="s">
@@ -9014,10 +12451,10 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>198</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>260</v>
+        <v>196</v>
+      </c>
+      <c r="H71" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -9027,8 +12464,8 @@
       <c r="B72" t="s">
         <v>193</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>239</v>
+      <c r="C72" t="s">
+        <v>240</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -9037,10 +12474,10 @@
         <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>198</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="H72" t="s">
+        <v>221</v>
       </c>
       <c r="M72">
         <v>4</v>
@@ -9053,8 +12490,8 @@
       <c r="B73" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>261</v>
+      <c r="C73" t="s">
+        <v>265</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -9063,10 +12500,10 @@
         <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>198</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="H73" t="s">
+        <v>207</v>
       </c>
       <c r="M73">
         <v>4</v>
@@ -9080,7 +12517,7 @@
         <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
@@ -9090,10 +12527,10 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="s">
+        <v>196</v>
+      </c>
+      <c r="H74" t="s">
         <v>198</v>
-      </c>
-      <c r="H74" t="s">
-        <v>199</v>
       </c>
       <c r="M74">
         <v>45</v>
@@ -9106,7 +12543,7 @@
       <c r="B75" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>77</v>
       </c>
       <c r="D75" t="s">
@@ -9116,13 +12553,13 @@
         <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H75" t="s">
+        <v>204</v>
       </c>
       <c r="M75">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -9132,20 +12569,23 @@
       <c r="B76" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>263</v>
+      <c r="C76" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>264</v>
+      <c r="F76" t="s">
+        <v>268</v>
       </c>
       <c r="G76" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" t="s">
         <v>198</v>
-      </c>
-      <c r="H76" t="s">
-        <v>199</v>
       </c>
       <c r="M76">
         <v>46</v>
@@ -9159,7 +12599,7 @@
         <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -9169,10 +12609,10 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H77" t="s">
         <v>198</v>
-      </c>
-      <c r="H77" t="s">
-        <v>199</v>
       </c>
       <c r="M77">
         <v>47</v>
@@ -9185,7 +12625,7 @@
       <c r="B78" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>77</v>
       </c>
       <c r="D78" t="s">
@@ -9195,13 +12635,13 @@
         <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>198</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H78" t="s">
+        <v>204</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -9212,7 +12652,7 @@
         <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -9222,10 +12662,10 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" t="s">
         <v>198</v>
-      </c>
-      <c r="H79" t="s">
-        <v>199</v>
       </c>
       <c r="M79">
         <v>48</v>
@@ -9238,7 +12678,7 @@
       <c r="B80" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>77</v>
       </c>
       <c r="D80" t="s">
@@ -9248,13 +12688,13 @@
         <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>198</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H80" t="s">
+        <v>204</v>
       </c>
       <c r="M80">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -9264,8 +12704,8 @@
       <c r="B81" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>267</v>
+      <c r="C81" t="s">
+        <v>271</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
@@ -9273,14 +12713,14 @@
       <c r="E81" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>268</v>
+      <c r="F81" t="s">
+        <v>272</v>
       </c>
       <c r="G81" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81" t="s">
         <v>198</v>
-      </c>
-      <c r="H81" t="s">
-        <v>199</v>
       </c>
       <c r="M81">
         <v>49</v>
@@ -9294,7 +12734,7 @@
         <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
@@ -9304,10 +12744,10 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="s">
+        <v>196</v>
+      </c>
+      <c r="H82" t="s">
         <v>198</v>
-      </c>
-      <c r="H82" t="s">
-        <v>199</v>
       </c>
       <c r="M82">
         <v>50</v>
@@ -9320,7 +12760,7 @@
       <c r="B83" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>77</v>
       </c>
       <c r="D83" t="s">
@@ -9330,13 +12770,13 @@
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>198</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H83" t="s">
+        <v>204</v>
       </c>
       <c r="M83">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -9347,7 +12787,7 @@
         <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D84" t="s">
         <v>16</v>
@@ -9357,10 +12797,10 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="s">
+        <v>196</v>
+      </c>
+      <c r="H84" t="s">
         <v>198</v>
-      </c>
-      <c r="H84" t="s">
-        <v>199</v>
       </c>
       <c r="M84">
         <v>51</v>
@@ -9373,7 +12813,7 @@
       <c r="B85" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>77</v>
       </c>
       <c r="D85" t="s">
@@ -9383,13 +12823,13 @@
         <v>28</v>
       </c>
       <c r="G85" t="s">
-        <v>198</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="H85" t="s">
+        <v>204</v>
       </c>
       <c r="M85">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -9399,8 +12839,8 @@
       <c r="B86" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>267</v>
+      <c r="C86" t="s">
+        <v>271</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
@@ -9408,14 +12848,14 @@
       <c r="E86" t="s">
         <v>21</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>271</v>
+      <c r="F86" t="s">
+        <v>275</v>
       </c>
       <c r="G86" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" t="s">
         <v>198</v>
-      </c>
-      <c r="H86" t="s">
-        <v>199</v>
       </c>
       <c r="M86">
         <v>52</v>
@@ -9428,8 +12868,8 @@
       <c r="B87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>272</v>
+      <c r="C87" t="s">
+        <v>276</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
@@ -9437,14 +12877,14 @@
       <c r="E87" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>273</v>
+      <c r="F87" t="s">
+        <v>277</v>
       </c>
       <c r="G87" t="s">
+        <v>196</v>
+      </c>
+      <c r="H87" t="s">
         <v>198</v>
-      </c>
-      <c r="H87" t="s">
-        <v>199</v>
       </c>
       <c r="M87">
         <v>53</v>
@@ -9452,13 +12892,13 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B88" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>275</v>
+      <c r="C88" t="s">
+        <v>279</v>
       </c>
       <c r="D88" t="s">
         <v>16</v>
@@ -9466,14 +12906,14 @@
       <c r="E88" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>276</v>
+      <c r="F88" t="s">
+        <v>280</v>
       </c>
       <c r="G88" t="s">
+        <v>196</v>
+      </c>
+      <c r="H88" t="s">
         <v>198</v>
-      </c>
-      <c r="H88" t="s">
-        <v>199</v>
       </c>
       <c r="M88">
         <v>54</v>
@@ -9481,13 +12921,13 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B89" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>278</v>
+      <c r="C89" t="s">
+        <v>282</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
@@ -9495,14 +12935,14 @@
       <c r="E89" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>279</v>
+      <c r="F89" t="s">
+        <v>283</v>
       </c>
       <c r="G89" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" t="s">
         <v>198</v>
-      </c>
-      <c r="H89" t="s">
-        <v>199</v>
       </c>
       <c r="M89">
         <v>55</v>
@@ -9510,13 +12950,13 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>281</v>
+      <c r="C90" t="s">
+        <v>285</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
@@ -9524,14 +12964,14 @@
       <c r="E90" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>282</v>
+      <c r="F90" t="s">
+        <v>286</v>
       </c>
       <c r="G90" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" t="s">
         <v>198</v>
-      </c>
-      <c r="H90" t="s">
-        <v>199</v>
       </c>
       <c r="M90">
         <v>56</v>
@@ -9544,8 +12984,8 @@
       <c r="B91" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>239</v>
+      <c r="C91" t="s">
+        <v>240</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -9554,10 +12994,10 @@
         <v>28</v>
       </c>
       <c r="G91" t="s">
-        <v>198</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="H91" t="s">
+        <v>221</v>
       </c>
       <c r="M91">
         <v>6</v>
@@ -9570,8 +13010,8 @@
       <c r="B92" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>283</v>
+      <c r="C92" t="s">
+        <v>287</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
@@ -9580,24 +13020,30 @@
         <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>198</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="H92" t="s">
+        <v>221</v>
+      </c>
+      <c r="I92" t="s">
+        <v>196</v>
+      </c>
+      <c r="J92" t="s">
+        <v>288</v>
       </c>
       <c r="M92">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>192</v>
       </c>
       <c r="B93" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>283</v>
+      <c r="C93" t="s">
+        <v>287</v>
       </c>
       <c r="D93" t="s">
         <v>16</v>
@@ -9606,21 +13052,24 @@
         <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>198</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>196</v>
+      </c>
+      <c r="H93" t="s">
+        <v>288</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>192</v>
       </c>
       <c r="B94" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>285</v>
+      <c r="C94" t="s">
+        <v>289</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
@@ -9629,13 +13078,13 @@
         <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>198</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L94" t="s">
-        <v>287</v>
+        <v>196</v>
+      </c>
+      <c r="H94" t="s">
+        <v>290</v>
+      </c>
+      <c r="K94" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="10" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -66,14 +66,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
@@ -89,9 +81,23 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -105,7 +111,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -119,14 +156,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,14 +187,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -158,45 +196,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -210,7 +210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,13 +234,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,85 +288,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,19 +318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,37 +348,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +401,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,23 +461,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,30 +501,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -509,10 +509,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -521,16 +521,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -539,119 +539,119 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="12" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="16" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="22" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +679,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1033,14 +1036,14 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="3" min="3" style="1" width="19.125"/>
     <col customWidth="1" max="5" min="5" style="1" width="19.375"/>
-    <col customWidth="1" max="6" min="6" style="4" width="38.25"/>
+    <col customWidth="1" max="6" min="6" style="4" width="49.375"/>
     <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
     <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
     <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
@@ -1143,7 +1146,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -1180,7 +1183,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -1225,7 +1228,7 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>Qrz888888</t>
+          <t>888888</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -1291,7 +1294,7 @@
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1383,9 +1386,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="888888" ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1401,7 +1404,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1537,7 +1540,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -1574,7 +1577,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -2345,10 +2348,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2362,8 +2364,8 @@
   </sheetPr>
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2481,7 +2483,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/recruit.html?s=lsh</t>
+          <t>https://ischool.xiaogj.com/recruit.html?s=schooltest2</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -2670,7 +2672,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2694,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -2729,7 +2731,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -2811,7 +2813,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F10" s="11" t="n"/>
+      <c r="F10" s="12" t="n"/>
       <c r="G10" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2865,7 +2867,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F11" s="11" t="n"/>
+      <c r="F11" s="12" t="n"/>
       <c r="G11" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2906,7 +2908,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F12" s="11" t="n"/>
+      <c r="F12" s="12" t="n"/>
       <c r="G12" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2944,7 +2946,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F13" s="11" t="n"/>
+      <c r="F13" s="12" t="n"/>
       <c r="G13" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2985,7 +2987,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F14" s="11" t="n"/>
+      <c r="F14" s="12" t="n"/>
       <c r="G14" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3016,7 +3018,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F15" s="11" t="n"/>
+      <c r="F15" s="12" t="n"/>
       <c r="G15" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3511,7 +3513,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F28" s="11" t="n"/>
+      <c r="F28" s="12" t="n"/>
       <c r="G28" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3542,7 +3544,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F29" s="11" t="n"/>
+      <c r="F29" s="12" t="n"/>
       <c r="G29" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -5799,7 +5801,7 @@
         </is>
       </c>
       <c r="M92" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -5999,7 +6001,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/recruit.html?s=lsh" ref="F2" tooltip="https://schooltest.xiaogj.com/recruit.html?s=lsh" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/recruit.html?s=schooltest2" ref="F2" tooltip="https://ischool.xiaogj.com/recruit.html?s=schooltest2" r:id="rId1"/>
     <hyperlink display="dad@qq.com" ref="F82" r:id="rId2"/>
     <hyperlink display="mom@qq.com" ref="F90" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>
@@ -6015,15 +6017,15 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="3" min="3" style="1" width="21.25"/>
     <col customWidth="1" max="5" min="5" style="1" width="24.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="12.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
     <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
     <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
     <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
@@ -6838,7 +6840,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6948,7 +6950,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -6990,7 +6992,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -7414,7 +7416,7 @@
         </is>
       </c>
       <c r="M12" s="0" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -7455,7 +7457,7 @@
         </is>
       </c>
       <c r="M13" s="0" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -7500,7 +7502,7 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -7545,7 +7547,7 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -7749,8 +7751,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
@@ -7768,7 +7770,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7878,7 +7880,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -7915,7 +7917,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -8654,10 +8656,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -8673,7 +8674,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8782,7 +8783,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -8819,7 +8820,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -9238,10 +9239,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -9256,7 +9256,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -10814,10 +10814,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10832,7 +10831,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10977,7 +10976,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -11019,7 +11018,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -11452,7 +11451,7 @@
       <c r="I12" s="2" t="n"/>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>螺丝扣</t>
+          <t>卞唔刑</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -11498,7 +11497,7 @@
       <c r="I13" s="2" t="n"/>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>15444494949</t>
+          <t>13238813487</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -11895,7 +11894,7 @@
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>螺丝扣</t>
+          <t>卞唔刑</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -12087,10 +12086,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -12105,7 +12103,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12243,7 +12241,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -12280,7 +12278,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>admin@lsh</t>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -12744,10 +12742,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@lsh" ref="F3" tooltip="mailto:admin@lsh" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -12762,7 +12759,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12901,7 +12898,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -12936,9 +12933,9 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>admin@demo</t>
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>admin@schooltest2</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -12981,7 +12978,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -13587,10 +13584,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com" ref="F2" tooltip="https://schooltest.xiaogj.com" r:id="rId1"/>
-    <hyperlink display="admin@demo" ref="F3" tooltip="mailto:admin@demo" r:id="rId2"/>
-    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -13602,10 +13598,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:D94"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13720,7 +13716,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit</t>
+          <t>https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -14006,7 +14002,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F9" s="11" t="n"/>
+      <c r="F9" s="12" t="n"/>
       <c r="G9" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -14177,11 +14173,6 @@
           <t>box_ensure</t>
         </is>
       </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="M13" s="0" t="n">
         <v>0</v>
       </c>
@@ -14894,7 +14885,7 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
@@ -14934,7 +14925,7 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
@@ -15144,7 +15135,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -15184,7 +15175,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -16625,6 +16616,21 @@
           <t>next_step</t>
         </is>
       </c>
+      <c r="I72" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="L72" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
       <c r="M72" s="0" t="n">
         <v>4</v>
       </c>
@@ -16642,7 +16648,7 @@
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>选择是寄宿</t>
+          <t>上滑页面</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
@@ -16652,7 +16658,7 @@
       </c>
       <c r="E73" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>scroll_page</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
@@ -16665,6 +16671,8 @@
           <t>sex</t>
         </is>
       </c>
+      <c r="I73" s="0" t="n"/>
+      <c r="J73" s="0" t="n"/>
       <c r="M73" s="0" t="n">
         <v>4</v>
       </c>
@@ -16682,117 +16690,112 @@
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
+          <t>选择是寄宿</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
           <t>点击身体健康状态</t>
         </is>
       </c>
-      <c r="D74" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E74" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F74" s="0" t="n"/>
-      <c r="G74" s="0" t="inlineStr">
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="n"/>
+      <c r="G75" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
         </is>
       </c>
-      <c r="H74" s="0" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>input_box</t>
         </is>
       </c>
-      <c r="M74" s="0" t="n">
+      <c r="M75" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="75" s="1">
-      <c r="A75" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="76" s="1">
+      <c r="A76" s="0" t="inlineStr">
         <is>
           <t>phone_01</t>
         </is>
       </c>
-      <c r="B75" s="0" t="inlineStr">
+      <c r="B76" s="0" t="inlineStr">
         <is>
           <t>移动端留单页</t>
         </is>
       </c>
-      <c r="C75" s="0" t="inlineStr">
+      <c r="C76" s="0" t="inlineStr">
         <is>
           <t>点击确认</t>
         </is>
       </c>
-      <c r="D75" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E75" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G75" s="0" t="inlineStr">
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
         </is>
       </c>
-      <c r="H75" s="0" t="inlineStr">
+      <c r="H76" s="0" t="inlineStr">
         <is>
           <t>box_ensure</t>
         </is>
       </c>
-      <c r="M75" s="0" t="n">
+      <c r="M76" s="0" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
-        <is>
-          <t>输入有无药物过敏</t>
-        </is>
-      </c>
-      <c r="D76" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E76" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F76" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化有无药物过敏</t>
-        </is>
-      </c>
-      <c r="G76" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H76" s="0" t="inlineStr">
-        <is>
-          <t>input_box</t>
-        </is>
-      </c>
-      <c r="M76" s="0" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="77">
@@ -16808,113 +16811,117 @@
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
+          <t>输入有无药物过敏</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化有无药物过敏</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>input_box</t>
+        </is>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
           <t>点击户口类型</t>
         </is>
       </c>
-      <c r="D77" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E77" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F77" s="0" t="n"/>
-      <c r="G77" s="0" t="inlineStr">
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="n"/>
+      <c r="G78" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
         </is>
       </c>
-      <c r="H77" s="0" t="inlineStr">
+      <c r="H78" s="0" t="inlineStr">
         <is>
           <t>input_box</t>
         </is>
       </c>
-      <c r="M77" s="0" t="n">
+      <c r="M78" s="0" t="n">
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="78" s="1">
-      <c r="A78" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="79" s="1">
+      <c r="A79" s="0" t="inlineStr">
         <is>
           <t>phone_01</t>
         </is>
       </c>
-      <c r="B78" s="0" t="inlineStr">
+      <c r="B79" s="0" t="inlineStr">
         <is>
           <t>移动端留单页</t>
         </is>
       </c>
-      <c r="C78" s="0" t="inlineStr">
+      <c r="C79" s="0" t="inlineStr">
         <is>
           <t>点击确认</t>
         </is>
       </c>
-      <c r="D78" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E78" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G78" s="0" t="inlineStr">
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
         </is>
       </c>
-      <c r="H78" s="0" t="inlineStr">
+      <c r="H79" s="0" t="inlineStr">
         <is>
           <t>box_ensure</t>
         </is>
       </c>
-      <c r="M78" s="0" t="n">
+      <c r="M79" s="0" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>点击户籍地址</t>
-        </is>
-      </c>
-      <c r="D79" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F79" s="0" t="n"/>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>input_box</t>
-        </is>
-      </c>
-      <c r="M79" s="0" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="80">
@@ -16930,7 +16937,7 @@
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>点击确认</t>
+          <t>点击户籍地址</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
@@ -16943,6 +16950,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F80" s="0" t="n"/>
       <c r="G80" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -16950,11 +16958,11 @@
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>box_ensure</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M80" s="0" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81">
@@ -16970,7 +16978,7 @@
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>点击输入详细地址</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D81" s="0" t="inlineStr">
@@ -16980,12 +16988,7 @@
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化户籍详细地址</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
@@ -16995,11 +16998,11 @@
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>box_ensure</t>
         </is>
       </c>
       <c r="M81" s="0" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -17015,7 +17018,7 @@
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
-          <t>点击户主与学生关系</t>
+          <t>点击输入详细地址</t>
         </is>
       </c>
       <c r="D82" s="0" t="inlineStr">
@@ -17025,10 +17028,14 @@
       </c>
       <c r="E82" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F82" s="0" t="n"/>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化户籍详细地址</t>
+        </is>
+      </c>
       <c r="G82" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -17040,7 +17047,7 @@
         </is>
       </c>
       <c r="M82" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
@@ -17056,7 +17063,7 @@
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>点击确认</t>
+          <t>点击户主与学生关系</t>
         </is>
       </c>
       <c r="D83" s="0" t="inlineStr">
@@ -17069,6 +17076,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F83" s="0" t="n"/>
       <c r="G83" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -17076,11 +17084,11 @@
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>box_ensure</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M83" s="0" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -17096,7 +17104,7 @@
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>点击家庭常住地</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
@@ -17109,7 +17117,6 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F84" s="0" t="n"/>
       <c r="G84" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -17117,11 +17124,11 @@
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>box_ensure</t>
         </is>
       </c>
       <c r="M84" s="0" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -17137,7 +17144,7 @@
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>点击确认</t>
+          <t>点击家庭常住地</t>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
@@ -17150,6 +17157,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F85" s="0" t="n"/>
       <c r="G85" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -17157,11 +17165,11 @@
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
-          <t>box_ensure</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M85" s="0" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86">
@@ -17177,7 +17185,7 @@
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>点击输入详细地址</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
@@ -17187,12 +17195,7 @@
       </c>
       <c r="E86" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F86" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化家庭常住地详细地址</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G86" s="0" t="inlineStr">
@@ -17202,11 +17205,11 @@
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>box_ensure</t>
         </is>
       </c>
       <c r="M86" s="0" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -17222,7 +17225,7 @@
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>点击输入爱好与特长</t>
+          <t>点击输入详细地址</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
@@ -17237,7 +17240,7 @@
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化爱好与特长</t>
+          <t>全日智自动化家庭常住地详细地址</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
@@ -17251,13 +17254,13 @@
         </is>
       </c>
       <c r="M87" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>phone_02</t>
+          <t>phone_01</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
@@ -17267,7 +17270,7 @@
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>点击输入成长报告记录</t>
+          <t>点击输入爱好与特长</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
@@ -17282,7 +17285,7 @@
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化成长报告记录</t>
+          <t>全日智自动化爱好与特长</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
@@ -17296,13 +17299,13 @@
         </is>
       </c>
       <c r="M88" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>phone_03</t>
+          <t>phone_02</t>
         </is>
       </c>
       <c r="B89" s="0" t="inlineStr">
@@ -17312,7 +17315,7 @@
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>点击输入学校您最关注</t>
+          <t>点击输入成长报告记录</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
@@ -17327,7 +17330,7 @@
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化选择学校您最关注什么</t>
+          <t>全日智自动化成长报告记录</t>
         </is>
       </c>
       <c r="G89" s="0" t="inlineStr">
@@ -17341,13 +17344,13 @@
         </is>
       </c>
       <c r="M89" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>phone_04</t>
+          <t>phone_03</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
@@ -17357,7 +17360,7 @@
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>点击输入对孩子入学后的期望</t>
+          <t>点击输入学校您最关注</t>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
@@ -17372,7 +17375,7 @@
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化对孩子入学后的期望</t>
+          <t>全日智自动化选择学校您最关注什么</t>
         </is>
       </c>
       <c r="G90" s="0" t="inlineStr">
@@ -17386,13 +17389,13 @@
         </is>
       </c>
       <c r="M90" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>phone_01</t>
+          <t>phone_04</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
@@ -17402,7 +17405,7 @@
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>点击下一步</t>
+          <t>点击输入对孩子入学后的期望</t>
         </is>
       </c>
       <c r="D91" s="0" t="inlineStr">
@@ -17412,7 +17415,12 @@
       </c>
       <c r="E91" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化对孩子入学后的期望</t>
         </is>
       </c>
       <c r="G91" s="0" t="inlineStr">
@@ -17422,11 +17430,11 @@
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
-          <t>next_step</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M91" s="0" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92">
@@ -17442,7 +17450,7 @@
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>点击确认提交</t>
+          <t>点击下一步</t>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
@@ -17465,23 +17473,8 @@
           <t>next_step</t>
         </is>
       </c>
-      <c r="I92" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="J92" s="0" t="inlineStr">
-        <is>
-          <t>ensure_submit</t>
-        </is>
-      </c>
-      <c r="L92" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
       <c r="M92" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -17517,11 +17510,26 @@
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
+          <t>next_step</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
+        <is>
           <t>ensure_submit</t>
         </is>
       </c>
+      <c r="L93" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
       <c r="M93" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -17537,43 +17545,83 @@
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
+          <t>点击确认提交</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>ensure_submit</t>
+        </is>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
           <t>成功文案</t>
         </is>
       </c>
-      <c r="D94" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E94" s="0" t="inlineStr">
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
         <is>
           <t>element_text</t>
         </is>
       </c>
-      <c r="G94" s="0" t="inlineStr">
+      <c r="G95" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
         </is>
       </c>
-      <c r="H94" s="0" t="inlineStr">
+      <c r="H95" s="0" t="inlineStr">
         <is>
           <t>success_text</t>
         </is>
       </c>
-      <c r="K94" s="0" t="inlineStr">
+      <c r="K95" s="0" t="inlineStr">
         <is>
           <t>提交成功</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="L95" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit" ref="F2" tooltip="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=lsh#/recruit" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" ref="F2" tooltip="https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" r:id="rId1"/>
     <hyperlink display="dad@qq.com" ref="F62" r:id="rId2"/>
     <hyperlink display="mom@qq.com" ref="F70" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -83,15 +83,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -100,6 +92,21 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -120,8 +127,31 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -144,45 +174,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -197,7 +190,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -211,115 +211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +235,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,19 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,51 +402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +425,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -485,11 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +487,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -510,10 +510,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="18" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="19" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -522,10 +522,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
@@ -543,112 +543,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="28" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="9" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="28" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="18" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2365,8 +2365,8 @@
   </sheetPr>
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10079,7 +10079,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11653,8 +11653,8 @@
   </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12093,9 +12093,13 @@
           <t>process_type</t>
         </is>
       </c>
-      <c r="L8" s="0" t="n"/>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M8" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -12140,7 +12144,7 @@
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -12274,7 +12278,7 @@
       <c r="I12" s="2" t="n"/>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>袁嗒</t>
+          <t>傅吾</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -12320,7 +12324,7 @@
       <c r="I13" s="2" t="n"/>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>13408757481</t>
+          <t>15261448762</t>
         </is>
       </c>
       <c r="M13" s="0" t="n">
@@ -12403,8 +12407,13 @@
           <t>join_recovery</t>
         </is>
       </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M15" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -12717,7 +12726,7 @@
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>袁嗒</t>
+          <t>傅吾</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -12926,7 +12935,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13413,7 +13422,7 @@
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -13458,7 +13467,7 @@
         </is>
       </c>
       <c r="M10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -14428,7 +14437,7 @@
   </sheetPr>
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="13" autoFilterDateGrouping="1" firstSheet="6" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Create_student_order" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="add_clue_pc" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="add_student" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="test" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="edit_staff" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="add_clue_to_pond" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -48,30 +50,22 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF222222"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <color rgb="FF222222"/>
       <sz val="9"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+      <color rgb="FF222222"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -83,7 +77,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +114,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -106,14 +122,53 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -130,22 +185,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,45 +199,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,25 +237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +297,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,49 +333,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,55 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +407,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -414,13 +431,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,36 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -488,17 +494,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +512,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="19" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="14" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -522,16 +524,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -540,119 +542,119 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="28" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="18" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,25 +666,22 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1037,7 +1036,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1147,7 +1146,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -1227,7 +1226,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -1387,7 +1386,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
   </hyperlinks>
@@ -1405,7 +1404,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1541,7 +1540,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -1621,7 +1620,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -1787,7 +1786,7 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -2349,9 +2348,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2366,7 +2366,7 @@
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/recruit.html?s=schooltest2</t>
+          <t>https://schooltest.xiaogj.com/recruit.html?s=schooltest2</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>school_area</t>
+          <t>years_type</t>
         </is>
       </c>
       <c r="L6" s="0" t="inlineStr">
@@ -2814,7 +2814,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F10" s="12" t="n"/>
+      <c r="F10" s="11" t="n"/>
       <c r="G10" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2868,7 +2868,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F11" s="12" t="n"/>
+      <c r="F11" s="11" t="n"/>
       <c r="G11" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2909,7 +2909,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F12" s="12" t="n"/>
+      <c r="F12" s="11" t="n"/>
       <c r="G12" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2947,7 +2947,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F13" s="12" t="n"/>
+      <c r="F13" s="11" t="n"/>
       <c r="G13" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -2988,7 +2988,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F14" s="12" t="n"/>
+      <c r="F14" s="11" t="n"/>
       <c r="G14" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3019,7 +3019,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F15" s="12" t="n"/>
+      <c r="F15" s="11" t="n"/>
       <c r="G15" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3514,7 +3514,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F28" s="12" t="n"/>
+      <c r="F28" s="11" t="n"/>
       <c r="G28" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3545,7 +3545,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F29" s="12" t="n"/>
+      <c r="F29" s="11" t="n"/>
       <c r="G29" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -4157,6 +4157,11 @@
           <t>minds_level</t>
         </is>
       </c>
+      <c r="L45" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M45" s="0" t="n">
         <v>4</v>
       </c>
@@ -5421,7 +5426,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
+      <c r="F82" s="7" t="inlineStr">
         <is>
           <t>dad@qq.com</t>
         </is>
@@ -5707,7 +5712,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F90" s="6" t="inlineStr">
+      <c r="F90" s="7" t="inlineStr">
         <is>
           <t>mom@qq.com</t>
         </is>
@@ -5989,7 +5994,7 @@
           <t>success_label</t>
         </is>
       </c>
-      <c r="K97" s="7" t="inlineStr">
+      <c r="K97" s="8" t="inlineStr">
         <is>
           <t>提交成功</t>
         </is>
@@ -6002,7 +6007,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/recruit.html?s=schooltest2" ref="F2" tooltip="https://ischool.xiaogj.com/recruit.html?s=schooltest2" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/recruit.html?s=schooltest2" ref="F2" tooltip="https://schooltest.xiaogj.com/recruit.html?s=schooltest2" r:id="rId1"/>
     <hyperlink display="dad@qq.com" ref="F82" r:id="rId2"/>
     <hyperlink display="mom@qq.com" ref="F90" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>
@@ -6011,7 +6016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6019,7 +6024,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6135,9 +6140,9 @@
           <t>open_browser</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -6177,7 +6182,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>admin@schooltest2</t>
         </is>
@@ -6222,7 +6227,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -6828,11 +6833,1502 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.75"/>
+    <col customWidth="1" max="6" min="6" style="1" width="32.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="10" min="9" style="1" width="14.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>模块名字</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>执行方法</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>输入数据</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>操作页面</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>操作元素</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>预期页面</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>预期元素</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>元素位置</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>前置页面</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>前置元素</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>前置元素位置</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>子页面</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>子元素</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>子位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>进入登录界面</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>输入用户名</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>admin@schooltest2</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>输入密码</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Qrz888888</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>点击登录</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>mailto:admin@demo</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>login_button</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Work_platform</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Head_portrait</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>staff_01</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>新增员工</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>点击人员部门</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>recruit_students</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>staff_01</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>新增员工</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>点击部门管理</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>staff_manage</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>staff_button</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>staff_01</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>新增员工</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>输入员工姓名</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>staff_manage</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>staff_name</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>staff_01</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>新增员工</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>点击搜索</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>staff_manage</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>search_button</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>staff_01</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>新增员工</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>获取手机号</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>staff_manage</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>staff_01</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>新增员工</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>获取部门名称</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>staff_manage</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>depart_name</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" style="1" width="19.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.25"/>
+    <col customWidth="1" max="9" min="9" style="1" width="23.75"/>
+    <col customWidth="1" max="10" min="10" style="1" width="14.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>模块名字</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>执行方法</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>输入数据</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>操作页面</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>操作元素</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>预期页面</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>预期元素</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>元素位置</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>进入登录界面</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>输入用户名</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>admin@schooltest2</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>输入密码</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Qrz888888</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>login_01</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>点击登录</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>mailto:admin@demo</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>login_button</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Work_platform</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Head_portrait</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>点击招生管理</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>recruit_students</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>点击线索管理</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>点击新增线索</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>clue_button</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>等待报名表单出现</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>wait_element_show</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>close_button</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>输入姓名</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>sign_up_input</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>输入联系号码</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>手机号码</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>sign_up_input</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>点击申请年级输入框</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>sign_up_input</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>选择年级</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>grade_chose1</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲姓名</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>自动化PC新增线索父亲姓名</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>sign_up_input</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲姓名</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>自动化PC新增线索母亲姓名</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>sign_up_input</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>点击提交</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Submission</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>确认已经提交</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>wait_element_show</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>student_name</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Clue_02</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>点击线索池</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>clue_pond</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>clue_name</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>确认是否提交成功</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>clue_name</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7660,10 +9156,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7773,7 +9269,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -7784,6 +9280,11 @@
       <c r="H2" s="0" t="inlineStr">
         <is>
           <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -7858,7 +9359,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -8153,7 +9654,7 @@
         </is>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -8198,7 +9699,7 @@
         </is>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -8239,7 +9740,7 @@
         </is>
       </c>
       <c r="M12" s="0" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -8280,7 +9781,7 @@
         </is>
       </c>
       <c r="M13" s="0" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -8325,7 +9826,7 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -8370,7 +9871,7 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -8386,7 +9887,7 @@
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>点击提交</t>
+          <t>输入推荐人</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -8396,10 +9897,14 @@
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="n"/>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>自动化PC新增推荐人</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -8407,11 +9912,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>Submission</t>
+          <t>sign_up_input</t>
         </is>
       </c>
       <c r="M16" s="0" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -8427,7 +9932,7 @@
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>确认已经提交</t>
+          <t>点击选择招生老师</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -8437,7 +9942,7 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>wait_element_show</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="F17" s="4" t="n"/>
@@ -8448,10 +9953,17 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>student_name</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="n"/>
+          <t>chose_button</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -8466,7 +9978,7 @@
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>确认是否提交成功</t>
+          <t>点击招生老师</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -8476,7 +9988,7 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>element_text</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="F18" s="4" t="n"/>
@@ -8487,46 +9999,190 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
+          <t>teacher_name</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>teacher_name</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>选择招生老师提交</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Submission</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>点击提交</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Submission</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n"/>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>wait_element_show</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
           <t>student_name</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="0" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Clue_01</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>确认是否提交成功</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>student_name</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="n"/>
+      <c r="L22" s="0" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="C19" s="0" t="n"/>
-      <c r="E19" s="0" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="0" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="C20" s="0" t="n"/>
-      <c r="E20" s="0" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="0" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="C21" s="0" t="n"/>
-      <c r="E21" s="0" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="0" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="C22" s="0" t="n"/>
-      <c r="E22" s="0" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="0" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n"/>
@@ -8567,14 +10223,42 @@
       <c r="A28" s="2" t="n"/>
       <c r="C28" s="0" t="n"/>
       <c r="E28" s="0" t="n"/>
-      <c r="F28" s="4" t="n"/>
       <c r="G28" s="2" t="n"/>
       <c r="H28" s="0" t="n"/>
-      <c r="K28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="C29" s="0" t="n"/>
+      <c r="E29" s="0" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="0" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="C30" s="0" t="n"/>
+      <c r="E30" s="0" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="0" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="C31" s="0" t="n"/>
+      <c r="E31" s="0" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="0" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="C32" s="0" t="n"/>
+      <c r="E32" s="0" t="n"/>
+      <c r="F32" s="4" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="0" t="n"/>
+      <c r="K32" s="4" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -8593,7 +10277,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8703,7 +10387,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -8783,7 +10467,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -8949,7 +10633,7 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -9004,7 +10688,7 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -9479,9 +11163,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9497,7 +11182,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9606,7 +11291,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -9686,7 +11371,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -9852,7 +11537,7 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -9974,6 +11659,11 @@
           <t>ensure_button</t>
         </is>
       </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M10" s="0" t="n">
         <v>3</v>
       </c>
@@ -10062,9 +11752,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10079,7 +11770,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10225,7 +11916,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -10305,7 +11996,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -10471,7 +12162,7 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -11637,9 +13328,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -11653,8 +13345,8 @@
   </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11799,7 +13491,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -11884,7 +13576,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -12278,7 +13970,7 @@
       <c r="I12" s="2" t="n"/>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>傅吾</t>
+          <t>茅礴痦</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -12322,11 +14014,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n"/>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>15261448762</t>
-        </is>
-      </c>
+      <c r="L13" s="0" t="inlineStr"/>
       <c r="M13" s="0" t="n">
         <v>1</v>
       </c>
@@ -12726,7 +14414,7 @@
       </c>
       <c r="L21" s="0" t="inlineStr">
         <is>
-          <t>傅吾</t>
+          <t>茅礴痦</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -12803,7 +14491,11 @@
         </is>
       </c>
       <c r="K23" s="0" t="n"/>
-      <c r="L23" s="0" t="n"/>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -12918,9 +14610,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -12934,8 +14627,8 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13073,12 +14766,17 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -13153,7 +14851,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -13318,11 +15016,11 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -13574,9 +15272,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -13591,7 +15290,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13730,7 +15429,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/login.html#/login</t>
+          <t>https://schooltest.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -13765,7 +15464,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>admin@schooltest2</t>
         </is>
@@ -13810,7 +15509,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Qrz888888</t>
         </is>
@@ -14421,9 +16120,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
-    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId3"/>
+    <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
+    <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -14437,8 +16137,8 @@
   </sheetPr>
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14553,7 +16253,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit</t>
+          <t>https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -14650,6 +16350,11 @@
           <t>input_box</t>
         </is>
       </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
       </c>
@@ -14839,7 +16544,7 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F9" s="12" t="n"/>
+      <c r="F9" s="11" t="n"/>
       <c r="G9" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -15660,6 +17365,11 @@
           <t>input_box</t>
         </is>
       </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M29" s="0" t="n">
         <v>13</v>
       </c>
@@ -16430,6 +18140,11 @@
           <t>box_ensure</t>
         </is>
       </c>
+      <c r="L48" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M48" s="0" t="n">
         <v>3</v>
       </c>
@@ -17010,7 +18725,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
+      <c r="F62" s="7" t="inlineStr">
         <is>
           <t>dad@qq.com</t>
         </is>
@@ -17361,7 +19076,7 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
+      <c r="F70" s="7" t="inlineStr">
         <is>
           <t>mom@qq.com</t>
         </is>
@@ -18458,7 +20173,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" ref="F2" tooltip="https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" r:id="rId1"/>
+    <hyperlink display="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" ref="F2" tooltip="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" r:id="rId1"/>
     <hyperlink display="dad@qq.com" ref="F62" r:id="rId2"/>
     <hyperlink display="mom@qq.com" ref="F70" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="13" autoFilterDateGrouping="1" firstSheet="6" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -70,6 +70,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -77,29 +84,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -114,6 +99,36 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -121,8 +136,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -145,6 +159,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -159,47 +197,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +213,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,37 +249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,18 +267,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,7 +279,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,13 +309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +339,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,61 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,21 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,6 +431,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -457,6 +477,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,35 +504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -512,10 +512,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="14" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="11" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -524,16 +524,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -542,115 +542,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="13" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="28" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="28" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="19" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="18" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="I82" sqref="I82:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>enrollment_management</t>
+          <t>Work_platform</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>recruit_students</t>
+          <t>Head_portrait</t>
         </is>
       </c>
       <c r="L5" s="0" t="inlineStr">
@@ -1733,6 +1733,21 @@
           <t>recruit_students</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
       <c r="M6" s="0" t="n">
         <v>1</v>
       </c>
@@ -1786,11 +1801,11 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2363,10 +2378,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2375,13 +2390,15 @@
     <col customWidth="1" max="2" min="2" style="1" width="12.875"/>
     <col customWidth="1" max="3" min="3" style="1" width="23.75"/>
     <col customWidth="1" max="4" min="4" style="1" width="8.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13.75"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.25"/>
     <col customWidth="1" max="6" min="6" style="1" width="53.75"/>
     <col customWidth="1" max="7" min="7" style="1" width="16"/>
     <col customWidth="1" max="8" min="8" style="1" width="38.25"/>
     <col customWidth="1" max="9" min="9" style="1" width="16"/>
     <col customWidth="1" max="10" min="10" style="1" width="18.25"/>
     <col customWidth="1" max="14" min="11" style="1" width="8.875"/>
+    <col customWidth="1" max="15" min="15" style="1" width="16"/>
+    <col customWidth="1" max="16" min="16" style="1" width="21.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2455,6 +2472,21 @@
           <t>前置条件</t>
         </is>
       </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>前置页面</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>前置元素</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>前置元素位置</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -2499,7 +2531,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
     </row>
@@ -2661,21 +2693,9 @@
           <t>login_button</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t>years_type</t>
-        </is>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="I6" s="0" t="n"/>
+      <c r="J6" s="0" t="n"/>
+      <c r="L6" s="0" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -2840,7 +2860,7 @@
           <t>Success</t>
         </is>
       </c>
-      <c r="N10" s="0" t="n"/>
+      <c r="O10" s="0" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -2882,6 +2902,7 @@
       <c r="M11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N11" s="0" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -2959,8 +2980,9 @@
         </is>
       </c>
       <c r="M13" s="0" t="n">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N13" s="0" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -3000,10 +3022,21 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="N14" s="0" t="n"/>
     </row>
     <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>PC_14</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
           <t>选择日期</t>
@@ -3031,8 +3064,9 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="N15" s="0" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -3107,6 +3141,21 @@
           <t>identity_card</t>
         </is>
       </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>identity_card</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -3491,7 +3540,7 @@
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>PC_09</t>
+          <t>PC_16</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
@@ -3501,7 +3550,7 @@
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>点击期望入读时间</t>
+          <t>点击培养方向</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -3514,7 +3563,6 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F28" s="11" t="n"/>
       <c r="G28" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3522,17 +3570,26 @@
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>expect_recruit_time</t>
-        </is>
-      </c>
-      <c r="N28" s="0" t="n"/>
+          <t>Training_directions</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="n"/>
+      <c r="O28" s="0" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="n"/>
-      <c r="B29" s="0" t="n"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>PC_17</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>点击日期</t>
+          <t>选择培养方向-抖音</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -3542,10 +3599,9 @@
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F29" s="11" t="n"/>
+          <t>father_son_click</t>
+        </is>
+      </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3553,18 +3609,32 @@
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>years</t>
-        </is>
-      </c>
+          <t>Training_direction1</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="n"/>
       <c r="M29" s="0" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N29" s="0" t="n"/>
+      <c r="O29" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="P29" s="0" t="inlineStr">
+        <is>
+          <t>Training_direction2</t>
+        </is>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>PC_10</t>
+          <t>PC_09</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
@@ -3574,7 +3644,7 @@
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>点击专业</t>
+          <t>点击期望入读时间</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -3587,6 +3657,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F30" s="11" t="n"/>
       <c r="G30" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3594,14 +3665,15 @@
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>major_type</t>
-        </is>
-      </c>
+          <t>expect_recruit_time</t>
+        </is>
+      </c>
+      <c r="O30" s="0" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>PC_11</t>
+          <t>PC_10</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
@@ -3611,7 +3683,7 @@
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>选择专业</t>
+          <t>点击日期</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -3624,6 +3696,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F31" s="11" t="n"/>
       <c r="G31" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -3631,14 +3704,19 @@
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>major</t>
-        </is>
-      </c>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="N31" s="0" t="n"/>
+      <c r="O31" s="0" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>PC_12</t>
+          <t>PC_10</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
@@ -3648,7 +3726,7 @@
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>选择入学方式</t>
+          <t>点击专业</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
@@ -3668,14 +3746,14 @@
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>adminssion_type</t>
+          <t>major_type</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>PC_13</t>
+          <t>PC_11</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
@@ -3685,7 +3763,7 @@
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>点击申请年纪</t>
+          <t>选择专业</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
@@ -3705,14 +3783,14 @@
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>application_grade_type</t>
+          <t>major</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>PC_14</t>
+          <t>PC_12</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
@@ -3722,7 +3800,7 @@
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>选择小学一年级</t>
+          <t>选择入学方式</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -3742,14 +3820,14 @@
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>application_grade</t>
+          <t>adminssion_type</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>PC_15</t>
+          <t>PC_13</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
@@ -3759,7 +3837,7 @@
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>点击就读年纪</t>
+          <t>点击申请年纪</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
@@ -3779,14 +3857,14 @@
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>grade_type</t>
+          <t>application_grade_type</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>PC_15</t>
+          <t>PC_14</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
@@ -3796,7 +3874,7 @@
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>选择幼儿园大班</t>
+          <t>选择小学一年级</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
@@ -3816,14 +3894,14 @@
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>application_grade</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>PC_16</t>
+          <t>PC_15</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
@@ -3833,7 +3911,7 @@
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>输入现就读学校</t>
+          <t>点击就读年纪</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
@@ -3843,12 +3921,7 @@
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化测试现就读学校输入</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G37" s="0" t="inlineStr">
@@ -3858,14 +3931,14 @@
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>school_name</t>
+          <t>grade_type</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>PC_17</t>
+          <t>PC_15</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
@@ -3875,7 +3948,7 @@
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>点击申请学期</t>
+          <t>选择幼儿园大班</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
@@ -3895,14 +3968,14 @@
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>semester_type</t>
+          <t>grade</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>PC_18</t>
+          <t>PC_16</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
@@ -3912,7 +3985,7 @@
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>选择学期</t>
+          <t>输入现就读学校</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
@@ -3922,7 +3995,12 @@
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化测试现就读学校输入</t>
         </is>
       </c>
       <c r="G39" s="0" t="inlineStr">
@@ -3932,14 +4010,14 @@
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>semester</t>
+          <t>school_name</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>PC_19</t>
+          <t>PC_17</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
@@ -3949,7 +4027,7 @@
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>输入毕业学校</t>
+          <t>点击申请学期</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
@@ -3959,12 +4037,7 @@
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化测试毕业学校输入</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G40" s="0" t="inlineStr">
@@ -3974,14 +4047,14 @@
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>graduate_school</t>
+          <t>semester_type</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>PC_20</t>
+          <t>PC_18</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
@@ -3991,7 +4064,7 @@
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>点击专业技能水平</t>
+          <t>选择学期</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
@@ -4011,14 +4084,14 @@
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>skill_level_type</t>
+          <t>semester</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>PC_21</t>
+          <t>PC_19</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
@@ -4028,7 +4101,7 @@
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>选择技师</t>
+          <t>输入毕业学校</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
@@ -4038,7 +4111,12 @@
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化测试毕业学校输入</t>
         </is>
       </c>
       <c r="G42" s="0" t="inlineStr">
@@ -4048,14 +4126,14 @@
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>technician</t>
+          <t>graduate_school</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>PC_22</t>
+          <t>PC_20</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
@@ -4065,7 +4143,7 @@
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>点击学制</t>
+          <t>点击原毕业年级</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
@@ -4078,6 +4156,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F43" s="0" t="n"/>
       <c r="G43" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
@@ -4085,1871 +4164,2154 @@
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>system_type</t>
+          <t>Graduation_grades</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
+          <t>PC_21</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>选择原毕业年级</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="n"/>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>Graduation_grade_list</t>
+        </is>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O44" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="P44" s="0" t="inlineStr">
+        <is>
+          <t>Graduation_grade</t>
+        </is>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>PC_20</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>点击专业技能水平</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>skill_level_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>PC_21</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>选择技师</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>PC_22</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>点击学制</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>system_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
           <t>PC_23</t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
+      <c r="B48" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C44" s="0" t="inlineStr">
+      <c r="C48" s="0" t="inlineStr">
         <is>
           <t>选择学制</t>
         </is>
       </c>
-      <c r="D44" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H44" s="0" t="inlineStr">
+      <c r="H48" s="0" t="inlineStr">
         <is>
           <t>four_year_system</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="0" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>PC_25</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>点击意向级别</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>点击自定义字段1</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>minds_level</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="0" t="inlineStr">
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>drop_box_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>PC_26</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>点击下拉框</t>
-        </is>
-      </c>
-      <c r="D46" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E46" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G46" s="0" t="inlineStr">
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>选择下拉框内容</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
-        <is>
-          <t>drop_box_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="0" t="inlineStr">
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>box_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>PC_27</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>选择下拉框内容</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>点击户口类型</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
-        <is>
-          <t>box_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="0" t="inlineStr">
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>account_type</t>
+        </is>
+      </c>
+      <c r="L51" s="0" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>PC_28</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C48" s="0" t="inlineStr">
-        <is>
-          <t>点击户口类型</t>
-        </is>
-      </c>
-      <c r="D48" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E48" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G48" s="0" t="inlineStr">
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>选择农村户口</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H48" s="0" t="inlineStr">
-        <is>
-          <t>account_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="0" t="inlineStr">
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>rural_registration</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>rural_registration</t>
+        </is>
+      </c>
+      <c r="L52" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>PC_29</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>选择农村户口</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="inlineStr">
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>点击是否寄宿</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
-        <is>
-          <t>rural_registration</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="0" t="inlineStr">
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>boarding_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>PC_30</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>点击是否寄宿</t>
-        </is>
-      </c>
-      <c r="D50" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E50" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G50" s="0" t="inlineStr">
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>选择是</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H50" s="0" t="inlineStr">
-        <is>
-          <t>boarding_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="0" t="inlineStr">
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>boarding_yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>PC_31</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>选择是</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E51" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G51" s="0" t="inlineStr">
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>点击身体健康状态</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
-        <is>
-          <t>boarding_yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="0" t="inlineStr">
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>healthy_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>PC_32</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>点击身体健康状态</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E52" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G52" s="0" t="inlineStr">
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>选择生理缺陷</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H52" s="0" t="inlineStr">
-        <is>
-          <t>healthy_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="0" t="inlineStr">
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>PC_33</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>选择生理缺陷</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E53" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G53" s="0" t="inlineStr">
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>输入有无药物过敏</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化有无药物过敏</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="0" t="inlineStr">
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>allergy_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>PC_34</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>输入有无药物过敏</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>点击户籍类型-省</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>province_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>PC_35</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>选择省</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>provice_name</t>
+        </is>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" s="0" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>PC_36</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>点击户籍类型-市</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>city_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>PC_37</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>选择市</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>PC_38</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>点击户籍类型-区</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>area_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>PC_39</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>选择区</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" s="0" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>PC_40</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>输入户籍详细地址</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
         <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化有无药物过敏</t>
-        </is>
-      </c>
-      <c r="G54" s="0" t="inlineStr">
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化户籍详细地址</t>
+        </is>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H54" s="0" t="inlineStr">
-        <is>
-          <t>allergy_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="0" t="inlineStr">
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>register_adress</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>PC_41</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t>点击户籍类型-省</t>
-        </is>
-      </c>
-      <c r="D55" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E55" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G55" s="0" t="inlineStr">
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>户主与学生关系选择父母</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H55" s="0" t="inlineStr">
-        <is>
-          <t>province_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="0" t="inlineStr">
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>PC_42</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C56" s="0" t="inlineStr">
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>点击家庭常住地-省</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>home_province_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>PC_43</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
         <is>
           <t>选择省</t>
         </is>
       </c>
-      <c r="D56" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G56" s="0" t="inlineStr">
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H56" s="0" t="inlineStr">
-        <is>
-          <t>provice_name</t>
-        </is>
-      </c>
-      <c r="M56" s="0" t="n">
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>home_provice_name</t>
+        </is>
+      </c>
+      <c r="M67" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="0" t="inlineStr">
+      <c r="N67" s="0" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>PC_44</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>点击户籍类型-市</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E57" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G57" s="0" t="inlineStr">
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>点击家庭常住地-市</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H57" s="0" t="inlineStr">
-        <is>
-          <t>city_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="0" t="inlineStr">
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>home_city_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>PC_45</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C58" s="0" t="inlineStr">
+      <c r="C69" s="0" t="inlineStr">
         <is>
           <t>选择市</t>
         </is>
       </c>
-      <c r="D58" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="0" t="inlineStr">
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>home_city</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>PC_46</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>点击户籍类型-区</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E59" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G59" s="0" t="inlineStr">
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>点击家庭常住地-区</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H59" s="0" t="inlineStr">
-        <is>
-          <t>area_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="0" t="inlineStr">
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>home_area_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>PC_47</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C60" s="0" t="inlineStr">
+      <c r="C71" s="0" t="inlineStr">
         <is>
           <t>选择区</t>
         </is>
       </c>
-      <c r="D60" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E60" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G60" s="0" t="inlineStr">
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H60" s="0" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="M60" s="0" t="n">
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>home_area</t>
+        </is>
+      </c>
+      <c r="M71" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="0" t="inlineStr">
+      <c r="N71" s="0" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>PC_48</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C61" s="0" t="inlineStr">
-        <is>
-          <t>输入户籍详细地址</t>
-        </is>
-      </c>
-      <c r="D61" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E61" s="0" t="inlineStr">
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>输入家庭常住地详细地址</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
         <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化户籍详细地址</t>
-        </is>
-      </c>
-      <c r="G61" s="0" t="inlineStr">
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化家庭常住地详细地址</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H61" s="0" t="inlineStr">
-        <is>
-          <t>register_adress</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="0" t="inlineStr">
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>home_adress</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>PC_49</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C62" s="0" t="inlineStr">
-        <is>
-          <t>户主与学生关系选择父母</t>
-        </is>
-      </c>
-      <c r="D62" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E62" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G62" s="0" t="inlineStr">
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>输入爱好与特长</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化爱好与特长</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H62" s="0" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="0" t="inlineStr">
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>hobby</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>PC_50</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C63" s="0" t="inlineStr">
-        <is>
-          <t>点击家庭常住地-省</t>
-        </is>
-      </c>
-      <c r="D63" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E63" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G63" s="0" t="inlineStr">
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>输入成长报告记录</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化成长报告记录</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H63" s="0" t="inlineStr">
-        <is>
-          <t>home_province_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="0" t="inlineStr">
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>grow_report</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>PC_51</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C64" s="0" t="inlineStr">
-        <is>
-          <t>选择省</t>
-        </is>
-      </c>
-      <c r="D64" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E64" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G64" s="0" t="inlineStr">
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>输入学校最关注什么</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化选择学校您最关注什么</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H64" s="0" t="inlineStr">
-        <is>
-          <t>home_provice_name</t>
-        </is>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="0" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>most_care</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>PC_52</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C65" s="0" t="inlineStr">
-        <is>
-          <t>点击家庭常住地-市</t>
-        </is>
-      </c>
-      <c r="D65" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E65" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G65" s="0" t="inlineStr">
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>输入对学校希望</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化对孩子入学后的期望</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H65" s="0" t="inlineStr">
-        <is>
-          <t>home_city_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="0" t="inlineStr">
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>PC_53</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C66" s="0" t="inlineStr">
-        <is>
-          <t>选择市</t>
-        </is>
-      </c>
-      <c r="D66" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E66" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G66" s="0" t="inlineStr">
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>点击下一步</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H66" s="0" t="inlineStr">
-        <is>
-          <t>home_city</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="0" t="inlineStr">
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>next_step</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="J77" s="0" t="inlineStr">
+        <is>
+          <t>fathers_name</t>
+        </is>
+      </c>
+      <c r="L77" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>PC_54</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C67" s="0" t="inlineStr">
-        <is>
-          <t>点击家庭常住地-区</t>
-        </is>
-      </c>
-      <c r="D67" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E67" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G67" s="0" t="inlineStr">
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲姓名</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化父亲姓名输入</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H67" s="0" t="inlineStr">
-        <is>
-          <t>home_area_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="0" t="inlineStr">
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>fathers_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>PC_55</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="n"/>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲身份证号</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>证件号码</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>father_idcard</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>PC_56</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C68" s="0" t="inlineStr">
-        <is>
-          <t>选择区</t>
-        </is>
-      </c>
-      <c r="D68" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E68" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G68" s="0" t="inlineStr">
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲手机号</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>手机号码</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H68" s="0" t="inlineStr">
-        <is>
-          <t>home_area</t>
-        </is>
-      </c>
-      <c r="M68" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="0" t="inlineStr">
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>fathers_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>PC_57</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C69" s="0" t="inlineStr">
-        <is>
-          <t>输入家庭常住地详细地址</t>
-        </is>
-      </c>
-      <c r="D69" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>点击父亲学位</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>father_degree_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>PC_58</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>选择父亲学位-硕士</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>father_degree</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="J82" s="0" t="inlineStr">
+        <is>
+          <t>father_degree</t>
+        </is>
+      </c>
+      <c r="L82" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>PC_59</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲工作单位</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
         <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化家庭常住地详细地址</t>
-        </is>
-      </c>
-      <c r="G69" s="0" t="inlineStr">
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化父亲工作单位输入</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>home_adress</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="0" t="inlineStr">
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>father_work_company</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>PC_60</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C70" s="0" t="inlineStr">
-        <is>
-          <t>输入爱好与特长</t>
-        </is>
-      </c>
-      <c r="D70" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E70" s="0" t="inlineStr">
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲职位</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
         <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化爱好与特长</t>
-        </is>
-      </c>
-      <c r="G70" s="0" t="inlineStr">
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化职位输入</t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H70" s="0" t="inlineStr">
-        <is>
-          <t>hobby</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="0" t="inlineStr">
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>father_position</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>PC_61</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C71" s="0" t="inlineStr">
-        <is>
-          <t>输入成长报告记录</t>
-        </is>
-      </c>
-      <c r="D71" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E71" s="0" t="inlineStr">
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲籍贯</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
         <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化成长报告记录</t>
-        </is>
-      </c>
-      <c r="G71" s="0" t="inlineStr">
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化籍贯输入</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H71" s="0" t="inlineStr">
-        <is>
-          <t>grow_report</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="0" t="inlineStr">
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>father_native_place</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>PC_62</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C72" s="0" t="inlineStr">
-        <is>
-          <t>输入学校最关注什么</t>
-        </is>
-      </c>
-      <c r="D72" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E72" s="0" t="inlineStr">
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲邮箱</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
         <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化选择学校您最关注什么</t>
-        </is>
-      </c>
-      <c r="G72" s="0" t="inlineStr">
+      <c r="F86" s="7" t="inlineStr">
+        <is>
+          <t>dad@qq.com</t>
+        </is>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H72" s="0" t="inlineStr">
-        <is>
-          <t>most_care</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="0" t="inlineStr">
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>father_email</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>PC_63</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C73" s="0" t="inlineStr">
-        <is>
-          <t>输入对学校希望</t>
-        </is>
-      </c>
-      <c r="D73" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E73" s="0" t="inlineStr">
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲姓名</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
         <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化对孩子入学后的期望</t>
-        </is>
-      </c>
-      <c r="G73" s="0" t="inlineStr">
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化父亲姓名输入</t>
+        </is>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H73" s="0" t="inlineStr">
-        <is>
-          <t>hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="0" t="inlineStr">
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>mother_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>PC_64</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="n"/>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲身份证号</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>证件号码</t>
+        </is>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>mother_idcard</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>PC_65</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C74" s="0" t="inlineStr">
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲手机号</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>手机号码</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>mother_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>PC_66</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>点击母亲学位</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>mother_degree_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>PC_67</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>选择母亲学位-硕士</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>mother_degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>PC_68</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲工作单位</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化母亲工作单位输入</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>mother_work_company</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>PC_69</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲职位</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化母亲职位输入</t>
+        </is>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>mother_position</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>PC_70</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲籍贯</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化母亲籍贯输入</t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>mother_native_place</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>PC_71</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲邮箱</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F95" s="7" t="inlineStr">
+        <is>
+          <t>mom@qq.com</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>mother_email</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>PC_72</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
         <is>
           <t>点击下一步</t>
         </is>
       </c>
-      <c r="D74" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E74" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G74" s="0" t="inlineStr">
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H74" s="0" t="inlineStr">
-        <is>
-          <t>next_step</t>
-        </is>
-      </c>
-      <c r="I74" s="0" t="inlineStr">
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>family_next_step</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="J74" s="0" t="inlineStr">
-        <is>
-          <t>fathers_name</t>
-        </is>
-      </c>
-      <c r="L74" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
-        <is>
-          <t>输入父亲姓名</t>
-        </is>
-      </c>
-      <c r="D75" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E75" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化父亲姓名输入</t>
-        </is>
-      </c>
-      <c r="G75" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H75" s="0" t="inlineStr">
-        <is>
-          <t>fathers_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
-        <is>
-          <t>输入父亲手机号</t>
-        </is>
-      </c>
-      <c r="D76" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E76" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F76" s="0" t="inlineStr">
-        <is>
-          <t>手机号码</t>
-        </is>
-      </c>
-      <c r="G76" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H76" s="0" t="inlineStr">
-        <is>
-          <t>fathers_phone</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
-        <is>
-          <t>点击父亲学位</t>
-        </is>
-      </c>
-      <c r="D77" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E77" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G77" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H77" s="0" t="inlineStr">
-        <is>
-          <t>father_degree_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C78" s="0" t="inlineStr">
-        <is>
-          <t>选择父亲学位-硕士</t>
-        </is>
-      </c>
-      <c r="D78" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E78" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G78" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H78" s="0" t="inlineStr">
-        <is>
-          <t>father_degree</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>输入父亲工作单位</t>
-        </is>
-      </c>
-      <c r="D79" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化父亲工作单位输入</t>
-        </is>
-      </c>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>father_work_company</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C80" s="0" t="inlineStr">
-        <is>
-          <t>输入父亲职位</t>
-        </is>
-      </c>
-      <c r="D80" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E80" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化职位输入</t>
-        </is>
-      </c>
-      <c r="G80" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H80" s="0" t="inlineStr">
-        <is>
-          <t>father_position</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C81" s="0" t="inlineStr">
-        <is>
-          <t>输入父亲籍贯</t>
-        </is>
-      </c>
-      <c r="D81" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E81" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化籍贯输入</t>
-        </is>
-      </c>
-      <c r="G81" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H81" s="0" t="inlineStr">
-        <is>
-          <t>father_native_place</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C82" s="0" t="inlineStr">
-        <is>
-          <t>输入父亲邮箱</t>
-        </is>
-      </c>
-      <c r="D82" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E82" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F82" s="7" t="inlineStr">
-        <is>
-          <t>dad@qq.com</t>
-        </is>
-      </c>
-      <c r="G82" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H82" s="0" t="inlineStr">
-        <is>
-          <t>father_email</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C83" s="0" t="inlineStr">
-        <is>
-          <t>输入母亲姓名</t>
-        </is>
-      </c>
-      <c r="D83" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E83" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化父亲姓名输入</t>
-        </is>
-      </c>
-      <c r="G83" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H83" s="0" t="inlineStr">
-        <is>
-          <t>mother_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C84" s="0" t="inlineStr">
-        <is>
-          <t>输入母亲手机号</t>
-        </is>
-      </c>
-      <c r="D84" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E84" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F84" s="0" t="inlineStr">
-        <is>
-          <t>手机号码</t>
-        </is>
-      </c>
-      <c r="G84" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H84" s="0" t="inlineStr">
-        <is>
-          <t>mother_phone</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C85" s="0" t="inlineStr">
-        <is>
-          <t>点击母亲学位</t>
-        </is>
-      </c>
-      <c r="D85" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E85" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G85" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H85" s="0" t="inlineStr">
-        <is>
-          <t>mother_degree_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C86" s="0" t="inlineStr">
-        <is>
-          <t>选择母亲学位-硕士</t>
-        </is>
-      </c>
-      <c r="D86" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E86" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G86" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H86" s="0" t="inlineStr">
-        <is>
-          <t>mother_degree</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C87" s="0" t="inlineStr">
-        <is>
-          <t>输入母亲工作单位</t>
-        </is>
-      </c>
-      <c r="D87" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E87" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F87" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化母亲工作单位输入</t>
-        </is>
-      </c>
-      <c r="G87" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H87" s="0" t="inlineStr">
-        <is>
-          <t>mother_work_company</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C88" s="0" t="inlineStr">
-        <is>
-          <t>输入母亲职位</t>
-        </is>
-      </c>
-      <c r="D88" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E88" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F88" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化母亲职位输入</t>
-        </is>
-      </c>
-      <c r="G88" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H88" s="0" t="inlineStr">
-        <is>
-          <t>mother_position</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C89" s="0" t="inlineStr">
-        <is>
-          <t>输入母亲籍贯</t>
-        </is>
-      </c>
-      <c r="D89" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E89" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化母亲籍贯输入</t>
-        </is>
-      </c>
-      <c r="G89" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H89" s="0" t="inlineStr">
-        <is>
-          <t>mother_native_place</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C90" s="0" t="inlineStr">
-        <is>
-          <t>输入母亲邮箱</t>
-        </is>
-      </c>
-      <c r="D90" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E90" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F90" s="7" t="inlineStr">
-        <is>
-          <t>mom@qq.com</t>
-        </is>
-      </c>
-      <c r="G90" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H90" s="0" t="inlineStr">
-        <is>
-          <t>mother_email</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C91" s="0" t="inlineStr">
-        <is>
-          <t>点击下一步</t>
-        </is>
-      </c>
-      <c r="D91" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E91" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G91" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H91" s="0" t="inlineStr">
-        <is>
-          <t>family_next_step</t>
-        </is>
-      </c>
-      <c r="I91" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="J91" s="0" t="inlineStr">
+      <c r="J96" s="0" t="inlineStr">
         <is>
           <t>clue_from</t>
-        </is>
-      </c>
-      <c r="L91" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C92" s="0" t="inlineStr">
-        <is>
-          <t>选择信息来源抖音</t>
-        </is>
-      </c>
-      <c r="D92" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E92" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G92" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H92" s="0" t="inlineStr">
-        <is>
-          <t>clue_from</t>
-        </is>
-      </c>
-      <c r="M92" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C93" s="0" t="inlineStr">
-        <is>
-          <t>输入推荐人</t>
-        </is>
-      </c>
-      <c r="D93" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E93" s="0" t="inlineStr">
-        <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F93" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化推荐人输入</t>
-        </is>
-      </c>
-      <c r="G93" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H93" s="0" t="inlineStr">
-        <is>
-          <t>recommender</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C94" s="0" t="inlineStr">
-        <is>
-          <t>点击招生老师</t>
-        </is>
-      </c>
-      <c r="D94" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E94" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G94" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H94" s="0" t="inlineStr">
-        <is>
-          <t>recruit_teacher_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C95" s="0" t="inlineStr">
-        <is>
-          <t>选择-李少辉</t>
-        </is>
-      </c>
-      <c r="D95" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E95" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G95" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H95" s="0" t="inlineStr">
-        <is>
-          <t>recruit_teacher</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>PC留单页</t>
-        </is>
-      </c>
-      <c r="C96" s="0" t="inlineStr">
-        <is>
-          <t>点击提交</t>
-        </is>
-      </c>
-      <c r="D96" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E96" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G96" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="H96" s="0" t="inlineStr">
-        <is>
-          <t>submit_button</t>
-        </is>
-      </c>
-      <c r="I96" s="0" t="inlineStr">
-        <is>
-          <t>pc_regist_page</t>
-        </is>
-      </c>
-      <c r="J96" s="0" t="inlineStr">
-        <is>
-          <t>success_label</t>
         </is>
       </c>
       <c r="L96" s="0" t="inlineStr">
@@ -5961,45 +6323,254 @@
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
+          <t>PC_73</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>选择信息来源抖音</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>clue_from</t>
+        </is>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N97" s="0" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>PC_74</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>输入推荐人</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化推荐人输入</t>
+        </is>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>recommender</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>PC_75</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>点击招生老师</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>recruit_teacher_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>PC_76</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>选择-李少辉</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>recruit_teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>PC_77</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>PC留单页</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>点击提交</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>submit_button</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>pc_regist_page</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
+        <is>
+          <t>success_label</t>
+        </is>
+      </c>
+      <c r="L101" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
           <t>phone_01</t>
         </is>
       </c>
-      <c r="B97" s="0" t="inlineStr">
+      <c r="B102" s="0" t="inlineStr">
         <is>
           <t>PC留单页</t>
         </is>
       </c>
-      <c r="C97" s="0" t="inlineStr">
+      <c r="C102" s="0" t="inlineStr">
         <is>
           <t>成功文案</t>
         </is>
       </c>
-      <c r="D97" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E97" s="0" t="inlineStr">
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
         <is>
           <t>element_text</t>
         </is>
       </c>
-      <c r="G97" s="0" t="inlineStr">
+      <c r="G102" s="0" t="inlineStr">
         <is>
           <t>pc_regist_page</t>
         </is>
       </c>
-      <c r="H97" s="0" t="inlineStr">
+      <c r="H102" s="0" t="inlineStr">
         <is>
           <t>success_label</t>
         </is>
       </c>
-      <c r="K97" s="8" t="inlineStr">
+      <c r="K102" s="8" t="inlineStr">
         <is>
           <t>提交成功</t>
         </is>
       </c>
-      <c r="L97" s="0" t="inlineStr">
+      <c r="L102" s="0" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
@@ -6008,8 +6579,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://schooltest.xiaogj.com/recruit.html?s=schooltest2" ref="F2" tooltip="https://schooltest.xiaogj.com/recruit.html?s=schooltest2" r:id="rId1"/>
-    <hyperlink display="dad@qq.com" ref="F82" r:id="rId2"/>
-    <hyperlink display="mom@qq.com" ref="F90" tooltip="mailto:mom@qq.com" r:id="rId3"/>
+    <hyperlink display="dad@qq.com" ref="F86" r:id="rId2"/>
+    <hyperlink display="mom@qq.com" ref="F95" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -6024,7 +6595,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6381,7 +6952,7 @@
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>add_student_button</t>
+          <t>class_tree</t>
         </is>
       </c>
       <c r="L7" s="0" t="inlineStr">
@@ -6390,7 +6961,7 @@
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -6406,7 +6977,7 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>点击新增学生button</t>
+          <t>点击班级</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -6426,17 +6997,20 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>add_student_button</t>
-        </is>
-      </c>
+          <t>class_tree</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="L8" s="0" t="n"/>
       <c r="M8" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>student_03</t>
+          <t>student_02</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -6446,7 +7020,7 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>输入姓名</t>
+          <t>点击新增学生button</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -6456,12 +7030,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>姓名</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
@@ -6471,17 +7040,17 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>add_student_button</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>student_04</t>
+          <t>student_03</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -6491,7 +7060,7 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>输入手机号码</t>
+          <t>输入姓名</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -6506,7 +7075,7 @@
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>手机号码</t>
+          <t>姓名</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
@@ -6520,13 +7089,13 @@
         </is>
       </c>
       <c r="M10" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>student_05</t>
+          <t>student_04</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -6536,7 +7105,7 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>点击就读学段</t>
+          <t>输入手机号码</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -6546,7 +7115,12 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>手机号码</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
@@ -6560,13 +7134,13 @@
         </is>
       </c>
       <c r="M11" s="0" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>student_06</t>
+          <t>student_05</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -6576,12 +7150,12 @@
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>点击小学</t>
+          <t>点击就读学段</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -6596,14 +7170,17 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>period</t>
-        </is>
+          <t>input_box</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>student_07</t>
+          <t>student_06</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -6613,12 +7190,12 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>点击年级</t>
+          <t>点击小学</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -6633,17 +7210,15 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
-        </is>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>36</v>
-      </c>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>student_08</t>
+          <t>student_07</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -6658,7 +7233,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -6673,14 +7248,17 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>grades</t>
-        </is>
+          <t>input_box</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>student_09</t>
+          <t>student_08</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
@@ -6690,12 +7268,12 @@
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>点击确定</t>
+          <t>点击年级</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
@@ -6710,32 +7288,14 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>add_student_button</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>student_page</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>add_student_button</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>5</v>
+          <t>grades</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>student_02</t>
+          <t>student_09</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -6745,7 +7305,7 @@
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>点击学生分班</t>
+          <t>点击确定</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -6765,7 +7325,7 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>all_student_menu</t>
+          <t>add_student_button</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
@@ -6784,7 +7344,7 @@
         </is>
       </c>
       <c r="M16" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -6820,7 +7380,7 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>student_name</t>
+          <t>student_name2</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
@@ -6851,7 +7411,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="I82" sqref="I82:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7424,8 +7984,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I82" sqref="I82:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7913,8 +8473,13 @@
           <t>sign_up_input</t>
         </is>
       </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M10" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -7959,7 +8524,7 @@
         </is>
       </c>
       <c r="M11" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -8086,7 +8651,7 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -8131,7 +8696,7 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -8263,7 +8828,7 @@
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M18" s="0" t="n">
@@ -8337,7 +8902,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I82" sqref="I82:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9159,7 +9724,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A1" sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9282,11 +9847,7 @@
           <t>Loginpage</t>
         </is>
       </c>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="K2" s="0" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9329,6 +9890,12 @@
           <t>username</t>
         </is>
       </c>
+      <c r="K3" s="0" t="n"/>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
       </c>
@@ -9374,6 +9941,7 @@
           <t>password</t>
         </is>
       </c>
+      <c r="K4" s="0" t="n"/>
       <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
@@ -9429,6 +9997,7 @@
           <t>Head_portrait</t>
         </is>
       </c>
+      <c r="K5" s="0" t="n"/>
       <c r="L5" s="0" t="inlineStr">
         <is>
           <t>Success</t>
@@ -9472,6 +10041,7 @@
           <t>recruit_students</t>
         </is>
       </c>
+      <c r="K6" s="0" t="n"/>
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
@@ -9523,6 +10093,7 @@
           <t>clue_button</t>
         </is>
       </c>
+      <c r="K7" s="0" t="n"/>
       <c r="L7" s="0" t="inlineStr">
         <is>
           <t>Success</t>
@@ -9570,6 +10141,7 @@
         </is>
       </c>
       <c r="I8" s="2" t="n"/>
+      <c r="K8" s="0" t="n"/>
       <c r="M8" s="0" t="n">
         <v>2</v>
       </c>
@@ -9611,6 +10183,7 @@
           <t>close_button</t>
         </is>
       </c>
+      <c r="K9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -9653,8 +10226,14 @@
           <t>sign_up_input</t>
         </is>
       </c>
+      <c r="K10" s="0" t="n"/>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="M10" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -9698,8 +10277,9 @@
           <t>sign_up_input</t>
         </is>
       </c>
+      <c r="K11" s="0" t="n"/>
       <c r="M11" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -9739,6 +10319,7 @@
           <t>sign_up_input</t>
         </is>
       </c>
+      <c r="K12" s="0" t="n"/>
       <c r="M12" s="0" t="n">
         <v>34</v>
       </c>
@@ -9780,6 +10361,7 @@
           <t>grade_chose1</t>
         </is>
       </c>
+      <c r="K13" s="0" t="n"/>
       <c r="M13" s="0" t="n">
         <v>36</v>
       </c>
@@ -9825,8 +10407,9 @@
           <t>sign_up_input</t>
         </is>
       </c>
+      <c r="K14" s="0" t="n"/>
       <c r="M14" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -9870,8 +10453,9 @@
           <t>sign_up_input</t>
         </is>
       </c>
+      <c r="K15" s="0" t="n"/>
       <c r="M15" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -9916,7 +10500,7 @@
         </is>
       </c>
       <c r="M16" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -9962,7 +10546,7 @@
         </is>
       </c>
       <c r="M17" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -10277,7 +10861,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="A6" sqref="A6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10395,6 +10979,10 @@
           <t>Loginpage</t>
         </is>
       </c>
+      <c r="H2" s="0" t="n"/>
+      <c r="I2" s="0" t="n"/>
+      <c r="J2" s="0" t="n"/>
+      <c r="K2" s="0" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -10437,6 +11025,9 @@
           <t>username</t>
         </is>
       </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="0" t="n"/>
+      <c r="K3" s="0" t="n"/>
       <c r="M3" s="0" t="n">
         <v>0</v>
       </c>
@@ -10482,6 +11073,9 @@
           <t>password</t>
         </is>
       </c>
+      <c r="I4" s="0" t="n"/>
+      <c r="J4" s="0" t="n"/>
+      <c r="K4" s="0" t="n"/>
       <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
@@ -10537,6 +11131,7 @@
           <t>Head_portrait</t>
         </is>
       </c>
+      <c r="K5" s="0" t="n"/>
       <c r="L5" s="0" t="inlineStr">
         <is>
           <t>Success</t>
@@ -10551,7 +11146,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>审核线索</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -10580,6 +11175,9 @@
           <t>recruit_students</t>
         </is>
       </c>
+      <c r="I6" s="0" t="n"/>
+      <c r="J6" s="0" t="n"/>
+      <c r="K6" s="0" t="n"/>
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
@@ -10592,12 +11190,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>审核线索</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>点击全部线索</t>
+          <t>点击线索</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -10628,12 +11226,13 @@
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>check_button</t>
-        </is>
-      </c>
+          <t>chose_box</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="n"/>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -10666,6 +11265,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F8" s="0" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10686,9 +11286,10 @@
           <t>pass_select</t>
         </is>
       </c>
+      <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -10721,6 +11322,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F9" s="0" t="n"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10731,6 +11333,9 @@
           <t>pass_select</t>
         </is>
       </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="K9" s="0" t="n"/>
       <c r="M9" s="0" t="n">
         <v>0</v>
       </c>
@@ -10761,6 +11366,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F10" s="0" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10771,6 +11377,9 @@
           <t>pass_select</t>
         </is>
       </c>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
       <c r="M10" s="0" t="n">
         <v>2</v>
       </c>
@@ -10801,6 +11410,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F11" s="0" t="n"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10811,8 +11421,11 @@
           <t>ensure_button</t>
         </is>
       </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="K11" s="0" t="n"/>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -10841,6 +11454,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F12" s="0" t="n"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10861,6 +11475,7 @@
           <t>pass_select</t>
         </is>
       </c>
+      <c r="K12" s="0" t="n"/>
       <c r="L12" s="0" t="inlineStr">
         <is>
           <t>Success</t>
@@ -10896,6 +11511,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F13" s="0" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10906,6 +11522,9 @@
           <t>pass_select</t>
         </is>
       </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="0" t="n"/>
+      <c r="K13" s="0" t="n"/>
       <c r="M13" s="0" t="n">
         <v>0</v>
       </c>
@@ -10936,6 +11555,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F14" s="0" t="n"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10946,6 +11566,9 @@
           <t>pass_select</t>
         </is>
       </c>
+      <c r="I14" s="0" t="n"/>
+      <c r="J14" s="0" t="n"/>
+      <c r="K14" s="0" t="n"/>
       <c r="M14" s="0" t="n">
         <v>3</v>
       </c>
@@ -10976,6 +11599,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F15" s="0" t="n"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -10986,8 +11610,11 @@
           <t>ensure_button</t>
         </is>
       </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="0" t="n"/>
+      <c r="K15" s="0" t="n"/>
       <c r="M15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -11016,6 +11643,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F16" s="0" t="n"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -11026,6 +11654,9 @@
           <t>check_button</t>
         </is>
       </c>
+      <c r="I16" s="0" t="n"/>
+      <c r="J16" s="0" t="n"/>
+      <c r="K16" s="0" t="n"/>
       <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
@@ -11056,6 +11687,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F17" s="0" t="n"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -11066,6 +11698,9 @@
           <t>pass_select</t>
         </is>
       </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="0" t="n"/>
+      <c r="K17" s="0" t="n"/>
       <c r="M17" s="0" t="n">
         <v>0</v>
       </c>
@@ -11096,6 +11731,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F18" s="0" t="n"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -11106,8 +11742,11 @@
           <t>ensure_button</t>
         </is>
       </c>
+      <c r="I18" s="0" t="n"/>
+      <c r="J18" s="0" t="n"/>
+      <c r="K18" s="0" t="n"/>
       <c r="M18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -11118,7 +11757,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>审核线索</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -11147,6 +11786,8 @@
           <t>check_button</t>
         </is>
       </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="0" t="n"/>
       <c r="K19" s="4" t="inlineStr">
         <is>
           <t>待注册</t>
@@ -11181,8 +11822,8 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11455,7 +12096,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>审核线索</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -11484,6 +12125,8 @@
           <t>recruit_students</t>
         </is>
       </c>
+      <c r="I6" s="0" t="n"/>
+      <c r="J6" s="0" t="n"/>
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
@@ -11496,12 +12139,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>审核线索</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>点击线索管理</t>
+          <t>点击线索</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -11532,12 +12175,12 @@
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>check_button</t>
+          <t>chose_box</t>
         </is>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
@@ -11659,17 +12302,21 @@
           <t>ensure_button</t>
         </is>
       </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="M10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Clue_03</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>录取学生</t>
+        </is>
+      </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
           <t>点击确认</t>
@@ -11696,7 +12343,7 @@
         </is>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -11707,7 +12354,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>录取学生</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -11743,7 +12390,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -11769,8 +12416,8 @@
   </sheetPr>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12109,6 +12756,21 @@
           <t>recruit_students</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>all_clues</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
       <c r="M6" s="0" t="n">
         <v>1</v>
       </c>
@@ -12162,11 +12824,11 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -13319,7 +13981,7 @@
       </c>
       <c r="L31" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M31" s="0" t="n">
@@ -13343,10 +14005,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13499,11 +14161,13 @@
           <t>Loginpage</t>
         </is>
       </c>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Loginpage</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="n"/>
+      <c r="L2" s="0" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -13546,6 +14210,8 @@
           <t>username</t>
         </is>
       </c>
+      <c r="K3" s="0" t="n"/>
+      <c r="L3" s="0" t="n"/>
       <c r="M3" s="0" t="n">
         <v>0</v>
       </c>
@@ -13591,6 +14257,8 @@
           <t>password</t>
         </is>
       </c>
+      <c r="K4" s="0" t="n"/>
+      <c r="L4" s="0" t="n"/>
       <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
@@ -13646,6 +14314,7 @@
           <t>Head_portrait</t>
         </is>
       </c>
+      <c r="K5" s="0" t="n"/>
       <c r="L5" s="0" t="inlineStr">
         <is>
           <t>Success</t>
@@ -13689,6 +14358,8 @@
           <t>recruit_students</t>
         </is>
       </c>
+      <c r="K6" s="0" t="n"/>
+      <c r="L6" s="0" t="n"/>
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
@@ -13740,6 +14411,7 @@
           <t>clue_button</t>
         </is>
       </c>
+      <c r="K7" s="0" t="n"/>
       <c r="L7" s="0" t="inlineStr">
         <is>
           <t>Success</t>
@@ -13752,7 +14424,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>delete_clue_01</t>
+          <t>Clue_01</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -13762,7 +14434,7 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>选择流程状态</t>
+          <t>获取线索姓名</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -13772,9 +14444,10 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
-        </is>
-      </c>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -13782,16 +14455,19 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>process_type</t>
-        </is>
-      </c>
+          <t>clue_name1</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>章队舭</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -13807,7 +14483,7 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>选择未通过</t>
+          <t>选择线索</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -13827,16 +14503,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>select_types</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>clue_checkbox</t>
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -13852,7 +14523,7 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>点击页面标签</t>
+          <t>点击删除button</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -13872,9 +14543,13 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>page_name</t>
-        </is>
-      </c>
+          <t>delete_button3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
+      <c r="L10" s="0" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -13889,7 +14564,7 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>点击查询</t>
+          <t>点击确认button</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -13912,29 +14587,17 @@
           <t>clue_button</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>clue_checkbox</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="L11" s="0" t="n"/>
       <c r="M11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>delete_clue_01</t>
+          <t>Clue_01</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -13944,7 +14607,7 @@
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>获取学生姓名</t>
+          <t>获取线索姓名</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
@@ -13957,6 +14620,7 @@
           <t>element_text</t>
         </is>
       </c>
+      <c r="F12" s="4" t="n"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
@@ -13964,649 +14628,24 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>student_name</t>
+          <t>clue_name1</t>
         </is>
       </c>
       <c r="I12" s="2" t="n"/>
+      <c r="J12" s="0" t="n"/>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>姓名是否相等</t>
+        </is>
+      </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>茅礴痦</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>获取学生手机号码</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>element_text</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>student_phone</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="n"/>
-      <c r="L13" s="0" t="inlineStr"/>
-      <c r="M13" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>选择线索</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>clue_checkbox</t>
-        </is>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>点击加入回收池</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>join_recovery</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>点击确认</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>clue_button</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>clue_button</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>回收池toast文案</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>element_text</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>recovery_toast</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>成功加入回收池</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>点击回收池</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>all_clues</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="J18" s="0" t="inlineStr">
-        <is>
-          <t>clue_button</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>输入学生手机号码搜索</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>father_son_input</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="n"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>recovery_page</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="0" t="n"/>
-      <c r="K19" s="0" t="n"/>
-      <c r="L19" s="0" t="n"/>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="O19" s="0" t="inlineStr">
-        <is>
-          <t>process_type</t>
-        </is>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>点击查询</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>father_son_click</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="n"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>recovery_page</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t>recovery_button</t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="O20" s="0" t="inlineStr">
-        <is>
-          <t>agree_button</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>获取回收池学生姓名</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>father_son_text</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>recovery_page</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>茅礴痦</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="O21" s="0" t="inlineStr">
-        <is>
-          <t>student_name</t>
-        </is>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>excel计算 加入回收池线索是否在回收池显示</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>点击操作button</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>action_button2</t>
-        </is>
-      </c>
-      <c r="K23" s="0" t="n"/>
-      <c r="L23" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>点击删除button</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>delete_button2</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t>clue_button</t>
-        </is>
-      </c>
-      <c r="K24" s="0" t="n"/>
-      <c r="L24" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>delete_clue_01</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>删除线索</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>点击确认button</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>clue_button</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>enrollment_management</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t>recovery_button</t>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="L26" s="0" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14627,8 +14666,8 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14774,11 +14813,6 @@
           <t>Loginpage</t>
         </is>
       </c>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -15004,23 +15038,10 @@
           <t>all_clues</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>staff_manage</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>staff_button</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
       <c r="M7" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -15066,7 +15087,7 @@
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>more_button</t>
+          <t>staff_button</t>
         </is>
       </c>
       <c r="L8" s="0" t="inlineStr">
@@ -15289,8 +15310,8 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15678,7 +15699,7 @@
         </is>
       </c>
       <c r="M7" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -16110,11 +16131,6 @@
       <c r="K17" s="0" t="inlineStr">
         <is>
           <t>收费成功！</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
         </is>
       </c>
     </row>
@@ -16135,10 +16151,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16350,13 +16366,23 @@
           <t>input_box</t>
         </is>
       </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>input_box</t>
+        </is>
+      </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -16401,7 +16427,7 @@
         </is>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -16441,7 +16467,7 @@
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -16531,7 +16557,7 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>点击日期</t>
+          <t>点击出生日期</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -16556,7 +16582,7 @@
         </is>
       </c>
       <c r="M9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -16676,7 +16702,7 @@
         </is>
       </c>
       <c r="M12" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -16761,7 +16787,7 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -16801,7 +16827,7 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -16881,7 +16907,7 @@
         </is>
       </c>
       <c r="M17" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -16966,7 +16992,7 @@
         </is>
       </c>
       <c r="M19" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -17006,7 +17032,7 @@
         </is>
       </c>
       <c r="M20" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -17086,7 +17112,7 @@
         </is>
       </c>
       <c r="M22" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -17126,7 +17152,7 @@
         </is>
       </c>
       <c r="M23" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -17182,7 +17208,7 @@
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>点击下拉框类型</t>
+          <t>点击自定义字段</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -17206,7 +17232,7 @@
         </is>
       </c>
       <c r="M25" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -17286,7 +17312,7 @@
         </is>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -17326,7 +17352,7 @@
         </is>
       </c>
       <c r="M28" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="14" r="29" s="1">
@@ -17365,13 +17391,8 @@
           <t>input_box</t>
         </is>
       </c>
-      <c r="L29" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="M29" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -17451,7 +17472,7 @@
         </is>
       </c>
       <c r="M31" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -17536,7 +17557,7 @@
         </is>
       </c>
       <c r="M33" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -17552,7 +17573,7 @@
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>输入现就读学校</t>
+          <t>输入毕业学校</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -17581,7 +17602,7 @@
         </is>
       </c>
       <c r="M34" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="14" r="35" s="1">
@@ -17621,7 +17642,7 @@
         </is>
       </c>
       <c r="M35" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -17701,7 +17722,7 @@
         </is>
       </c>
       <c r="M37" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -17781,7 +17802,7 @@
         </is>
       </c>
       <c r="M39" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -17861,7 +17882,7 @@
         </is>
       </c>
       <c r="M41" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -17941,7 +17962,7 @@
         </is>
       </c>
       <c r="M43" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="44" s="1">
@@ -18021,7 +18042,7 @@
         </is>
       </c>
       <c r="M45" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="46" s="1">
@@ -18101,7 +18122,7 @@
         </is>
       </c>
       <c r="M47" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="48" s="1">
@@ -18140,11 +18161,6 @@
           <t>box_ensure</t>
         </is>
       </c>
-      <c r="L48" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="M48" s="0" t="n">
         <v>3</v>
       </c>
@@ -18162,7 +18178,7 @@
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>输入现就读学校</t>
+          <t>输入推荐人</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
@@ -18191,7 +18207,7 @@
         </is>
       </c>
       <c r="M49" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -18207,7 +18223,7 @@
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>选择意向级别</t>
+          <t>选择线索来源</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
@@ -18227,11 +18243,11 @@
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>minds_level</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="M50" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -18247,7 +18263,7 @@
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>选择线索来源</t>
+          <t>上滑页面</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
@@ -18257,7 +18273,7 @@
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>scroll_page</t>
         </is>
       </c>
       <c r="G51" s="0" t="inlineStr">
@@ -18287,7 +18303,7 @@
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>上滑页面</t>
+          <t>点击下一步</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
@@ -18297,7 +18313,7 @@
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>scroll_page</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G52" s="0" t="inlineStr">
@@ -18307,11 +18323,11 @@
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>next_step</t>
         </is>
       </c>
       <c r="M52" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -18327,7 +18343,7 @@
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>点击下一步</t>
+          <t>上滑页面</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
@@ -18337,7 +18353,7 @@
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>scroll_page</t>
         </is>
       </c>
       <c r="G53" s="0" t="inlineStr">
@@ -18347,11 +18363,11 @@
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>next_step</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M53" s="0" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -18367,7 +18383,7 @@
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>输入现就读学校</t>
+          <t>输入父亲姓名</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
@@ -18377,7 +18393,12 @@
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>scroll_page</t>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化父亲姓名输入</t>
         </is>
       </c>
       <c r="G54" s="0" t="inlineStr">
@@ -18391,7 +18412,7 @@
         </is>
       </c>
       <c r="M54" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -18407,7 +18428,7 @@
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>输入父亲姓名</t>
+          <t>输入父亲手机号码</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
@@ -18422,7 +18443,7 @@
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化父亲姓名输入</t>
+          <t>手机号码</t>
         </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
@@ -18436,7 +18457,7 @@
         </is>
       </c>
       <c r="M55" s="0" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -18452,7 +18473,7 @@
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>输入父亲手机号码</t>
+          <t>选择学历</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
@@ -18462,106 +18483,106 @@
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>input_box</t>
+        </is>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="1">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>点击确认</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>box_ensure</t>
+        </is>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>输入父亲工作单位</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>手机号码</t>
-        </is>
-      </c>
-      <c r="G56" s="0" t="inlineStr">
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化父亲工作单位输入</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
         </is>
       </c>
-      <c r="H56" s="0" t="inlineStr">
+      <c r="H58" s="0" t="inlineStr">
         <is>
           <t>input_box</t>
         </is>
       </c>
-      <c r="M56" s="0" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>选择学历</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E57" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G57" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H57" s="0" t="inlineStr">
-        <is>
-          <t>input_box</t>
-        </is>
-      </c>
-      <c r="M57" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="58" s="1">
-      <c r="A58" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>点击确认</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>box_ensure</t>
-        </is>
-      </c>
       <c r="M58" s="0" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -18577,7 +18598,7 @@
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>输入父亲工作单位</t>
+          <t>输入父亲职位</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
@@ -18592,7 +18613,7 @@
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化父亲工作单位输入</t>
+          <t>全日智自动化职位输入</t>
         </is>
       </c>
       <c r="G59" s="0" t="inlineStr">
@@ -18606,7 +18627,7 @@
         </is>
       </c>
       <c r="M59" s="0" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -18622,7 +18643,7 @@
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>输入父亲职位</t>
+          <t>输入父亲籍贯</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
@@ -18637,7 +18658,7 @@
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化职位输入</t>
+          <t>全日智自动化籍贯输入</t>
         </is>
       </c>
       <c r="G60" s="0" t="inlineStr">
@@ -18651,7 +18672,7 @@
         </is>
       </c>
       <c r="M60" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -18667,7 +18688,7 @@
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>输入父亲籍贯</t>
+          <t>输入父亲电子邮箱</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
@@ -18680,9 +18701,9 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化籍贯输入</t>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>dad@qq.com</t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
@@ -18696,7 +18717,7 @@
         </is>
       </c>
       <c r="M61" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -18712,7 +18733,7 @@
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>输入父亲电子邮箱</t>
+          <t>输入母亲姓名</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
@@ -18725,9 +18746,9 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F62" s="7" t="inlineStr">
-        <is>
-          <t>dad@qq.com</t>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化母亲姓名输入</t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
@@ -18741,7 +18762,7 @@
         </is>
       </c>
       <c r="M62" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
@@ -18757,7 +18778,7 @@
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>输入母亲姓名</t>
+          <t>输入母亲手机号码</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
@@ -18772,7 +18793,7 @@
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化母亲姓名输入</t>
+          <t>手机号码</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
@@ -18786,7 +18807,7 @@
         </is>
       </c>
       <c r="M63" s="0" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
@@ -18802,7 +18823,7 @@
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>输入母亲手机号码</t>
+          <t>选择学历</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
@@ -18812,107 +18833,107 @@
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="n"/>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>input_box</t>
+        </is>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="65" s="1">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>点击确认</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>box_ensure</t>
+        </is>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>输入母亲工作单位</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
           <t>input_action</t>
         </is>
       </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>手机号码</t>
-        </is>
-      </c>
-      <c r="G64" s="0" t="inlineStr">
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化母亲工作单位输入</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
         </is>
       </c>
-      <c r="H64" s="0" t="inlineStr">
+      <c r="H66" s="0" t="inlineStr">
         <is>
           <t>input_box</t>
         </is>
       </c>
-      <c r="M64" s="0" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C65" s="0" t="inlineStr">
-        <is>
-          <t>选择学历</t>
-        </is>
-      </c>
-      <c r="D65" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E65" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="F65" s="0" t="n"/>
-      <c r="G65" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H65" s="0" t="inlineStr">
-        <is>
-          <t>input_box</t>
-        </is>
-      </c>
-      <c r="M65" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="66" s="1">
-      <c r="A66" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C66" s="0" t="inlineStr">
-        <is>
-          <t>点击确认</t>
-        </is>
-      </c>
-      <c r="D66" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E66" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G66" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H66" s="0" t="inlineStr">
-        <is>
-          <t>box_ensure</t>
-        </is>
-      </c>
       <c r="M66" s="0" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
@@ -18928,7 +18949,7 @@
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>输入母亲工作单位</t>
+          <t>输入母亲职位</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
@@ -18943,7 +18964,7 @@
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化母亲工作单位输入</t>
+          <t>全日智自动化母亲职位输入</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
@@ -18957,7 +18978,7 @@
         </is>
       </c>
       <c r="M67" s="0" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
@@ -18973,7 +18994,7 @@
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>输入母亲职位</t>
+          <t>输入母亲籍贯</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
@@ -18988,7 +19009,7 @@
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化母亲职位输入</t>
+          <t>全日智自动化母亲籍贯输入</t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
@@ -19002,7 +19023,7 @@
         </is>
       </c>
       <c r="M68" s="0" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
@@ -19018,7 +19039,7 @@
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>输入母亲籍贯</t>
+          <t>输入母亲电子邮箱</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
@@ -19031,9 +19052,9 @@
           <t>input_action</t>
         </is>
       </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化母亲籍贯输入</t>
+      <c r="F69" s="7" t="inlineStr">
+        <is>
+          <t>mom@qq.com</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
@@ -19047,7 +19068,7 @@
         </is>
       </c>
       <c r="M69" s="0" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
@@ -19063,7 +19084,7 @@
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>输入母亲电子邮箱</t>
+          <t>点击删除button</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
@@ -19073,12 +19094,7 @@
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F70" s="7" t="inlineStr">
-        <is>
-          <t>mom@qq.com</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G70" s="0" t="inlineStr">
@@ -19088,11 +19104,8 @@
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
-        </is>
-      </c>
-      <c r="M70" s="0" t="n">
-        <v>44</v>
+          <t>delete_button</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -19108,7 +19121,7 @@
       </c>
       <c r="C71" s="0" t="inlineStr">
         <is>
-          <t>点击删除button</t>
+          <t>点击下一步</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
@@ -19128,8 +19141,26 @@
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
-          <t>delete_button</t>
-        </is>
+          <t>next_step</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="L71" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -19145,7 +19176,7 @@
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>点击下一步</t>
+          <t>上滑页面</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
@@ -19155,7 +19186,7 @@
       </c>
       <c r="E72" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>scroll_page</t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
@@ -19165,24 +19196,11 @@
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
-          <t>next_step</t>
-        </is>
-      </c>
-      <c r="I72" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="J72" s="0" t="inlineStr">
-        <is>
           <t>sex</t>
         </is>
       </c>
-      <c r="L72" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
+      <c r="I72" s="0" t="n"/>
+      <c r="J72" s="0" t="n"/>
       <c r="M72" s="0" t="n">
         <v>4</v>
       </c>
@@ -19200,7 +19218,7 @@
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>上滑页面</t>
+          <t>选择是寄宿</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
@@ -19210,7 +19228,7 @@
       </c>
       <c r="E73" s="0" t="inlineStr">
         <is>
-          <t>scroll_page</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
@@ -19223,10 +19241,8 @@
           <t>sex</t>
         </is>
       </c>
-      <c r="I73" s="0" t="n"/>
-      <c r="J73" s="0" t="n"/>
       <c r="M73" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -19242,7 +19258,7 @@
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>选择是寄宿</t>
+          <t>点击身体健康状态</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
@@ -19255,6 +19271,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F74" s="0" t="n"/>
       <c r="G74" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19262,14 +19279,14 @@
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M74" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>46</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="75" s="1">
       <c r="A75" s="0" t="inlineStr">
         <is>
           <t>phone_01</t>
@@ -19282,7 +19299,7 @@
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
-          <t>点击身体健康状态</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
@@ -19295,7 +19312,6 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F75" s="0" t="n"/>
       <c r="G75" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19303,51 +19319,56 @@
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
+          <t>box_ensure</t>
+        </is>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>输入有无药物过敏</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化有无药物过敏</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
           <t>input_box</t>
         </is>
       </c>
-      <c r="M75" s="0" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="76" s="1">
-      <c r="A76" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
-        <is>
-          <t>点击确认</t>
-        </is>
-      </c>
-      <c r="D76" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E76" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G76" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H76" s="0" t="inlineStr">
-        <is>
-          <t>box_ensure</t>
-        </is>
-      </c>
       <c r="M76" s="0" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
@@ -19363,7 +19384,7 @@
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>输入有无药物过敏</t>
+          <t>点击户口类型</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
@@ -19373,14 +19394,10 @@
       </c>
       <c r="E77" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化有无药物过敏</t>
-        </is>
-      </c>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="n"/>
       <c r="G77" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19392,10 +19409,10 @@
         </is>
       </c>
       <c r="M77" s="0" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="78" s="1">
       <c r="A78" s="0" t="inlineStr">
         <is>
           <t>phone_01</t>
@@ -19408,7 +19425,7 @@
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>点击户口类型</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
@@ -19421,7 +19438,6 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F78" s="0" t="n"/>
       <c r="G78" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19429,51 +19445,52 @@
       </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
+          <t>box_ensure</t>
+        </is>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>phone_01</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>移动端留单页</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>点击户籍地址</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="n"/>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
           <t>input_box</t>
         </is>
       </c>
-      <c r="M78" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="79" s="1">
-      <c r="A79" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>点击确认</t>
-        </is>
-      </c>
-      <c r="D79" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
-        <is>
-          <t>click_action</t>
-        </is>
-      </c>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>box_ensure</t>
-        </is>
-      </c>
       <c r="M79" s="0" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80">
@@ -19489,7 +19506,7 @@
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>点击户籍地址</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
@@ -19502,7 +19519,6 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F80" s="0" t="n"/>
       <c r="G80" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19510,11 +19526,11 @@
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>box_ensure</t>
         </is>
       </c>
       <c r="M80" s="0" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -19530,7 +19546,7 @@
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>点击确认</t>
+          <t>点击输入详细地址</t>
         </is>
       </c>
       <c r="D81" s="0" t="inlineStr">
@@ -19540,7 +19556,12 @@
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化户籍详细地址</t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
@@ -19550,11 +19571,11 @@
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>box_ensure</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M81" s="0" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82">
@@ -19570,7 +19591,7 @@
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
-          <t>点击输入详细地址</t>
+          <t>点击户主与学生关系</t>
         </is>
       </c>
       <c r="D82" s="0" t="inlineStr">
@@ -19580,14 +19601,10 @@
       </c>
       <c r="E82" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F82" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化户籍详细地址</t>
-        </is>
-      </c>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="n"/>
       <c r="G82" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19599,7 +19616,7 @@
         </is>
       </c>
       <c r="M82" s="0" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83">
@@ -19615,7 +19632,7 @@
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>点击户主与学生关系</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D83" s="0" t="inlineStr">
@@ -19628,7 +19645,6 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F83" s="0" t="n"/>
       <c r="G83" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19636,11 +19652,11 @@
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>box_ensure</t>
         </is>
       </c>
       <c r="M83" s="0" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -19656,7 +19672,7 @@
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>点击确认</t>
+          <t>点击家庭常住地</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
@@ -19669,6 +19685,7 @@
           <t>click_action</t>
         </is>
       </c>
+      <c r="F84" s="0" t="n"/>
       <c r="G84" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19676,11 +19693,11 @@
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
-          <t>box_ensure</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M84" s="0" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85">
@@ -19696,7 +19713,7 @@
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>点击家庭常住地</t>
+          <t>点击确认</t>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
@@ -19709,7 +19726,6 @@
           <t>click_action</t>
         </is>
       </c>
-      <c r="F85" s="0" t="n"/>
       <c r="G85" s="0" t="inlineStr">
         <is>
           <t>phone_page</t>
@@ -19717,11 +19733,11 @@
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>box_ensure</t>
         </is>
       </c>
       <c r="M85" s="0" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -19737,7 +19753,7 @@
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>点击确认</t>
+          <t>点击输入详细地址</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
@@ -19747,7 +19763,12 @@
       </c>
       <c r="E86" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>input_action</t>
+        </is>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>全日智自动化家庭常住地详细地址</t>
         </is>
       </c>
       <c r="G86" s="0" t="inlineStr">
@@ -19757,11 +19778,11 @@
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>box_ensure</t>
+          <t>input_box</t>
         </is>
       </c>
       <c r="M86" s="0" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -19777,7 +19798,7 @@
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>点击输入详细地址</t>
+          <t>点击输入爱好与特长</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
@@ -19792,7 +19813,7 @@
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化家庭常住地详细地址</t>
+          <t>全日智自动化爱好与特长</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
@@ -19806,13 +19827,13 @@
         </is>
       </c>
       <c r="M87" s="0" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>phone_01</t>
+          <t>phone_02</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
@@ -19822,7 +19843,7 @@
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>点击输入爱好与特长</t>
+          <t>点击输入成长报告记录</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
@@ -19837,7 +19858,7 @@
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化爱好与特长</t>
+          <t>全日智自动化成长报告记录</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
@@ -19851,13 +19872,13 @@
         </is>
       </c>
       <c r="M88" s="0" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>phone_02</t>
+          <t>phone_03</t>
         </is>
       </c>
       <c r="B89" s="0" t="inlineStr">
@@ -19867,7 +19888,7 @@
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>点击输入成长报告记录</t>
+          <t>点击输入学校您最关注</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
@@ -19882,7 +19903,7 @@
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化成长报告记录</t>
+          <t>全日智自动化选择学校您最关注什么</t>
         </is>
       </c>
       <c r="G89" s="0" t="inlineStr">
@@ -19896,13 +19917,13 @@
         </is>
       </c>
       <c r="M89" s="0" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>phone_03</t>
+          <t>phone_04</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
@@ -19912,7 +19933,7 @@
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>点击输入学校您最关注</t>
+          <t>点击输入对孩子入学后的期望</t>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
@@ -19927,7 +19948,7 @@
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>全日智自动化选择学校您最关注什么</t>
+          <t>全日智自动化对孩子入学后的期望</t>
         </is>
       </c>
       <c r="G90" s="0" t="inlineStr">
@@ -19941,13 +19962,13 @@
         </is>
       </c>
       <c r="M90" s="0" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>phone_04</t>
+          <t>phone_01</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
@@ -19957,7 +19978,7 @@
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>点击输入对孩子入学后的期望</t>
+          <t>点击下一步</t>
         </is>
       </c>
       <c r="D91" s="0" t="inlineStr">
@@ -19967,12 +19988,7 @@
       </c>
       <c r="E91" s="0" t="inlineStr">
         <is>
-          <t>input_action</t>
-        </is>
-      </c>
-      <c r="F91" s="0" t="inlineStr">
-        <is>
-          <t>全日智自动化对孩子入学后的期望</t>
+          <t>click_action</t>
         </is>
       </c>
       <c r="G91" s="0" t="inlineStr">
@@ -19982,11 +19998,11 @@
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
-          <t>input_box</t>
+          <t>next_step</t>
         </is>
       </c>
       <c r="M91" s="0" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -20002,7 +20018,7 @@
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>点击下一步</t>
+          <t>点击确认提交</t>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
@@ -20025,8 +20041,23 @@
           <t>next_step</t>
         </is>
       </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>phone_page</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>ensure_submit</t>
+        </is>
+      </c>
+      <c r="L92" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
       <c r="M92" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -20062,26 +20093,11 @@
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
-          <t>next_step</t>
-        </is>
-      </c>
-      <c r="I93" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="J93" s="0" t="inlineStr">
-        <is>
           <t>ensure_submit</t>
         </is>
       </c>
-      <c r="L93" s="0" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
       <c r="M93" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -20097,7 +20113,7 @@
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>点击确认提交</t>
+          <t>成功文案</t>
         </is>
       </c>
       <c r="D94" s="0" t="inlineStr">
@@ -20107,7 +20123,7 @@
       </c>
       <c r="E94" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
+          <t>element_text</t>
         </is>
       </c>
       <c r="G94" s="0" t="inlineStr">
@@ -20117,55 +20133,15 @@
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
-          <t>ensure_submit</t>
-        </is>
-      </c>
-      <c r="M94" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="inlineStr">
-        <is>
-          <t>phone_01</t>
-        </is>
-      </c>
-      <c r="B95" s="0" t="inlineStr">
-        <is>
-          <t>移动端留单页</t>
-        </is>
-      </c>
-      <c r="C95" s="0" t="inlineStr">
-        <is>
-          <t>成功文案</t>
-        </is>
-      </c>
-      <c r="D95" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E95" s="0" t="inlineStr">
-        <is>
-          <t>element_text</t>
-        </is>
-      </c>
-      <c r="G95" s="0" t="inlineStr">
-        <is>
-          <t>phone_page</t>
-        </is>
-      </c>
-      <c r="H95" s="0" t="inlineStr">
-        <is>
           <t>success_text</t>
         </is>
       </c>
-      <c r="K95" s="0" t="inlineStr">
+      <c r="K94" s="0" t="inlineStr">
         <is>
           <t>提交成功</t>
         </is>
       </c>
-      <c r="L95" s="0" t="inlineStr">
+      <c r="L94" s="0" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
@@ -20174,8 +20150,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" ref="F2" tooltip="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" r:id="rId1"/>
-    <hyperlink display="dad@qq.com" ref="F62" r:id="rId2"/>
-    <hyperlink display="mom@qq.com" ref="F70" tooltip="mailto:mom@qq.com" r:id="rId3"/>
+    <hyperlink display="dad@qq.com" ref="F61" r:id="rId2"/>
+    <hyperlink display="mom@qq.com" ref="F69" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/venv/config/testsuite.xlsx
+++ b/venv/config/testsuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -70,7 +70,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -84,7 +85,68 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -100,36 +162,22 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -143,63 +191,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -210,6 +210,126 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -231,13 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,49 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,85 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,11 +407,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,26 +454,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,8 +464,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,23 +488,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,10 +512,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -524,16 +524,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -542,115 +542,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="28" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="28" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="19" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="11" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I82" sqref="I82:J82"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -1386,7 +1386,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
   </hyperlinks>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -2363,7 +2363,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -2380,8 +2380,8 @@
   </sheetPr>
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/recruit.html?s=schooltest2</t>
+          <t>https://ischool.xiaogj.com/recruit.html?s=schooltest2</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -2571,7 +2571,11 @@
           <t>ensure_button</t>
         </is>
       </c>
-      <c r="L3" s="0" t="n"/>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -6578,7 +6582,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/recruit.html?s=schooltest2" ref="F2" tooltip="https://schooltest.xiaogj.com/recruit.html?s=schooltest2" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/recruit.html?s=schooltest2" ref="F2" tooltip="https://ischool.xiaogj.com/recruit.html?s=schooltest2" r:id="rId1"/>
     <hyperlink display="dad@qq.com" ref="F86" r:id="rId2"/>
     <hyperlink display="mom@qq.com" ref="F95" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>
@@ -6595,7 +6599,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6713,7 +6717,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -7394,7 +7398,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
   </hyperlinks>
@@ -7411,7 +7415,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I82" sqref="I82:J82"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7549,7 +7553,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -7967,7 +7971,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -7985,7 +7989,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I82" sqref="I82:J82"/>
+      <selection activeCell="A1" sqref="A1:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8094,7 +8098,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -8473,13 +8477,8 @@
           <t>sign_up_input</t>
         </is>
       </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="M10" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -8524,7 +8523,7 @@
         </is>
       </c>
       <c r="M11" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -8651,7 +8650,7 @@
         </is>
       </c>
       <c r="M14" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -8696,7 +8695,7 @@
         </is>
       </c>
       <c r="M15" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -8740,7 +8739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row customHeight="1" ht="14" r="17" s="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Clue_01</t>
@@ -8828,7 +8827,7 @@
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M18" s="0" t="n">
@@ -8869,7 +8868,7 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>clue_name</t>
+          <t>clue_name2</t>
         </is>
       </c>
       <c r="K19" s="4" t="n"/>
@@ -8884,7 +8883,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -9724,7 +9723,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9834,7 +9833,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -9891,11 +9890,6 @@
         </is>
       </c>
       <c r="K3" s="0" t="n"/>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
       </c>
@@ -10227,13 +10221,8 @@
         </is>
       </c>
       <c r="K10" s="0" t="n"/>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="M10" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -10279,7 +10268,7 @@
       </c>
       <c r="K11" s="0" t="n"/>
       <c r="M11" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -10409,7 +10398,7 @@
       </c>
       <c r="K14" s="0" t="n"/>
       <c r="M14" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -10455,7 +10444,7 @@
       </c>
       <c r="K15" s="0" t="n"/>
       <c r="M15" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -10500,7 +10489,7 @@
         </is>
       </c>
       <c r="M16" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -10538,11 +10527,6 @@
       <c r="H17" s="0" t="inlineStr">
         <is>
           <t>chose_button</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
       <c r="M17" s="0" t="n">
@@ -10842,7 +10826,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -10861,7 +10845,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:M7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10971,7 +10955,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -11804,7 +11788,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -11820,10 +11804,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11932,7 +11916,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -12226,13 +12210,13 @@
       </c>
       <c r="I8" s="2" t="n"/>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Clue_02</t>
+          <t>Clue_03</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -12242,7 +12226,7 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>点击注册button</t>
+          <t>获取学生姓名</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -12252,18 +12236,28 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>click_action</t>
-        </is>
-      </c>
+          <t>element_text</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>register</t>
-        </is>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>clue_student_name</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n"/>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -12279,7 +12273,7 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>点击确定</t>
+          <t>点击注册button</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -12299,17 +12293,14 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>ensure_button</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>4</v>
+          <t>register</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Clue_03</t>
+          <t>Clue_02</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -12319,7 +12310,7 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>点击确认</t>
+          <t>点击确定</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -12339,7 +12330,7 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>agree_button</t>
+          <t>ensure_button</t>
         </is>
       </c>
       <c r="M11" s="0" t="n">
@@ -12349,57 +12340,93 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
+          <t>Clue_03</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>录取学生</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>点击确认</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>click_action</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>enrollment_management</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>agree_button</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
           <t>Clue_01</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>录取学生</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>确认是否注册成功</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>对比学生姓名</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>element_text</t>
         </is>
       </c>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>enrollment_management</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>register_button</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
-        <is>
-          <t>已注册</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>clue_student_name</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -12417,7 +12444,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12563,7 +12590,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -13981,7 +14008,7 @@
       </c>
       <c r="L31" s="0" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="M31" s="0" t="n">
@@ -13990,7 +14017,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -14008,7 +14035,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14153,7 +14180,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -14463,7 +14490,7 @@
       <c r="K8" s="0" t="n"/>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>章队舭</t>
+          <t>郝啷谭</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -14640,7 +14667,7 @@
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M12" s="0" t="n">
@@ -14649,7 +14676,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -14667,7 +14694,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14805,7 +14832,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -15293,7 +15320,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -15310,8 +15337,8 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15450,7 +15477,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/login.html#/login</t>
+          <t>https://ischool.xiaogj.com/login.html#/login</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -16136,7 +16163,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/login.html#/login" ref="F2" tooltip="https://schooltest.xiaogj.com/login.html#/login" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/login.html#/login" ref="F2" tooltip="https://ischool.xiaogj.com/login.html#/login" r:id="rId1"/>
     <hyperlink display="admin@schooltest2" ref="F3" tooltip="mailto:admin@schooltest2" r:id="rId2"/>
     <hyperlink display="Qrz888888" ref="F4" r:id="rId3"/>
     <hyperlink display="mailto:admin@demo" ref="F5" r:id="rId4"/>
@@ -16153,8 +16180,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16269,7 +16296,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit</t>
+          <t>https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -17389,6 +17416,11 @@
       <c r="H29" s="0" t="inlineStr">
         <is>
           <t>input_box</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="M29" s="0" t="n">
@@ -20149,7 +20181,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" ref="F2" tooltip="https://schooltest.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" r:id="rId1"/>
+    <hyperlink display="https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" ref="F2" tooltip="https://ischool.xiaogj.com/mobile/ssx/parent.html?s=schooltest1#/recruit" r:id="rId1"/>
     <hyperlink display="dad@qq.com" ref="F61" r:id="rId2"/>
     <hyperlink display="mom@qq.com" ref="F69" tooltip="mailto:mom@qq.com" r:id="rId3"/>
   </hyperlinks>
